--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9362089951605495</v>
+        <v>0.936208995160549</v>
       </c>
       <c r="D2">
-        <v>1.013808335252427</v>
+        <v>1.013808335252428</v>
       </c>
       <c r="E2">
-        <v>0.9519063917424176</v>
+        <v>0.9519063917424173</v>
       </c>
       <c r="F2">
-        <v>0.9617975156477987</v>
+        <v>0.9617975156477985</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037558515587339</v>
       </c>
       <c r="J2">
-        <v>0.9604807896401233</v>
+        <v>0.9604807896401228</v>
       </c>
       <c r="K2">
         <v>1.025078592372189</v>
       </c>
       <c r="L2">
-        <v>0.9640790570734371</v>
+        <v>0.9640790570734367</v>
       </c>
       <c r="M2">
-        <v>0.973816038524888</v>
+        <v>0.9738160385248877</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9510946151940788</v>
+        <v>0.9510946151940802</v>
       </c>
       <c r="D3">
         <v>1.019284379211224</v>
       </c>
       <c r="E3">
-        <v>0.9646371364983168</v>
+        <v>0.9646371364983181</v>
       </c>
       <c r="F3">
-        <v>0.9744845752792394</v>
+        <v>0.9744845752792402</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04071173139562</v>
       </c>
       <c r="J3">
-        <v>0.9730134901629443</v>
+        <v>0.9730134901629455</v>
       </c>
       <c r="K3">
         <v>1.029676318365657</v>
       </c>
       <c r="L3">
-        <v>0.9757434220141056</v>
+        <v>0.9757434220141068</v>
       </c>
       <c r="M3">
-        <v>0.9854546874308671</v>
+        <v>0.9854546874308681</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9601715311336079</v>
+        <v>0.9601715311336089</v>
       </c>
       <c r="D4">
-        <v>1.022649238851132</v>
+        <v>1.022649238851131</v>
       </c>
       <c r="E4">
-        <v>0.9724108994747968</v>
+        <v>0.9724108994747978</v>
       </c>
       <c r="F4">
-        <v>0.9822416771430553</v>
+        <v>0.9822416771430557</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042621137924865</v>
       </c>
       <c r="J4">
-        <v>0.980651999719597</v>
+        <v>0.980651999719598</v>
       </c>
       <c r="K4">
         <v>1.032481781637191</v>
       </c>
       <c r="L4">
-        <v>0.9828541145227137</v>
+        <v>0.9828541145227145</v>
       </c>
       <c r="M4">
-        <v>0.9925592624038541</v>
+        <v>0.9925592624038544</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9638692459906743</v>
+        <v>0.9638692459906747</v>
       </c>
       <c r="D5">
         <v>1.024025104810536</v>
       </c>
       <c r="E5">
-        <v>0.9755799235672802</v>
+        <v>0.9755799235672806</v>
       </c>
       <c r="F5">
         <v>0.9854059976898774</v>
@@ -553,16 +553,16 @@
         <v>1.043395352914776</v>
       </c>
       <c r="J5">
-        <v>0.9837625954406407</v>
+        <v>0.9837625954406412</v>
       </c>
       <c r="K5">
         <v>1.033624409249188</v>
       </c>
       <c r="L5">
-        <v>0.9857500380356774</v>
+        <v>0.9857500380356776</v>
       </c>
       <c r="M5">
-        <v>0.9954546973689973</v>
+        <v>0.9954546973689975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9644835525715278</v>
+        <v>0.9644835525715265</v>
       </c>
       <c r="D6">
         <v>1.024253951819465</v>
       </c>
       <c r="E6">
-        <v>0.9761065156464325</v>
+        <v>0.976106515646431</v>
       </c>
       <c r="F6">
-        <v>0.9859319229484437</v>
+        <v>0.9859319229484431</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043523749181894</v>
       </c>
       <c r="J6">
-        <v>0.9842792884795364</v>
+        <v>0.9842792884795349</v>
       </c>
       <c r="K6">
         <v>1.03381420232745</v>
       </c>
       <c r="L6">
-        <v>0.9862310863648928</v>
+        <v>0.9862310863648915</v>
       </c>
       <c r="M6">
-        <v>0.995935774874611</v>
+        <v>0.9959357748746103</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9602213873329627</v>
+        <v>0.9602213873329625</v>
       </c>
       <c r="D7">
         <v>1.022667770604735</v>
       </c>
       <c r="E7">
-        <v>0.9724536191688506</v>
+        <v>0.9724536191688503</v>
       </c>
       <c r="F7">
-        <v>0.9822843255023884</v>
+        <v>0.982284325502388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042631591621384</v>
+        <v>1.042631591621383</v>
       </c>
       <c r="J7">
-        <v>0.9806939446991622</v>
+        <v>0.9806939446991619</v>
       </c>
       <c r="K7">
         <v>1.032497189509334</v>
       </c>
       <c r="L7">
-        <v>0.9828931637629733</v>
+        <v>0.9828931637629731</v>
       </c>
       <c r="M7">
-        <v>0.9925982974370766</v>
+        <v>0.9925982974370763</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,10 +652,10 @@
         <v>0.9413643592257804</v>
       </c>
       <c r="D8">
-        <v>1.015698611502564</v>
+        <v>1.015698611502565</v>
       </c>
       <c r="E8">
-        <v>0.9563128296378908</v>
+        <v>0.956312829637891</v>
       </c>
       <c r="F8">
         <v>0.9661864632216944</v>
@@ -667,13 +667,13 @@
         <v>1.038653160051657</v>
       </c>
       <c r="J8">
-        <v>0.9648218603797069</v>
+        <v>0.9648218603797067</v>
       </c>
       <c r="K8">
         <v>1.026670052384779</v>
       </c>
       <c r="L8">
-        <v>0.9681189972337205</v>
+        <v>0.9681189972337207</v>
       </c>
       <c r="M8">
         <v>0.977844814183201</v>
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9030263649971</v>
+        <v>0.9030263649970998</v>
       </c>
       <c r="D9">
-        <v>1.001819079068942</v>
+        <v>1.001819079068941</v>
       </c>
       <c r="E9">
-        <v>0.9236188499207555</v>
+        <v>0.9236188499207554</v>
       </c>
       <c r="F9">
         <v>0.9336863182087261</v>
@@ -705,13 +705,13 @@
         <v>1.030474813558228</v>
       </c>
       <c r="J9">
-        <v>0.9325384676783959</v>
+        <v>0.9325384676783957</v>
       </c>
       <c r="K9">
-        <v>1.014882711768343</v>
+        <v>1.014882711768342</v>
       </c>
       <c r="L9">
-        <v>0.9380859525804911</v>
+        <v>0.938085952580491</v>
       </c>
       <c r="M9">
         <v>0.9479554557601088</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8723294892264812</v>
+        <v>0.8723294892264808</v>
       </c>
       <c r="D10">
-        <v>0.9910386420315699</v>
+        <v>0.9910386420315698</v>
       </c>
       <c r="E10">
-        <v>0.897583685303356</v>
+        <v>0.8975836853033554</v>
       </c>
       <c r="F10">
-        <v>0.9079214462148919</v>
+        <v>0.9079214462148916</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023913942876119</v>
       </c>
       <c r="J10">
-        <v>0.9067161446837643</v>
+        <v>0.9067161446837638</v>
       </c>
       <c r="K10">
         <v>1.005571603811228</v>
       </c>
       <c r="L10">
-        <v>0.9140859937725955</v>
+        <v>0.914085993772595</v>
       </c>
       <c r="M10">
-        <v>0.9241792020285422</v>
+        <v>0.9241792020285418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8571854452221638</v>
+        <v>0.857185445222163</v>
       </c>
       <c r="D11">
-        <v>0.9858435423682098</v>
+        <v>0.9858435423682093</v>
       </c>
       <c r="E11">
-        <v>0.8847944624876375</v>
+        <v>0.8847944624876367</v>
       </c>
       <c r="F11">
-        <v>0.8953072689553715</v>
+        <v>0.8953072689553704</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020691628569554</v>
       </c>
       <c r="J11">
-        <v>0.8939968965003462</v>
+        <v>0.8939968965003453</v>
       </c>
       <c r="K11">
-        <v>1.00103745958481</v>
+        <v>1.001037459584809</v>
       </c>
       <c r="L11">
-        <v>0.9022736124925234</v>
+        <v>0.9022736124925226</v>
       </c>
       <c r="M11">
-        <v>0.9125161628921369</v>
+        <v>0.9125161628921359</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.8511938076569509</v>
       </c>
       <c r="D12">
-        <v>0.9838120777681867</v>
+        <v>0.9838120777681866</v>
       </c>
       <c r="E12">
         <v>0.8797455252695037</v>
       </c>
       <c r="F12">
-        <v>0.890335670871895</v>
+        <v>0.8903356708718948</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8889694414676218</v>
       </c>
       <c r="K12">
-        <v>0.9992561260809134</v>
+        <v>0.9992561260809133</v>
       </c>
       <c r="L12">
         <v>0.8976065194660966</v>
       </c>
       <c r="M12">
-        <v>0.9079156650573418</v>
+        <v>0.9079156650573417</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.852497537023267</v>
+        <v>0.8524975370232686</v>
       </c>
       <c r="D13">
-        <v>0.9842529264614912</v>
+        <v>0.9842529264614917</v>
       </c>
       <c r="E13">
-        <v>0.8808435793773237</v>
+        <v>0.8808435793773254</v>
       </c>
       <c r="F13">
-        <v>0.8914164973516319</v>
+        <v>0.8914164973516333</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019697331026621</v>
       </c>
       <c r="J13">
-        <v>0.8900631184162419</v>
+        <v>0.8900631184162433</v>
       </c>
       <c r="K13">
-        <v>0.9996430926465953</v>
+        <v>0.9996430926465957</v>
       </c>
       <c r="L13">
-        <v>0.8986217063390606</v>
+        <v>0.8986217063390621</v>
       </c>
       <c r="M13">
-        <v>0.9089159913805549</v>
+        <v>0.9089159913805566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8566983226934057</v>
+        <v>0.8566983226934035</v>
       </c>
       <c r="D14">
-        <v>0.9856778677889287</v>
+        <v>0.9856778677889281</v>
       </c>
       <c r="E14">
-        <v>0.8843837416581024</v>
+        <v>0.8843837416581003</v>
       </c>
       <c r="F14">
-        <v>0.8949026615132863</v>
+        <v>0.8949026615132842</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020588232744398</v>
       </c>
       <c r="J14">
-        <v>0.8935880527291725</v>
+        <v>0.8935880527291704</v>
       </c>
       <c r="K14">
-        <v>1.00089235994906</v>
+        <v>1.000892359949059</v>
       </c>
       <c r="L14">
-        <v>0.9018940321780761</v>
+        <v>0.9018940321780737</v>
       </c>
       <c r="M14">
-        <v>0.9121418351793336</v>
+        <v>0.9121418351793318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8592346129747322</v>
+        <v>0.8592346129747328</v>
       </c>
       <c r="D15">
-        <v>0.9865414729516765</v>
+        <v>0.9865414729516759</v>
       </c>
       <c r="E15">
-        <v>0.8865226917794962</v>
+        <v>0.8865226917794968</v>
       </c>
       <c r="F15">
-        <v>0.8970101158868466</v>
+        <v>0.8970101158868462</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021126771101015</v>
       </c>
       <c r="J15">
-        <v>0.8957169758927244</v>
+        <v>0.8957169758927248</v>
       </c>
       <c r="K15">
-        <v>1.001648372868078</v>
+        <v>1.001648372868077</v>
       </c>
       <c r="L15">
-        <v>0.9038706551009845</v>
+        <v>0.9038706551009851</v>
       </c>
       <c r="M15">
-        <v>0.9140914201147512</v>
+        <v>0.9140914201147511</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732889241643388</v>
+        <v>0.8732889241643376</v>
       </c>
       <c r="D16">
-        <v>0.991370620350347</v>
+        <v>0.9913706203503467</v>
       </c>
       <c r="E16">
-        <v>0.8983952256620829</v>
+        <v>0.8983952256620816</v>
       </c>
       <c r="F16">
-        <v>0.9087228576023266</v>
+        <v>0.9087228576023256</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02411853735834</v>
       </c>
       <c r="J16">
-        <v>0.9075224875548309</v>
+        <v>0.90752248755483</v>
       </c>
       <c r="K16">
         <v>1.005860307009347</v>
       </c>
       <c r="L16">
-        <v>0.914835066552351</v>
+        <v>0.9148350665523498</v>
       </c>
       <c r="M16">
-        <v>0.924919708407548</v>
+        <v>0.9249197084075471</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,22 +991,22 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8815586372376801</v>
+        <v>0.8815586372376804</v>
       </c>
       <c r="D17">
-        <v>0.9942457221151305</v>
+        <v>0.9942457221151304</v>
       </c>
       <c r="E17">
-        <v>0.905396285765117</v>
+        <v>0.9053962857651169</v>
       </c>
       <c r="F17">
-        <v>0.915641224037184</v>
+        <v>0.9156412240371842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025883730791394</v>
+        <v>1.025883730791395</v>
       </c>
       <c r="J17">
         <v>0.9144749201134172</v>
@@ -1015,10 +1015,10 @@
         <v>1.008355402565605</v>
       </c>
       <c r="L17">
-        <v>0.9212947345835615</v>
+        <v>0.9212947345835617</v>
       </c>
       <c r="M17">
-        <v>0.931309848052737</v>
+        <v>0.9313098480527373</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8862110329122729</v>
+        <v>0.8862110329122733</v>
       </c>
       <c r="D18">
         <v>0.995873776404287</v>
       </c>
       <c r="E18">
-        <v>0.9093396436490998</v>
+        <v>0.9093396436491002</v>
       </c>
       <c r="F18">
-        <v>0.9195416331789363</v>
+        <v>0.9195416331789364</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.02687791971469</v>
       </c>
       <c r="J18">
-        <v>0.9183878762659121</v>
+        <v>0.9183878762659127</v>
       </c>
       <c r="K18">
         <v>1.009764115989729</v>
       </c>
       <c r="L18">
-        <v>0.924931135847306</v>
+        <v>0.9249311358473066</v>
       </c>
       <c r="M18">
         <v>0.9349104779334471</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877703967715255</v>
+        <v>0.8877703967715243</v>
       </c>
       <c r="D19">
-        <v>0.9964211296199225</v>
+        <v>0.9964211296199216</v>
       </c>
       <c r="E19">
-        <v>0.9106620904320973</v>
+        <v>0.9106620904320962</v>
       </c>
       <c r="F19">
-        <v>0.9208502505251771</v>
+        <v>0.9208502505251762</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027211286842442</v>
       </c>
       <c r="J19">
-        <v>0.9196996372272388</v>
+        <v>0.9196996372272377</v>
       </c>
       <c r="K19">
-        <v>1.010237049461316</v>
+        <v>1.010237049461315</v>
       </c>
       <c r="L19">
-        <v>0.9261503071679613</v>
+        <v>0.9261503071679599</v>
       </c>
       <c r="M19">
-        <v>0.9361181901213652</v>
+        <v>0.9361181901213644</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8806895905764396</v>
+        <v>0.8806895905764393</v>
       </c>
       <c r="D20">
-        <v>0.9939424445947794</v>
+        <v>0.9939424445947793</v>
       </c>
       <c r="E20">
-        <v>0.9046600528358283</v>
+        <v>0.9046600528358281</v>
       </c>
       <c r="F20">
-        <v>0.9149132964362142</v>
+        <v>0.9149132964362136</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025698100239572</v>
       </c>
       <c r="J20">
-        <v>0.9137441217744176</v>
+        <v>0.9137441217744171</v>
       </c>
       <c r="K20">
         <v>1.008092651721347</v>
       </c>
       <c r="L20">
-        <v>0.9206156478830433</v>
+        <v>0.9206156478830432</v>
       </c>
       <c r="M20">
-        <v>0.930637708089064</v>
+        <v>0.9306377080890633</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8554723472029351</v>
+        <v>0.8554723472029333</v>
       </c>
       <c r="D21">
-        <v>0.9852613050072003</v>
+        <v>0.9852613050071999</v>
       </c>
       <c r="E21">
-        <v>0.8833502383950755</v>
+        <v>0.8833502383950741</v>
       </c>
       <c r="F21">
-        <v>0.8938846800892729</v>
+        <v>0.893884680089272</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020328087714611</v>
       </c>
       <c r="J21">
-        <v>0.8925591711989079</v>
+        <v>0.8925591711989064</v>
       </c>
       <c r="K21">
         <v>1.000527391905937</v>
       </c>
       <c r="L21">
-        <v>0.900938826559278</v>
+        <v>0.9009388265592767</v>
       </c>
       <c r="M21">
-        <v>0.9111999751689035</v>
+        <v>0.9111999751689024</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,10 +1181,10 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8374128759061507</v>
+        <v>0.8374128759061509</v>
       </c>
       <c r="D22">
-        <v>0.9791931243614552</v>
+        <v>0.9791931243614554</v>
       </c>
       <c r="E22">
         <v>0.868158103562085</v>
@@ -1199,16 +1199,16 @@
         <v>1.016510596228178</v>
       </c>
       <c r="J22">
-        <v>0.8774182261584171</v>
+        <v>0.877418226158417</v>
       </c>
       <c r="K22">
-        <v>0.995188353741808</v>
+        <v>0.9951883537418081</v>
       </c>
       <c r="L22">
         <v>0.8868877394977114</v>
       </c>
       <c r="M22">
-        <v>0.897366816401129</v>
+        <v>0.8973668164011289</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8472387196702508</v>
+        <v>0.847238719670251</v>
       </c>
       <c r="D23">
-        <v>0.9824787474894008</v>
+        <v>0.9824787474894007</v>
       </c>
       <c r="E23">
-        <v>0.8764162998515687</v>
+        <v>0.8764162998515689</v>
       </c>
       <c r="F23">
-        <v>0.8870600832428348</v>
+        <v>0.8870600832428349</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018584053709421</v>
       </c>
       <c r="J23">
-        <v>0.885652486279049</v>
+        <v>0.8856524862790491</v>
       </c>
       <c r="K23">
-        <v>0.9980844114719396</v>
+        <v>0.9980844114719395</v>
       </c>
       <c r="L23">
-        <v>0.8945279490690415</v>
+        <v>0.894527949069042</v>
       </c>
       <c r="M23">
-        <v>0.904883449080367</v>
+        <v>0.9048834490803672</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8810827983265263</v>
+        <v>0.8810827983265275</v>
       </c>
       <c r="D24">
         <v>0.9940796323483932</v>
       </c>
       <c r="E24">
-        <v>0.9049931533384159</v>
+        <v>0.9049931533384171</v>
       </c>
       <c r="F24">
-        <v>0.9152426280300234</v>
+        <v>0.915242628030024</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025782087028249</v>
       </c>
       <c r="J24">
-        <v>0.9140747728389425</v>
+        <v>0.9140747728389435</v>
       </c>
       <c r="K24">
         <v>1.008211520138002</v>
       </c>
       <c r="L24">
-        <v>0.9209228995018809</v>
+        <v>0.9209228995018819</v>
       </c>
       <c r="M24">
-        <v>0.9309418062140941</v>
+        <v>0.9309418062140947</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9136858427447762</v>
+        <v>0.9136858427447756</v>
       </c>
       <c r="D25">
         <v>1.005635027597696</v>
       </c>
       <c r="E25">
-        <v>0.9326908834260342</v>
+        <v>0.9326908834260338</v>
       </c>
       <c r="F25">
-        <v>0.9426892416072934</v>
+        <v>0.9426892416072929</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032754803436696</v>
       </c>
       <c r="J25">
-        <v>0.9415132815585741</v>
+        <v>0.9415132815585736</v>
       </c>
       <c r="K25">
         <v>1.018146492324235</v>
       </c>
       <c r="L25">
-        <v>0.9464324312290315</v>
+        <v>0.9464324312290311</v>
       </c>
       <c r="M25">
-        <v>0.9562475460255335</v>
+        <v>0.9562475460255333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.936208995160549</v>
+        <v>0.9362089951605495</v>
       </c>
       <c r="D2">
-        <v>1.013808335252428</v>
+        <v>1.013808335252427</v>
       </c>
       <c r="E2">
-        <v>0.9519063917424173</v>
+        <v>0.9519063917424176</v>
       </c>
       <c r="F2">
-        <v>0.9617975156477985</v>
+        <v>0.9617975156477987</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037558515587339</v>
       </c>
       <c r="J2">
-        <v>0.9604807896401228</v>
+        <v>0.9604807896401233</v>
       </c>
       <c r="K2">
         <v>1.025078592372189</v>
       </c>
       <c r="L2">
-        <v>0.9640790570734367</v>
+        <v>0.9640790570734371</v>
       </c>
       <c r="M2">
-        <v>0.9738160385248877</v>
+        <v>0.973816038524888</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9510946151940802</v>
+        <v>0.9510946151940788</v>
       </c>
       <c r="D3">
         <v>1.019284379211224</v>
       </c>
       <c r="E3">
-        <v>0.9646371364983181</v>
+        <v>0.9646371364983168</v>
       </c>
       <c r="F3">
-        <v>0.9744845752792402</v>
+        <v>0.9744845752792394</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04071173139562</v>
       </c>
       <c r="J3">
-        <v>0.9730134901629455</v>
+        <v>0.9730134901629443</v>
       </c>
       <c r="K3">
         <v>1.029676318365657</v>
       </c>
       <c r="L3">
-        <v>0.9757434220141068</v>
+        <v>0.9757434220141056</v>
       </c>
       <c r="M3">
-        <v>0.9854546874308681</v>
+        <v>0.9854546874308671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9601715311336089</v>
+        <v>0.9601715311336079</v>
       </c>
       <c r="D4">
-        <v>1.022649238851131</v>
+        <v>1.022649238851132</v>
       </c>
       <c r="E4">
-        <v>0.9724108994747978</v>
+        <v>0.9724108994747968</v>
       </c>
       <c r="F4">
-        <v>0.9822416771430557</v>
+        <v>0.9822416771430553</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042621137924865</v>
       </c>
       <c r="J4">
-        <v>0.980651999719598</v>
+        <v>0.980651999719597</v>
       </c>
       <c r="K4">
         <v>1.032481781637191</v>
       </c>
       <c r="L4">
-        <v>0.9828541145227145</v>
+        <v>0.9828541145227137</v>
       </c>
       <c r="M4">
-        <v>0.9925592624038544</v>
+        <v>0.9925592624038541</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9638692459906747</v>
+        <v>0.9638692459906743</v>
       </c>
       <c r="D5">
         <v>1.024025104810536</v>
       </c>
       <c r="E5">
-        <v>0.9755799235672806</v>
+        <v>0.9755799235672802</v>
       </c>
       <c r="F5">
         <v>0.9854059976898774</v>
@@ -553,16 +553,16 @@
         <v>1.043395352914776</v>
       </c>
       <c r="J5">
-        <v>0.9837625954406412</v>
+        <v>0.9837625954406407</v>
       </c>
       <c r="K5">
         <v>1.033624409249188</v>
       </c>
       <c r="L5">
-        <v>0.9857500380356776</v>
+        <v>0.9857500380356774</v>
       </c>
       <c r="M5">
-        <v>0.9954546973689975</v>
+        <v>0.9954546973689973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9644835525715265</v>
+        <v>0.9644835525715278</v>
       </c>
       <c r="D6">
         <v>1.024253951819465</v>
       </c>
       <c r="E6">
-        <v>0.976106515646431</v>
+        <v>0.9761065156464325</v>
       </c>
       <c r="F6">
-        <v>0.9859319229484431</v>
+        <v>0.9859319229484437</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043523749181894</v>
       </c>
       <c r="J6">
-        <v>0.9842792884795349</v>
+        <v>0.9842792884795364</v>
       </c>
       <c r="K6">
         <v>1.03381420232745</v>
       </c>
       <c r="L6">
-        <v>0.9862310863648915</v>
+        <v>0.9862310863648928</v>
       </c>
       <c r="M6">
-        <v>0.9959357748746103</v>
+        <v>0.995935774874611</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9602213873329625</v>
+        <v>0.9602213873329627</v>
       </c>
       <c r="D7">
         <v>1.022667770604735</v>
       </c>
       <c r="E7">
-        <v>0.9724536191688503</v>
+        <v>0.9724536191688506</v>
       </c>
       <c r="F7">
-        <v>0.982284325502388</v>
+        <v>0.9822843255023884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042631591621383</v>
+        <v>1.042631591621384</v>
       </c>
       <c r="J7">
-        <v>0.9806939446991619</v>
+        <v>0.9806939446991622</v>
       </c>
       <c r="K7">
         <v>1.032497189509334</v>
       </c>
       <c r="L7">
-        <v>0.9828931637629731</v>
+        <v>0.9828931637629733</v>
       </c>
       <c r="M7">
-        <v>0.9925982974370763</v>
+        <v>0.9925982974370766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,10 +652,10 @@
         <v>0.9413643592257804</v>
       </c>
       <c r="D8">
-        <v>1.015698611502565</v>
+        <v>1.015698611502564</v>
       </c>
       <c r="E8">
-        <v>0.956312829637891</v>
+        <v>0.9563128296378908</v>
       </c>
       <c r="F8">
         <v>0.9661864632216944</v>
@@ -667,13 +667,13 @@
         <v>1.038653160051657</v>
       </c>
       <c r="J8">
-        <v>0.9648218603797067</v>
+        <v>0.9648218603797069</v>
       </c>
       <c r="K8">
         <v>1.026670052384779</v>
       </c>
       <c r="L8">
-        <v>0.9681189972337207</v>
+        <v>0.9681189972337205</v>
       </c>
       <c r="M8">
         <v>0.977844814183201</v>
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9030263649970998</v>
+        <v>0.9030263649971</v>
       </c>
       <c r="D9">
-        <v>1.001819079068941</v>
+        <v>1.001819079068942</v>
       </c>
       <c r="E9">
-        <v>0.9236188499207554</v>
+        <v>0.9236188499207555</v>
       </c>
       <c r="F9">
         <v>0.9336863182087261</v>
@@ -705,13 +705,13 @@
         <v>1.030474813558228</v>
       </c>
       <c r="J9">
-        <v>0.9325384676783957</v>
+        <v>0.9325384676783959</v>
       </c>
       <c r="K9">
-        <v>1.014882711768342</v>
+        <v>1.014882711768343</v>
       </c>
       <c r="L9">
-        <v>0.938085952580491</v>
+        <v>0.9380859525804911</v>
       </c>
       <c r="M9">
         <v>0.9479554557601088</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8723294892264808</v>
+        <v>0.8723294892264812</v>
       </c>
       <c r="D10">
-        <v>0.9910386420315698</v>
+        <v>0.9910386420315699</v>
       </c>
       <c r="E10">
-        <v>0.8975836853033554</v>
+        <v>0.897583685303356</v>
       </c>
       <c r="F10">
-        <v>0.9079214462148916</v>
+        <v>0.9079214462148919</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023913942876119</v>
       </c>
       <c r="J10">
-        <v>0.9067161446837638</v>
+        <v>0.9067161446837643</v>
       </c>
       <c r="K10">
         <v>1.005571603811228</v>
       </c>
       <c r="L10">
-        <v>0.914085993772595</v>
+        <v>0.9140859937725955</v>
       </c>
       <c r="M10">
-        <v>0.9241792020285418</v>
+        <v>0.9241792020285422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.857185445222163</v>
+        <v>0.8571854452221638</v>
       </c>
       <c r="D11">
-        <v>0.9858435423682093</v>
+        <v>0.9858435423682098</v>
       </c>
       <c r="E11">
-        <v>0.8847944624876367</v>
+        <v>0.8847944624876375</v>
       </c>
       <c r="F11">
-        <v>0.8953072689553704</v>
+        <v>0.8953072689553715</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020691628569554</v>
       </c>
       <c r="J11">
-        <v>0.8939968965003453</v>
+        <v>0.8939968965003462</v>
       </c>
       <c r="K11">
-        <v>1.001037459584809</v>
+        <v>1.00103745958481</v>
       </c>
       <c r="L11">
-        <v>0.9022736124925226</v>
+        <v>0.9022736124925234</v>
       </c>
       <c r="M11">
-        <v>0.9125161628921359</v>
+        <v>0.9125161628921369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -804,13 +804,13 @@
         <v>0.8511938076569509</v>
       </c>
       <c r="D12">
-        <v>0.9838120777681866</v>
+        <v>0.9838120777681867</v>
       </c>
       <c r="E12">
         <v>0.8797455252695037</v>
       </c>
       <c r="F12">
-        <v>0.8903356708718948</v>
+        <v>0.890335670871895</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8889694414676218</v>
       </c>
       <c r="K12">
-        <v>0.9992561260809133</v>
+        <v>0.9992561260809134</v>
       </c>
       <c r="L12">
         <v>0.8976065194660966</v>
       </c>
       <c r="M12">
-        <v>0.9079156650573417</v>
+        <v>0.9079156650573418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8524975370232686</v>
+        <v>0.852497537023267</v>
       </c>
       <c r="D13">
-        <v>0.9842529264614917</v>
+        <v>0.9842529264614912</v>
       </c>
       <c r="E13">
-        <v>0.8808435793773254</v>
+        <v>0.8808435793773237</v>
       </c>
       <c r="F13">
-        <v>0.8914164973516333</v>
+        <v>0.8914164973516319</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019697331026621</v>
       </c>
       <c r="J13">
-        <v>0.8900631184162433</v>
+        <v>0.8900631184162419</v>
       </c>
       <c r="K13">
-        <v>0.9996430926465957</v>
+        <v>0.9996430926465953</v>
       </c>
       <c r="L13">
-        <v>0.8986217063390621</v>
+        <v>0.8986217063390606</v>
       </c>
       <c r="M13">
-        <v>0.9089159913805566</v>
+        <v>0.9089159913805549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8566983226934035</v>
+        <v>0.8566983226934057</v>
       </c>
       <c r="D14">
-        <v>0.9856778677889281</v>
+        <v>0.9856778677889287</v>
       </c>
       <c r="E14">
-        <v>0.8843837416581003</v>
+        <v>0.8843837416581024</v>
       </c>
       <c r="F14">
-        <v>0.8949026615132842</v>
+        <v>0.8949026615132863</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020588232744398</v>
       </c>
       <c r="J14">
-        <v>0.8935880527291704</v>
+        <v>0.8935880527291725</v>
       </c>
       <c r="K14">
-        <v>1.000892359949059</v>
+        <v>1.00089235994906</v>
       </c>
       <c r="L14">
-        <v>0.9018940321780737</v>
+        <v>0.9018940321780761</v>
       </c>
       <c r="M14">
-        <v>0.9121418351793318</v>
+        <v>0.9121418351793336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8592346129747328</v>
+        <v>0.8592346129747322</v>
       </c>
       <c r="D15">
-        <v>0.9865414729516759</v>
+        <v>0.9865414729516765</v>
       </c>
       <c r="E15">
-        <v>0.8865226917794968</v>
+        <v>0.8865226917794962</v>
       </c>
       <c r="F15">
-        <v>0.8970101158868462</v>
+        <v>0.8970101158868466</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021126771101015</v>
       </c>
       <c r="J15">
-        <v>0.8957169758927248</v>
+        <v>0.8957169758927244</v>
       </c>
       <c r="K15">
-        <v>1.001648372868077</v>
+        <v>1.001648372868078</v>
       </c>
       <c r="L15">
-        <v>0.9038706551009851</v>
+        <v>0.9038706551009845</v>
       </c>
       <c r="M15">
-        <v>0.9140914201147511</v>
+        <v>0.9140914201147512</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732889241643376</v>
+        <v>0.8732889241643388</v>
       </c>
       <c r="D16">
-        <v>0.9913706203503467</v>
+        <v>0.991370620350347</v>
       </c>
       <c r="E16">
-        <v>0.8983952256620816</v>
+        <v>0.8983952256620829</v>
       </c>
       <c r="F16">
-        <v>0.9087228576023256</v>
+        <v>0.9087228576023266</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02411853735834</v>
       </c>
       <c r="J16">
-        <v>0.90752248755483</v>
+        <v>0.9075224875548309</v>
       </c>
       <c r="K16">
         <v>1.005860307009347</v>
       </c>
       <c r="L16">
-        <v>0.9148350665523498</v>
+        <v>0.914835066552351</v>
       </c>
       <c r="M16">
-        <v>0.9249197084075471</v>
+        <v>0.924919708407548</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,22 +991,22 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8815586372376804</v>
+        <v>0.8815586372376801</v>
       </c>
       <c r="D17">
-        <v>0.9942457221151304</v>
+        <v>0.9942457221151305</v>
       </c>
       <c r="E17">
-        <v>0.9053962857651169</v>
+        <v>0.905396285765117</v>
       </c>
       <c r="F17">
-        <v>0.9156412240371842</v>
+        <v>0.915641224037184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025883730791395</v>
+        <v>1.025883730791394</v>
       </c>
       <c r="J17">
         <v>0.9144749201134172</v>
@@ -1015,10 +1015,10 @@
         <v>1.008355402565605</v>
       </c>
       <c r="L17">
-        <v>0.9212947345835617</v>
+        <v>0.9212947345835615</v>
       </c>
       <c r="M17">
-        <v>0.9313098480527373</v>
+        <v>0.931309848052737</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8862110329122733</v>
+        <v>0.8862110329122729</v>
       </c>
       <c r="D18">
         <v>0.995873776404287</v>
       </c>
       <c r="E18">
-        <v>0.9093396436491002</v>
+        <v>0.9093396436490998</v>
       </c>
       <c r="F18">
-        <v>0.9195416331789364</v>
+        <v>0.9195416331789363</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.02687791971469</v>
       </c>
       <c r="J18">
-        <v>0.9183878762659127</v>
+        <v>0.9183878762659121</v>
       </c>
       <c r="K18">
         <v>1.009764115989729</v>
       </c>
       <c r="L18">
-        <v>0.9249311358473066</v>
+        <v>0.924931135847306</v>
       </c>
       <c r="M18">
         <v>0.9349104779334471</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877703967715243</v>
+        <v>0.8877703967715255</v>
       </c>
       <c r="D19">
-        <v>0.9964211296199216</v>
+        <v>0.9964211296199225</v>
       </c>
       <c r="E19">
-        <v>0.9106620904320962</v>
+        <v>0.9106620904320973</v>
       </c>
       <c r="F19">
-        <v>0.9208502505251762</v>
+        <v>0.9208502505251771</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027211286842442</v>
       </c>
       <c r="J19">
-        <v>0.9196996372272377</v>
+        <v>0.9196996372272388</v>
       </c>
       <c r="K19">
-        <v>1.010237049461315</v>
+        <v>1.010237049461316</v>
       </c>
       <c r="L19">
-        <v>0.9261503071679599</v>
+        <v>0.9261503071679613</v>
       </c>
       <c r="M19">
-        <v>0.9361181901213644</v>
+        <v>0.9361181901213652</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8806895905764393</v>
+        <v>0.8806895905764396</v>
       </c>
       <c r="D20">
-        <v>0.9939424445947793</v>
+        <v>0.9939424445947794</v>
       </c>
       <c r="E20">
-        <v>0.9046600528358281</v>
+        <v>0.9046600528358283</v>
       </c>
       <c r="F20">
-        <v>0.9149132964362136</v>
+        <v>0.9149132964362142</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025698100239572</v>
       </c>
       <c r="J20">
-        <v>0.9137441217744171</v>
+        <v>0.9137441217744176</v>
       </c>
       <c r="K20">
         <v>1.008092651721347</v>
       </c>
       <c r="L20">
-        <v>0.9206156478830432</v>
+        <v>0.9206156478830433</v>
       </c>
       <c r="M20">
-        <v>0.9306377080890633</v>
+        <v>0.930637708089064</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8554723472029333</v>
+        <v>0.8554723472029351</v>
       </c>
       <c r="D21">
-        <v>0.9852613050071999</v>
+        <v>0.9852613050072003</v>
       </c>
       <c r="E21">
-        <v>0.8833502383950741</v>
+        <v>0.8833502383950755</v>
       </c>
       <c r="F21">
-        <v>0.893884680089272</v>
+        <v>0.8938846800892729</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020328087714611</v>
       </c>
       <c r="J21">
-        <v>0.8925591711989064</v>
+        <v>0.8925591711989079</v>
       </c>
       <c r="K21">
         <v>1.000527391905937</v>
       </c>
       <c r="L21">
-        <v>0.9009388265592767</v>
+        <v>0.900938826559278</v>
       </c>
       <c r="M21">
-        <v>0.9111999751689024</v>
+        <v>0.9111999751689035</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,10 +1181,10 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8374128759061509</v>
+        <v>0.8374128759061507</v>
       </c>
       <c r="D22">
-        <v>0.9791931243614554</v>
+        <v>0.9791931243614552</v>
       </c>
       <c r="E22">
         <v>0.868158103562085</v>
@@ -1199,16 +1199,16 @@
         <v>1.016510596228178</v>
       </c>
       <c r="J22">
-        <v>0.877418226158417</v>
+        <v>0.8774182261584171</v>
       </c>
       <c r="K22">
-        <v>0.9951883537418081</v>
+        <v>0.995188353741808</v>
       </c>
       <c r="L22">
         <v>0.8868877394977114</v>
       </c>
       <c r="M22">
-        <v>0.8973668164011289</v>
+        <v>0.897366816401129</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.847238719670251</v>
+        <v>0.8472387196702508</v>
       </c>
       <c r="D23">
-        <v>0.9824787474894007</v>
+        <v>0.9824787474894008</v>
       </c>
       <c r="E23">
-        <v>0.8764162998515689</v>
+        <v>0.8764162998515687</v>
       </c>
       <c r="F23">
-        <v>0.8870600832428349</v>
+        <v>0.8870600832428348</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018584053709421</v>
       </c>
       <c r="J23">
-        <v>0.8856524862790491</v>
+        <v>0.885652486279049</v>
       </c>
       <c r="K23">
-        <v>0.9980844114719395</v>
+        <v>0.9980844114719396</v>
       </c>
       <c r="L23">
-        <v>0.894527949069042</v>
+        <v>0.8945279490690415</v>
       </c>
       <c r="M23">
-        <v>0.9048834490803672</v>
+        <v>0.904883449080367</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8810827983265275</v>
+        <v>0.8810827983265263</v>
       </c>
       <c r="D24">
         <v>0.9940796323483932</v>
       </c>
       <c r="E24">
-        <v>0.9049931533384171</v>
+        <v>0.9049931533384159</v>
       </c>
       <c r="F24">
-        <v>0.915242628030024</v>
+        <v>0.9152426280300234</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025782087028249</v>
       </c>
       <c r="J24">
-        <v>0.9140747728389435</v>
+        <v>0.9140747728389425</v>
       </c>
       <c r="K24">
         <v>1.008211520138002</v>
       </c>
       <c r="L24">
-        <v>0.9209228995018819</v>
+        <v>0.9209228995018809</v>
       </c>
       <c r="M24">
-        <v>0.9309418062140947</v>
+        <v>0.9309418062140941</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9136858427447756</v>
+        <v>0.9136858427447762</v>
       </c>
       <c r="D25">
         <v>1.005635027597696</v>
       </c>
       <c r="E25">
-        <v>0.9326908834260338</v>
+        <v>0.9326908834260342</v>
       </c>
       <c r="F25">
-        <v>0.9426892416072929</v>
+        <v>0.9426892416072934</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032754803436696</v>
       </c>
       <c r="J25">
-        <v>0.9415132815585736</v>
+        <v>0.9415132815585741</v>
       </c>
       <c r="K25">
         <v>1.018146492324235</v>
       </c>
       <c r="L25">
-        <v>0.9464324312290311</v>
+        <v>0.9464324312290315</v>
       </c>
       <c r="M25">
-        <v>0.9562475460255333</v>
+        <v>0.9562475460255335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9362089951605495</v>
+        <v>0.9404309785879202</v>
       </c>
       <c r="D2">
-        <v>1.013808335252427</v>
+        <v>1.014828712956927</v>
       </c>
       <c r="E2">
-        <v>0.9519063917424176</v>
+        <v>0.9554941452314261</v>
       </c>
       <c r="F2">
-        <v>0.9617975156477987</v>
+        <v>0.9649023988879313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037558515587339</v>
+        <v>1.038347923266615</v>
       </c>
       <c r="J2">
-        <v>0.9604807896401233</v>
+        <v>0.9645520769194453</v>
       </c>
       <c r="K2">
-        <v>1.025078592372189</v>
+        <v>1.026085254621654</v>
       </c>
       <c r="L2">
-        <v>0.9640790570734371</v>
+        <v>0.967610427636093</v>
       </c>
       <c r="M2">
-        <v>0.973816038524888</v>
+        <v>0.9768733666061791</v>
+      </c>
+      <c r="N2">
+        <v>0.9659218515043406</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9510946151940788</v>
+        <v>0.9552431142211691</v>
       </c>
       <c r="D3">
-        <v>1.019284379211224</v>
+        <v>1.020284839298246</v>
       </c>
       <c r="E3">
-        <v>0.9646371364983168</v>
+        <v>0.9681674775196564</v>
       </c>
       <c r="F3">
-        <v>0.9744845752792394</v>
+        <v>0.977531388355162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04071173139562</v>
+        <v>1.041487988804431</v>
       </c>
       <c r="J3">
-        <v>0.9730134901629443</v>
+        <v>0.9770329947966371</v>
       </c>
       <c r="K3">
-        <v>1.029676318365657</v>
+        <v>1.030664587475489</v>
       </c>
       <c r="L3">
-        <v>0.9757434220141056</v>
+        <v>0.9792245426289273</v>
       </c>
       <c r="M3">
-        <v>0.9854546874308671</v>
+        <v>0.9884600674410133</v>
+      </c>
+      <c r="N3">
+        <v>0.9784204937164993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9601715311336079</v>
+        <v>0.9642806368472145</v>
       </c>
       <c r="D4">
-        <v>1.022649238851132</v>
+        <v>1.02363893322565</v>
       </c>
       <c r="E4">
-        <v>0.9724108994747968</v>
+        <v>0.9759105711194177</v>
       </c>
       <c r="F4">
-        <v>0.9822416771430553</v>
+        <v>0.9852571534553667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042621137924865</v>
+        <v>1.043390411887335</v>
       </c>
       <c r="J4">
-        <v>0.980651999719597</v>
+        <v>0.9846443866780068</v>
       </c>
       <c r="K4">
-        <v>1.032481781637191</v>
+        <v>1.033460188910064</v>
       </c>
       <c r="L4">
-        <v>0.9828541145227137</v>
+        <v>0.9863087003691106</v>
       </c>
       <c r="M4">
-        <v>0.9925592624038541</v>
+        <v>0.9955368297672541</v>
+      </c>
+      <c r="N4">
+        <v>0.9860426946473794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9638692459906743</v>
+        <v>0.9679633995655813</v>
       </c>
       <c r="D5">
-        <v>1.024025104810536</v>
+        <v>1.025010696305818</v>
       </c>
       <c r="E5">
-        <v>0.9755799235672802</v>
+        <v>0.9790679822291508</v>
       </c>
       <c r="F5">
-        <v>0.9854059976898774</v>
+        <v>0.9884095358761593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043395352914776</v>
+        <v>1.044161994881377</v>
       </c>
       <c r="J5">
-        <v>0.9837625954406407</v>
+        <v>0.9877448409393088</v>
       </c>
       <c r="K5">
-        <v>1.033624409249188</v>
+        <v>1.034599076969911</v>
       </c>
       <c r="L5">
-        <v>0.9857500380356774</v>
+        <v>0.9891946494491843</v>
       </c>
       <c r="M5">
-        <v>0.9954546973689973</v>
+        <v>0.9984217210946396</v>
+      </c>
+      <c r="N5">
+        <v>0.9891475519093595</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9644835525715278</v>
+        <v>0.9685752816326962</v>
       </c>
       <c r="D6">
-        <v>1.024253951819465</v>
+        <v>1.025238877164294</v>
       </c>
       <c r="E6">
-        <v>0.9761065156464325</v>
+        <v>0.9795926929547797</v>
       </c>
       <c r="F6">
-        <v>0.9859319229484437</v>
+        <v>0.9889335228900953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043523749181894</v>
+        <v>1.044289965553258</v>
       </c>
       <c r="J6">
-        <v>0.9842792884795364</v>
+        <v>0.9882598984484559</v>
       </c>
       <c r="K6">
-        <v>1.03381420232745</v>
+        <v>1.034788264001227</v>
       </c>
       <c r="L6">
-        <v>0.9862310863648928</v>
+        <v>0.9896740861923012</v>
       </c>
       <c r="M6">
-        <v>0.995935774874611</v>
+        <v>0.9989010898228684</v>
+      </c>
+      <c r="N6">
+        <v>0.9896633408592475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9602213873329627</v>
+        <v>0.964330287320914</v>
       </c>
       <c r="D7">
-        <v>1.022667770604735</v>
+        <v>1.023657408590177</v>
       </c>
       <c r="E7">
-        <v>0.9724536191688506</v>
+        <v>0.9759531309143521</v>
       </c>
       <c r="F7">
-        <v>0.9822843255023884</v>
+        <v>0.985299637731425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042631591621384</v>
+        <v>1.04340082929032</v>
       </c>
       <c r="J7">
-        <v>0.9806939446991622</v>
+        <v>0.9846861915052633</v>
       </c>
       <c r="K7">
-        <v>1.032497189509334</v>
+        <v>1.033475545309854</v>
       </c>
       <c r="L7">
-        <v>0.9828931637629733</v>
+        <v>0.9863476119733686</v>
       </c>
       <c r="M7">
-        <v>0.9925982974370766</v>
+        <v>0.9955757196724487</v>
+      </c>
+      <c r="N7">
+        <v>0.9860845588422853</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9413643592257804</v>
+        <v>0.9455595800872428</v>
       </c>
       <c r="D8">
-        <v>1.015698611502564</v>
+        <v>1.016711759388204</v>
       </c>
       <c r="E8">
-        <v>0.9563128296378908</v>
+        <v>0.9598796498876503</v>
       </c>
       <c r="F8">
-        <v>0.9661864632216944</v>
+        <v>0.9692702504387343</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038653160051657</v>
+        <v>1.039437764921221</v>
       </c>
       <c r="J8">
-        <v>0.9648218603797069</v>
+        <v>0.9688741358451426</v>
       </c>
       <c r="K8">
-        <v>1.026670052384779</v>
+        <v>1.02767001925182</v>
       </c>
       <c r="L8">
-        <v>0.9681189972337205</v>
+        <v>0.9716319725760117</v>
       </c>
       <c r="M8">
-        <v>0.977844814183201</v>
+        <v>0.9808832179726302</v>
+      </c>
+      <c r="N8">
+        <v>0.9702500482494594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9030263649971</v>
+        <v>0.9074590736472008</v>
       </c>
       <c r="D9">
-        <v>1.001819079068942</v>
+        <v>1.002895547215418</v>
       </c>
       <c r="E9">
-        <v>0.9236188499207555</v>
+        <v>0.9273719437252882</v>
       </c>
       <c r="F9">
-        <v>0.9336863182087261</v>
+        <v>0.9369556557891882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030474813558228</v>
+        <v>1.031302261640529</v>
       </c>
       <c r="J9">
-        <v>0.9325384676783959</v>
+        <v>0.936763536491527</v>
       </c>
       <c r="K9">
-        <v>1.014882711768343</v>
+        <v>1.015941820224741</v>
       </c>
       <c r="L9">
-        <v>0.9380859525804911</v>
+        <v>0.9417645861685712</v>
       </c>
       <c r="M9">
-        <v>0.9479554557601088</v>
+        <v>0.9511617036681436</v>
+      </c>
+      <c r="N9">
+        <v>0.9380938481616244</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8723294892264812</v>
+        <v>0.8770321944510928</v>
       </c>
       <c r="D10">
-        <v>0.9910386420315699</v>
+        <v>0.9921853046899152</v>
       </c>
       <c r="E10">
-        <v>0.897583685303356</v>
+        <v>0.9015490863778944</v>
       </c>
       <c r="F10">
-        <v>0.9079214462148919</v>
+        <v>0.9113984348563556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023913942876119</v>
+        <v>1.024790172382647</v>
       </c>
       <c r="J10">
-        <v>0.9067161446837643</v>
+        <v>0.9111443724362034</v>
       </c>
       <c r="K10">
-        <v>1.005571603811228</v>
+        <v>1.006697104076917</v>
       </c>
       <c r="L10">
-        <v>0.9140859937725955</v>
+        <v>0.9179566990940885</v>
       </c>
       <c r="M10">
-        <v>0.9241792020285422</v>
+        <v>0.9275756043305908</v>
+      </c>
+      <c r="N10">
+        <v>0.912438301954783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8571854452221638</v>
+        <v>0.8620569121264579</v>
       </c>
       <c r="D11">
-        <v>0.9858435423682098</v>
+        <v>0.9870333881473837</v>
       </c>
       <c r="E11">
-        <v>0.8847944624876375</v>
+        <v>0.8888925747979154</v>
       </c>
       <c r="F11">
-        <v>0.8953072689553715</v>
+        <v>0.8989128285863862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020691628569554</v>
+        <v>1.021598251250973</v>
       </c>
       <c r="J11">
-        <v>0.8939968965003462</v>
+        <v>0.8985540489192343</v>
       </c>
       <c r="K11">
-        <v>1.00103745958481</v>
+        <v>1.002204049816573</v>
       </c>
       <c r="L11">
-        <v>0.9022736124925234</v>
+        <v>0.9062653442422367</v>
       </c>
       <c r="M11">
-        <v>0.9125161628921369</v>
+        <v>0.9160309964127281</v>
+      </c>
+      <c r="N11">
+        <v>0.8998300987342895</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8511938076569509</v>
+        <v>0.8561400478037248</v>
       </c>
       <c r="D12">
-        <v>0.9838120777681867</v>
+        <v>0.9850209216717964</v>
       </c>
       <c r="E12">
-        <v>0.8797455252695037</v>
+        <v>0.8839024214092067</v>
       </c>
       <c r="F12">
-        <v>0.890335670871895</v>
+        <v>0.8939979584005051</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019421119940261</v>
+        <v>1.020341180256273</v>
       </c>
       <c r="J12">
-        <v>0.8889694414676218</v>
+        <v>0.8935840435171195</v>
       </c>
       <c r="K12">
-        <v>0.9992561260809134</v>
+        <v>1.000440835998025</v>
       </c>
       <c r="L12">
-        <v>0.8976065194660966</v>
+        <v>0.9016520256799645</v>
       </c>
       <c r="M12">
-        <v>0.9079156650573418</v>
+        <v>0.9114828733278417</v>
+      </c>
+      <c r="N12">
+        <v>0.8948530353544363</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.852497537023267</v>
+        <v>0.857427086180825</v>
       </c>
       <c r="D13">
-        <v>0.9842529264614912</v>
+        <v>0.9854575361168944</v>
       </c>
       <c r="E13">
-        <v>0.8808435793773237</v>
+        <v>0.8849873548151029</v>
       </c>
       <c r="F13">
-        <v>0.8914164973516319</v>
+        <v>0.8950661335659166</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019697331026621</v>
+        <v>1.020614393307756</v>
       </c>
       <c r="J13">
-        <v>0.8900631184162419</v>
+        <v>0.8946648814351744</v>
       </c>
       <c r="K13">
-        <v>0.9996430926465953</v>
+        <v>1.000823762126976</v>
       </c>
       <c r="L13">
-        <v>0.8986217063390606</v>
+        <v>0.9026552022152811</v>
       </c>
       <c r="M13">
-        <v>0.9089159913805549</v>
+        <v>0.9124715135261189</v>
+      </c>
+      <c r="N13">
+        <v>0.8959354081863085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8566983226934057</v>
+        <v>0.86157568745969</v>
       </c>
       <c r="D14">
-        <v>0.9856778677889287</v>
+        <v>0.9868692148743304</v>
       </c>
       <c r="E14">
-        <v>0.8843837416581024</v>
+        <v>0.8884864910858981</v>
       </c>
       <c r="F14">
-        <v>0.8949026615132863</v>
+        <v>0.8985127005946718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020588232744398</v>
+        <v>1.021495915984741</v>
       </c>
       <c r="J14">
-        <v>0.8935880527291725</v>
+        <v>0.8981497300773076</v>
       </c>
       <c r="K14">
-        <v>1.00089235994906</v>
+        <v>1.002060381217059</v>
       </c>
       <c r="L14">
-        <v>0.9018940321780761</v>
+        <v>0.9058900025469566</v>
       </c>
       <c r="M14">
-        <v>0.9121418351793336</v>
+        <v>0.9156608019770481</v>
+      </c>
+      <c r="N14">
+        <v>0.8994252057132313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8592346129747322</v>
+        <v>0.8640816083316384</v>
       </c>
       <c r="D15">
-        <v>0.9865414729516765</v>
+        <v>0.9877250841485029</v>
       </c>
       <c r="E15">
-        <v>0.8865226917794962</v>
+        <v>0.8906015629027324</v>
       </c>
       <c r="F15">
-        <v>0.8970101158868466</v>
+        <v>0.9005970798774898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021126771101015</v>
+        <v>1.022028992107504</v>
       </c>
       <c r="J15">
-        <v>0.8957169758927244</v>
+        <v>0.9002553660089745</v>
       </c>
       <c r="K15">
-        <v>1.001648372868078</v>
+        <v>1.002809021983673</v>
       </c>
       <c r="L15">
-        <v>0.9038706551009845</v>
+        <v>0.9078448056450904</v>
       </c>
       <c r="M15">
-        <v>0.9140914201147512</v>
+        <v>0.917589099771156</v>
+      </c>
+      <c r="N15">
+        <v>0.9015338318894407</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732889241643388</v>
+        <v>0.8779818251679665</v>
       </c>
       <c r="D16">
-        <v>0.991370620350347</v>
+        <v>0.9925147598446989</v>
       </c>
       <c r="E16">
-        <v>0.8983952256620829</v>
+        <v>0.9023529158848028</v>
       </c>
       <c r="F16">
-        <v>0.9087228576023266</v>
+        <v>0.9121923515010074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02411853735834</v>
+        <v>1.024992998492988</v>
       </c>
       <c r="J16">
-        <v>0.9075224875548309</v>
+        <v>0.9119432624937995</v>
       </c>
       <c r="K16">
-        <v>1.005860307009347</v>
+        <v>1.006983411209375</v>
       </c>
       <c r="L16">
-        <v>0.914835066552351</v>
+        <v>0.918698758598365</v>
       </c>
       <c r="M16">
-        <v>0.924919708407548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9283092205795686</v>
+      </c>
+      <c r="N16">
+        <v>0.9132383265278954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8815586372376801</v>
+        <v>0.886170992420798</v>
       </c>
       <c r="D17">
-        <v>0.9942457221151305</v>
+        <v>0.9953690654956819</v>
       </c>
       <c r="E17">
-        <v>0.905396285765117</v>
+        <v>0.9092906277727559</v>
       </c>
       <c r="F17">
-        <v>0.915641224037184</v>
+        <v>0.9190490270721735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025883730791394</v>
+        <v>1.026743653780476</v>
       </c>
       <c r="J17">
-        <v>0.9144749201134172</v>
+        <v>0.9188346518336168</v>
       </c>
       <c r="K17">
-        <v>1.008355402565605</v>
+        <v>1.009458781919926</v>
       </c>
       <c r="L17">
-        <v>0.9212947345835615</v>
+        <v>0.9251009013524694</v>
       </c>
       <c r="M17">
-        <v>0.931309848052737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9346427126447288</v>
+      </c>
+      <c r="N17">
+        <v>0.9201395024310282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8862110329122729</v>
+        <v>0.8907810263380295</v>
       </c>
       <c r="D18">
-        <v>0.995873776404287</v>
+        <v>0.9969861312227005</v>
       </c>
       <c r="E18">
-        <v>0.9093396436490998</v>
+        <v>0.9132006704368367</v>
       </c>
       <c r="F18">
-        <v>0.9195416331789363</v>
+        <v>0.922916900643757</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02687791971469</v>
+        <v>1.027730189926599</v>
       </c>
       <c r="J18">
-        <v>0.9183878762659121</v>
+        <v>0.9227156497907788</v>
       </c>
       <c r="K18">
-        <v>1.009764115989729</v>
+        <v>1.01085709155246</v>
       </c>
       <c r="L18">
-        <v>0.924931135847306</v>
+        <v>0.9287071222732993</v>
       </c>
       <c r="M18">
-        <v>0.9349104779334471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9382135191937001</v>
+      </c>
+      <c r="N18">
+        <v>0.9240260118504459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877703967715255</v>
+        <v>0.8923266408491058</v>
       </c>
       <c r="D19">
-        <v>0.9964211296199225</v>
+        <v>0.9975299097939601</v>
       </c>
       <c r="E19">
-        <v>0.9106620904320973</v>
+        <v>0.9145123047190471</v>
       </c>
       <c r="F19">
-        <v>0.9208502505251771</v>
+        <v>0.9242149436180359</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027211286842442</v>
+        <v>1.028061072334561</v>
       </c>
       <c r="J19">
-        <v>0.9196996372272388</v>
+        <v>0.924017062266056</v>
       </c>
       <c r="K19">
-        <v>1.010237049461316</v>
+        <v>1.011326643681989</v>
       </c>
       <c r="L19">
-        <v>0.9261503071679613</v>
+        <v>0.9299165104376265</v>
       </c>
       <c r="M19">
-        <v>0.9361181901213652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.939411547104696</v>
+      </c>
+      <c r="N19">
+        <v>0.925329272480712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8806895905764396</v>
+        <v>0.8853100874736616</v>
       </c>
       <c r="D20">
-        <v>0.9939424445947794</v>
+        <v>0.9950678957409325</v>
       </c>
       <c r="E20">
-        <v>0.9046600528358283</v>
+        <v>0.9085607980892983</v>
       </c>
       <c r="F20">
-        <v>0.9149132964362142</v>
+        <v>0.918327345260839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025698100239572</v>
+        <v>1.02655949355836</v>
       </c>
       <c r="J20">
-        <v>0.9137441217744176</v>
+        <v>0.918110007924845</v>
       </c>
       <c r="K20">
-        <v>1.008092651721347</v>
+        <v>1.009198028228332</v>
       </c>
       <c r="L20">
-        <v>0.9206156478830433</v>
+        <v>0.924427621409401</v>
       </c>
       <c r="M20">
-        <v>0.930637708089064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.933976302161393</v>
+      </c>
+      <c r="N20">
+        <v>0.9194138294447882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8554723472029351</v>
+        <v>0.8603646947651798</v>
       </c>
       <c r="D21">
-        <v>0.9852613050072003</v>
+        <v>0.9864564637757043</v>
       </c>
       <c r="E21">
-        <v>0.8833502383950755</v>
+        <v>0.8874647675225181</v>
       </c>
       <c r="F21">
-        <v>0.8938846800892729</v>
+        <v>0.8975060947787085</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020328087714611</v>
+        <v>1.021238464678756</v>
       </c>
       <c r="J21">
-        <v>0.8925591711989079</v>
+        <v>0.8971323487490401</v>
       </c>
       <c r="K21">
-        <v>1.000527391905937</v>
+        <v>1.001699047123903</v>
       </c>
       <c r="L21">
-        <v>0.900938826559278</v>
+        <v>0.9049455669685699</v>
       </c>
       <c r="M21">
-        <v>0.9111999751689035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9147294403918762</v>
+      </c>
+      <c r="N21">
+        <v>0.8984063795867825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8374128759061507</v>
+        <v>0.8425512477718959</v>
       </c>
       <c r="D22">
-        <v>0.9791931243614552</v>
+        <v>0.9804504646142915</v>
       </c>
       <c r="E22">
-        <v>0.868158103562085</v>
+        <v>0.8724659810656646</v>
       </c>
       <c r="F22">
-        <v>0.8789442531968686</v>
+        <v>0.8827517365583508</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016510596228178</v>
+        <v>1.017465105160059</v>
       </c>
       <c r="J22">
-        <v>0.8774182261584171</v>
+        <v>0.8821811552667025</v>
       </c>
       <c r="K22">
-        <v>0.995188353741808</v>
+        <v>0.9964194108356895</v>
       </c>
       <c r="L22">
-        <v>0.8868877394977114</v>
+        <v>0.8910717288800081</v>
       </c>
       <c r="M22">
-        <v>0.897366816401129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9010683468039082</v>
+      </c>
+      <c r="N22">
+        <v>0.883433953694774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8472387196702508</v>
+        <v>0.8522370937550251</v>
       </c>
       <c r="D23">
-        <v>0.9824787474894008</v>
+        <v>0.9837007939442953</v>
       </c>
       <c r="E23">
-        <v>0.8764162998515687</v>
+        <v>0.8806141737891894</v>
       </c>
       <c r="F23">
-        <v>0.8870600832428348</v>
+        <v>0.8907618460442539</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018584053709421</v>
+        <v>1.019513472690501</v>
       </c>
       <c r="J23">
-        <v>0.885652486279049</v>
+        <v>0.8903072424263572</v>
       </c>
       <c r="K23">
-        <v>0.9980844114719396</v>
+        <v>0.9992817264271215</v>
       </c>
       <c r="L23">
-        <v>0.8945279490690415</v>
+        <v>0.8986109919963431</v>
       </c>
       <c r="M23">
-        <v>0.904883449080367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9084871404960626</v>
+      </c>
+      <c r="N23">
+        <v>0.8915715808302708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8810827983265263</v>
+        <v>0.8856996023355479</v>
       </c>
       <c r="D24">
-        <v>0.9940796323483932</v>
+        <v>0.9952041276254376</v>
       </c>
       <c r="E24">
-        <v>0.9049931533384159</v>
+        <v>0.9088909942250435</v>
       </c>
       <c r="F24">
-        <v>0.9152426280300234</v>
+        <v>0.9186538442008588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025782087028249</v>
+        <v>1.026642813461135</v>
       </c>
       <c r="J24">
-        <v>0.9140747728389425</v>
+        <v>0.918437867015548</v>
       </c>
       <c r="K24">
-        <v>1.008211520138002</v>
+        <v>1.00931599087877</v>
       </c>
       <c r="L24">
-        <v>0.9209228995018809</v>
+        <v>0.9247322389821691</v>
       </c>
       <c r="M24">
-        <v>0.9309418062140941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9342778016265012</v>
+      </c>
+      <c r="N24">
+        <v>0.9197421541330059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9136858427447762</v>
+        <v>0.9180429497831963</v>
       </c>
       <c r="D25">
-        <v>1.005635027597696</v>
+        <v>1.00669152859167</v>
       </c>
       <c r="E25">
-        <v>0.9326908834260342</v>
+        <v>0.9363845874246235</v>
       </c>
       <c r="F25">
-        <v>0.9426892416072934</v>
+        <v>0.9458998743984262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032754803436696</v>
+        <v>1.033568580914648</v>
       </c>
       <c r="J25">
-        <v>0.9415132815585741</v>
+        <v>0.9456825093122919</v>
       </c>
       <c r="K25">
-        <v>1.018146492324235</v>
+        <v>1.019186847770351</v>
       </c>
       <c r="L25">
-        <v>0.9464324312290315</v>
+        <v>0.9500578456020504</v>
       </c>
       <c r="M25">
-        <v>0.9562475460255335</v>
+        <v>0.9594004037445739</v>
+      </c>
+      <c r="N25">
+        <v>0.9470254869468153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9404309785879202</v>
+        <v>0.9682938349199264</v>
       </c>
       <c r="D2">
-        <v>1.014828712956927</v>
+        <v>1.036643474724847</v>
       </c>
       <c r="E2">
-        <v>0.9554941452314261</v>
+        <v>0.9777765053763351</v>
       </c>
       <c r="F2">
-        <v>0.9649023988879313</v>
+        <v>1.029081588514253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038347923266615</v>
+        <v>1.047312971827335</v>
       </c>
       <c r="J2">
-        <v>0.9645520769194453</v>
+        <v>0.9914660719782857</v>
       </c>
       <c r="K2">
-        <v>1.026085254621654</v>
+        <v>1.047614863589032</v>
       </c>
       <c r="L2">
-        <v>0.967610427636093</v>
+        <v>0.9895543840029905</v>
       </c>
       <c r="M2">
-        <v>0.9768733666061791</v>
+        <v>1.040150109368096</v>
       </c>
       <c r="N2">
-        <v>0.9659218515043406</v>
+        <v>0.9928740675232429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9552431142211691</v>
+        <v>0.9794292553814377</v>
       </c>
       <c r="D3">
-        <v>1.020284839298246</v>
+        <v>1.041799648655513</v>
       </c>
       <c r="E3">
-        <v>0.9681674775196564</v>
+        <v>0.9872343343745735</v>
       </c>
       <c r="F3">
-        <v>0.977531388355162</v>
+        <v>1.035854545669417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041487988804431</v>
+        <v>1.049695205326221</v>
       </c>
       <c r="J3">
-        <v>0.9770329947966371</v>
+        <v>1.000496853031743</v>
       </c>
       <c r="K3">
-        <v>1.030664587475489</v>
+        <v>1.051924234894762</v>
       </c>
       <c r="L3">
-        <v>0.9792245426289273</v>
+        <v>0.9980332028145434</v>
       </c>
       <c r="M3">
-        <v>0.9884600674410133</v>
+        <v>1.046048328237063</v>
       </c>
       <c r="N3">
-        <v>0.9784204937164993</v>
+        <v>1.001917673321641</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9642806368472145</v>
+        <v>0.9863316544481262</v>
       </c>
       <c r="D4">
-        <v>1.02363893322565</v>
+        <v>1.045015406415115</v>
       </c>
       <c r="E4">
-        <v>0.9759105711194177</v>
+        <v>0.9931043240124374</v>
       </c>
       <c r="F4">
-        <v>0.9852571534553667</v>
+        <v>1.040074762157886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043390411887335</v>
+        <v>1.05116353097368</v>
       </c>
       <c r="J4">
-        <v>0.9846443866780068</v>
+        <v>1.006091580279573</v>
       </c>
       <c r="K4">
-        <v>1.033460188910064</v>
+        <v>1.054599274682678</v>
       </c>
       <c r="L4">
-        <v>0.9863087003691106</v>
+        <v>1.003286692470356</v>
       </c>
       <c r="M4">
-        <v>0.9955368297672541</v>
+        <v>1.049712431745855</v>
       </c>
       <c r="N4">
-        <v>0.9860426946473794</v>
+        <v>1.007520345723887</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9679633995655813</v>
+        <v>0.9891668002985667</v>
       </c>
       <c r="D5">
-        <v>1.025010696305818</v>
+        <v>1.046340377301951</v>
       </c>
       <c r="E5">
-        <v>0.9790679822291508</v>
+        <v>0.9955169853147666</v>
       </c>
       <c r="F5">
-        <v>0.9884095358761593</v>
+        <v>1.041812846603874</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044161994881377</v>
+        <v>1.051764410389924</v>
       </c>
       <c r="J5">
-        <v>0.9877448409393088</v>
+        <v>1.008388704600705</v>
       </c>
       <c r="K5">
-        <v>1.034599076969911</v>
+        <v>1.055698519335779</v>
       </c>
       <c r="L5">
-        <v>0.9891946494491843</v>
+        <v>1.005443852230928</v>
       </c>
       <c r="M5">
-        <v>0.9984217210946396</v>
+        <v>1.051218895127498</v>
       </c>
       <c r="N5">
-        <v>0.9891475519093595</v>
+        <v>1.009820732225039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9685752816326962</v>
+        <v>0.9896390845820296</v>
       </c>
       <c r="D6">
-        <v>1.025238877164294</v>
+        <v>1.046561318579437</v>
       </c>
       <c r="E6">
-        <v>0.9795926929547797</v>
+        <v>0.9959189782069031</v>
       </c>
       <c r="F6">
-        <v>0.9889335228900953</v>
+        <v>1.042102636312835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044289965553258</v>
+        <v>1.051864368313351</v>
       </c>
       <c r="J6">
-        <v>0.9882598984484559</v>
+        <v>1.008771307103828</v>
       </c>
       <c r="K6">
-        <v>1.034788264001227</v>
+        <v>1.055881649784152</v>
       </c>
       <c r="L6">
-        <v>0.9896740861923012</v>
+        <v>1.005803150328278</v>
       </c>
       <c r="M6">
-        <v>0.9989010898228684</v>
+        <v>1.051469916355787</v>
       </c>
       <c r="N6">
-        <v>0.9896633408592475</v>
+        <v>1.010203878067602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.964330287320914</v>
+        <v>0.9863697923488396</v>
       </c>
       <c r="D7">
-        <v>1.023657408590177</v>
+        <v>1.045033214173308</v>
       </c>
       <c r="E7">
-        <v>0.9759531309143521</v>
+        <v>0.993136772737698</v>
       </c>
       <c r="F7">
-        <v>0.985299637731425</v>
+        <v>1.040098124943579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04340082929032</v>
+        <v>1.051171623053348</v>
       </c>
       <c r="J7">
-        <v>0.9846861915052633</v>
+        <v>1.006122484563872</v>
       </c>
       <c r="K7">
-        <v>1.033475545309854</v>
+        <v>1.054614060193126</v>
       </c>
       <c r="L7">
-        <v>0.9863476119733686</v>
+        <v>1.003315713211602</v>
       </c>
       <c r="M7">
-        <v>0.9955757196724487</v>
+        <v>1.049732691328125</v>
       </c>
       <c r="N7">
-        <v>0.9860845588422853</v>
+        <v>1.007551293895814</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9455595800872428</v>
+        <v>0.9721236460875315</v>
       </c>
       <c r="D8">
-        <v>1.016711759388204</v>
+        <v>1.038412255348823</v>
       </c>
       <c r="E8">
-        <v>0.9598796498876503</v>
+        <v>0.9810276103330289</v>
       </c>
       <c r="F8">
-        <v>0.9692702504387343</v>
+        <v>1.031405935442832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039437764921221</v>
+        <v>1.04813391349789</v>
       </c>
       <c r="J8">
-        <v>0.9688741358451426</v>
+        <v>0.9945725878913845</v>
       </c>
       <c r="K8">
-        <v>1.02767001925182</v>
+        <v>1.049095881530216</v>
       </c>
       <c r="L8">
-        <v>0.9716319725760117</v>
+        <v>0.9924708590376029</v>
       </c>
       <c r="M8">
-        <v>0.9808832179726302</v>
+        <v>1.042176655863172</v>
       </c>
       <c r="N8">
-        <v>0.9702500482494594</v>
+        <v>0.9959849950452606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9074590736472008</v>
+        <v>0.9443841791764548</v>
       </c>
       <c r="D9">
-        <v>1.002895547215418</v>
+        <v>1.025718770321642</v>
       </c>
       <c r="E9">
-        <v>0.9273719437252882</v>
+        <v>0.9575239496853036</v>
       </c>
       <c r="F9">
-        <v>0.9369556557891882</v>
+        <v>1.014699455864156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031302261640529</v>
+        <v>1.042162426334788</v>
       </c>
       <c r="J9">
-        <v>0.936763536491527</v>
+        <v>0.9720662157117476</v>
       </c>
       <c r="K9">
-        <v>1.015941820224741</v>
+        <v>1.038407918050327</v>
       </c>
       <c r="L9">
-        <v>0.9417645861685712</v>
+        <v>0.971345936215991</v>
       </c>
       <c r="M9">
-        <v>0.9511617036681436</v>
+        <v>1.027558462968771</v>
       </c>
       <c r="N9">
-        <v>0.9380938481616244</v>
+        <v>0.9734466612356116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8770321944510928</v>
+        <v>0.9235724028767538</v>
       </c>
       <c r="D10">
-        <v>0.9921853046899152</v>
+        <v>1.016391388024696</v>
       </c>
       <c r="E10">
-        <v>0.9015490863778944</v>
+        <v>0.9399637392132337</v>
       </c>
       <c r="F10">
-        <v>0.9113984348563556</v>
+        <v>1.002377234152111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024790172382647</v>
+        <v>1.03766532802125</v>
       </c>
       <c r="J10">
-        <v>0.9111443724362034</v>
+        <v>0.9551846116158054</v>
       </c>
       <c r="K10">
-        <v>1.006697104076917</v>
+        <v>1.030470866064685</v>
       </c>
       <c r="L10">
-        <v>0.9179566990940885</v>
+        <v>0.955508720589625</v>
       </c>
       <c r="M10">
-        <v>0.9275756043305908</v>
+        <v>1.016703699146788</v>
       </c>
       <c r="N10">
-        <v>0.912438301954783</v>
+        <v>0.956541083325506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8620569121264579</v>
+        <v>0.9138458284458711</v>
       </c>
       <c r="D11">
-        <v>0.9870333881473837</v>
+        <v>1.0120956793019</v>
       </c>
       <c r="E11">
-        <v>0.8888925747979154</v>
+        <v>0.9317809089958448</v>
       </c>
       <c r="F11">
-        <v>0.8989128285863862</v>
+        <v>0.9966864405124352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021598251250973</v>
+        <v>1.035565862498505</v>
       </c>
       <c r="J11">
-        <v>0.8985540489192343</v>
+        <v>0.9473004611249886</v>
       </c>
       <c r="K11">
-        <v>1.002204049816573</v>
+        <v>1.026793037812506</v>
       </c>
       <c r="L11">
-        <v>0.9062653442422367</v>
+        <v>0.9481151840405286</v>
       </c>
       <c r="M11">
-        <v>0.9160309964127281</v>
+        <v>1.011671117425266</v>
       </c>
       <c r="N11">
-        <v>0.8998300987342895</v>
+        <v>0.9486457364366677</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8561400478037248</v>
+        <v>0.9101069763375067</v>
       </c>
       <c r="D12">
-        <v>0.9850209216717964</v>
+        <v>1.010455748281527</v>
       </c>
       <c r="E12">
-        <v>0.8839024214092067</v>
+        <v>0.9286398032494269</v>
       </c>
       <c r="F12">
-        <v>0.8939979584005051</v>
+        <v>0.9945110311555503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020341180256273</v>
+        <v>1.034759853951716</v>
       </c>
       <c r="J12">
-        <v>0.8935840435171195</v>
+        <v>0.9442711855242312</v>
       </c>
       <c r="K12">
-        <v>1.000440835998025</v>
+        <v>1.025385337222684</v>
       </c>
       <c r="L12">
-        <v>0.9016520256799645</v>
+        <v>0.9452749448025893</v>
       </c>
       <c r="M12">
-        <v>0.9114828733278417</v>
+        <v>1.009744152139882</v>
       </c>
       <c r="N12">
-        <v>0.8948530353544363</v>
+        <v>0.9456121589170943</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.857427086180825</v>
+        <v>0.9109150245683759</v>
       </c>
       <c r="D13">
-        <v>0.9854575361168944</v>
+        <v>1.010809631631024</v>
       </c>
       <c r="E13">
-        <v>0.8849873548151029</v>
+        <v>0.9293184567592372</v>
       </c>
       <c r="F13">
-        <v>0.8950661335659166</v>
+        <v>0.994980605840377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020614393307756</v>
+        <v>1.034933992149416</v>
       </c>
       <c r="J13">
-        <v>0.8946648814351744</v>
+        <v>0.9449258080838427</v>
       </c>
       <c r="K13">
-        <v>1.000823762126976</v>
+        <v>1.025689276953625</v>
       </c>
       <c r="L13">
-        <v>0.9026552022152811</v>
+        <v>0.9458886910347889</v>
       </c>
       <c r="M13">
-        <v>0.9124715135261189</v>
+        <v>1.010160245966157</v>
       </c>
       <c r="N13">
-        <v>0.8959354081863085</v>
+        <v>0.9462677111158266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.86157568745969</v>
+        <v>0.9135394682097585</v>
       </c>
       <c r="D14">
-        <v>0.9868692148743304</v>
+        <v>1.011961064183635</v>
       </c>
       <c r="E14">
-        <v>0.8884864910858981</v>
+        <v>0.9315234356921863</v>
       </c>
       <c r="F14">
-        <v>0.8985127005946718</v>
+        <v>0.9965079319511728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021495915984741</v>
+        <v>1.035499793607679</v>
       </c>
       <c r="J14">
-        <v>0.8981497300773076</v>
+        <v>0.947052212618409</v>
       </c>
       <c r="K14">
-        <v>1.002060381217059</v>
+        <v>1.026677561189879</v>
       </c>
       <c r="L14">
-        <v>0.9058900025469566</v>
+        <v>0.9478824156393763</v>
       </c>
       <c r="M14">
-        <v>0.9156608019770481</v>
+        <v>1.011513061166749</v>
       </c>
       <c r="N14">
-        <v>0.8994252057132313</v>
+        <v>0.9483971353887343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8640816083316384</v>
+        <v>0.9151391452389077</v>
       </c>
       <c r="D15">
-        <v>0.9877250841485029</v>
+        <v>1.012664432966409</v>
       </c>
       <c r="E15">
-        <v>0.8906015629027324</v>
+        <v>0.932868026691518</v>
       </c>
       <c r="F15">
-        <v>0.9005970798774898</v>
+        <v>0.997440525193741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022028992107504</v>
+        <v>1.035844821365314</v>
       </c>
       <c r="J15">
-        <v>0.9002553660089745</v>
+        <v>0.9483485141320455</v>
       </c>
       <c r="K15">
-        <v>1.002809021983673</v>
+        <v>1.027280780957023</v>
       </c>
       <c r="L15">
-        <v>0.9078448056450904</v>
+        <v>0.9490979054060468</v>
       </c>
       <c r="M15">
-        <v>0.917589099771156</v>
+        <v>1.012338674369173</v>
       </c>
       <c r="N15">
-        <v>0.9015338318894407</v>
+        <v>0.949695277799208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8779818251679665</v>
+        <v>0.9242013814586429</v>
       </c>
       <c r="D16">
-        <v>0.9925147598446989</v>
+        <v>1.01667060998671</v>
       </c>
       <c r="E16">
-        <v>0.9023529158848028</v>
+        <v>0.9404934375605613</v>
       </c>
       <c r="F16">
-        <v>0.9121923515010074</v>
+        <v>1.002746771529612</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024992998492988</v>
+        <v>1.03780119160589</v>
       </c>
       <c r="J16">
-        <v>0.9119432624937995</v>
+        <v>0.9556946026248122</v>
       </c>
       <c r="K16">
-        <v>1.006983411209375</v>
+        <v>1.03070944291696</v>
       </c>
       <c r="L16">
-        <v>0.918698758598365</v>
+        <v>0.9559870421387475</v>
       </c>
       <c r="M16">
-        <v>0.9283092205795686</v>
+        <v>1.017030076144162</v>
       </c>
       <c r="N16">
-        <v>0.9132383265278954</v>
+        <v>0.9570517985802427</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.886170992420798</v>
+        <v>0.9296827677680898</v>
       </c>
       <c r="D17">
-        <v>0.9953690654956819</v>
+        <v>1.019111170463874</v>
       </c>
       <c r="E17">
-        <v>0.9092906277727559</v>
+        <v>0.9451123595939626</v>
       </c>
       <c r="F17">
-        <v>0.9190490270721735</v>
+        <v>1.005974923171846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026743653780476</v>
+        <v>1.038985527392365</v>
       </c>
       <c r="J17">
-        <v>0.9188346518336168</v>
+        <v>0.9601397139758688</v>
       </c>
       <c r="K17">
-        <v>1.009458781919926</v>
+        <v>1.032792208594695</v>
       </c>
       <c r="L17">
-        <v>0.9251009013524694</v>
+        <v>0.960156446705143</v>
       </c>
       <c r="M17">
-        <v>0.9346427126447288</v>
+        <v>1.019878995151819</v>
       </c>
       <c r="N17">
-        <v>0.9201395024310282</v>
+        <v>0.9615032224992789</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8907810263380295</v>
+        <v>0.9328124525905755</v>
       </c>
       <c r="D18">
-        <v>0.9969861312227005</v>
+        <v>1.020510370203705</v>
       </c>
       <c r="E18">
-        <v>0.9132006704368367</v>
+        <v>0.9477517731521324</v>
       </c>
       <c r="F18">
-        <v>0.922916900643757</v>
+        <v>1.007824224872927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027730189926599</v>
+        <v>1.039661905962617</v>
       </c>
       <c r="J18">
-        <v>0.9227156497907788</v>
+        <v>0.9626782014995391</v>
       </c>
       <c r="K18">
-        <v>1.01085709155246</v>
+        <v>1.033984216694619</v>
       </c>
       <c r="L18">
-        <v>0.9287071222732993</v>
+        <v>0.9625377409880308</v>
       </c>
       <c r="M18">
-        <v>0.9382135191937001</v>
+        <v>1.021509255029393</v>
       </c>
       <c r="N18">
-        <v>0.9240260118504459</v>
+        <v>0.9640453149664017</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8923266408491058</v>
+        <v>0.9338686330116457</v>
       </c>
       <c r="D19">
-        <v>0.9975299097939601</v>
+        <v>1.020983485456004</v>
       </c>
       <c r="E19">
-        <v>0.9145123047190471</v>
+        <v>0.9486428500729299</v>
       </c>
       <c r="F19">
-        <v>0.9242149436180359</v>
+        <v>1.008449304779787</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028061072334561</v>
+        <v>1.039890174933311</v>
       </c>
       <c r="J19">
-        <v>0.924017062266056</v>
+        <v>0.9635349379293096</v>
       </c>
       <c r="K19">
-        <v>1.011326643681989</v>
+        <v>1.034386930809384</v>
       </c>
       <c r="L19">
-        <v>0.9299165104376265</v>
+        <v>0.9633414657118206</v>
       </c>
       <c r="M19">
-        <v>0.939411547104696</v>
+        <v>1.022059999050939</v>
       </c>
       <c r="N19">
-        <v>0.925329272480712</v>
+        <v>0.9649032680601712</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8853100874736616</v>
+        <v>0.9291017696572734</v>
       </c>
       <c r="D20">
-        <v>0.9950678957409325</v>
+        <v>1.018851875849653</v>
       </c>
       <c r="E20">
-        <v>0.9085607980892983</v>
+        <v>0.9446225477565943</v>
       </c>
       <c r="F20">
-        <v>0.918327345260839</v>
+        <v>1.005632104259688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02655949355836</v>
+        <v>1.03885997275319</v>
       </c>
       <c r="J20">
-        <v>0.918110007924845</v>
+        <v>0.9596685022607437</v>
       </c>
       <c r="K20">
-        <v>1.009198028228332</v>
+        <v>1.032571144168881</v>
       </c>
       <c r="L20">
-        <v>0.924427621409401</v>
+        <v>0.9597144344684551</v>
       </c>
       <c r="M20">
-        <v>0.933976302161393</v>
+        <v>1.019576637605756</v>
       </c>
       <c r="N20">
-        <v>0.9194138294447882</v>
+        <v>0.9610313416094697</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8603646947651798</v>
+        <v>0.9127702857498449</v>
       </c>
       <c r="D21">
-        <v>0.9864564637757043</v>
+        <v>1.011623272256047</v>
       </c>
       <c r="E21">
-        <v>0.8874647675225181</v>
+        <v>0.930877066458775</v>
       </c>
       <c r="F21">
-        <v>0.8975060947787085</v>
+        <v>0.9960599491899607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021238464678756</v>
+        <v>1.035333932421043</v>
       </c>
       <c r="J21">
-        <v>0.8971323487490401</v>
+        <v>0.9464289556790796</v>
       </c>
       <c r="K21">
-        <v>1.001699047123903</v>
+        <v>1.026387734153132</v>
       </c>
       <c r="L21">
-        <v>0.9049455669685699</v>
+        <v>0.9472980322118104</v>
       </c>
       <c r="M21">
-        <v>0.9147294403918762</v>
+        <v>1.011116353501528</v>
       </c>
       <c r="N21">
-        <v>0.8984063795867825</v>
+        <v>0.9477729933530623</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8425512477718959</v>
+        <v>0.9017600873236226</v>
       </c>
       <c r="D22">
-        <v>0.9804504646142915</v>
+        <v>1.00681800856972</v>
       </c>
       <c r="E22">
-        <v>0.8724659810656646</v>
+        <v>0.9216363936570168</v>
       </c>
       <c r="F22">
-        <v>0.8827517365583508</v>
+        <v>0.9896794534803806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017465105160059</v>
+        <v>1.032963231335235</v>
       </c>
       <c r="J22">
-        <v>0.8821811552667025</v>
+        <v>0.9375116166428331</v>
       </c>
       <c r="K22">
-        <v>0.9964194108356895</v>
+        <v>1.022255598659406</v>
       </c>
       <c r="L22">
-        <v>0.8910717288800081</v>
+        <v>0.9389383197188396</v>
       </c>
       <c r="M22">
-        <v>0.9010683468039082</v>
+        <v>1.005458172870267</v>
       </c>
       <c r="N22">
-        <v>0.883433953694774</v>
+        <v>0.9388429906725515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8522370937550251</v>
+        <v>0.9076746987461681</v>
       </c>
       <c r="D23">
-        <v>0.9837007939442953</v>
+        <v>1.009392354612743</v>
       </c>
       <c r="E23">
-        <v>0.8806141737891894</v>
+        <v>0.9265977137239352</v>
       </c>
       <c r="F23">
-        <v>0.8907618460442539</v>
+        <v>0.993099523934087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019513472690501</v>
+        <v>1.03423589564931</v>
       </c>
       <c r="J23">
-        <v>0.8903072424263572</v>
+        <v>0.9423009747716949</v>
       </c>
       <c r="K23">
-        <v>0.9992817264271215</v>
+        <v>1.02447145961741</v>
       </c>
       <c r="L23">
-        <v>0.8986109919963431</v>
+        <v>0.943427846377051</v>
       </c>
       <c r="M23">
-        <v>0.9084871404960626</v>
+        <v>1.008492917998596</v>
       </c>
       <c r="N23">
-        <v>0.8915715808302708</v>
+        <v>0.9436391502393033</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8856996023355479</v>
+        <v>0.9293645049841488</v>
       </c>
       <c r="D24">
-        <v>0.9952041276254376</v>
+        <v>1.018969114718777</v>
       </c>
       <c r="E24">
-        <v>0.9088909942250435</v>
+        <v>0.9448440406937472</v>
       </c>
       <c r="F24">
-        <v>0.9186538442008588</v>
+        <v>1.005787112678879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026642813461135</v>
+        <v>1.038916749824588</v>
       </c>
       <c r="J24">
-        <v>0.918437867015548</v>
+        <v>0.9598815892095944</v>
       </c>
       <c r="K24">
-        <v>1.00931599087877</v>
+        <v>1.032671103838305</v>
       </c>
       <c r="L24">
-        <v>0.9247322389821691</v>
+        <v>0.9599143163124533</v>
       </c>
       <c r="M24">
-        <v>0.9342778016265012</v>
+        <v>1.019713356644615</v>
       </c>
       <c r="N24">
-        <v>0.9197421541330059</v>
+        <v>0.9612447311662291</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9180429497831963</v>
+        <v>0.9519175751984167</v>
       </c>
       <c r="D25">
-        <v>1.00669152859167</v>
+        <v>1.029138034412298</v>
       </c>
       <c r="E25">
-        <v>0.9363845874246235</v>
+        <v>0.9638965093292099</v>
       </c>
       <c r="F25">
-        <v>0.9458998743984262</v>
+        <v>1.019206093874221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033568580914648</v>
+        <v>1.043788680196607</v>
       </c>
       <c r="J25">
-        <v>0.9456825093122919</v>
+        <v>0.9781790028263184</v>
       </c>
       <c r="K25">
-        <v>1.019186847770351</v>
+        <v>1.041300253032817</v>
       </c>
       <c r="L25">
-        <v>0.9500578456020504</v>
+        <v>0.9770823943311118</v>
       </c>
       <c r="M25">
-        <v>0.9594004037445739</v>
+        <v>1.031513400506538</v>
       </c>
       <c r="N25">
-        <v>0.9470254869468153</v>
+        <v>0.9795681292090316</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9682938349199264</v>
+        <v>0.9748181683566187</v>
       </c>
       <c r="D2">
-        <v>1.036643474724847</v>
+        <v>1.032158679937196</v>
       </c>
       <c r="E2">
-        <v>0.9777765053763351</v>
+        <v>0.9847098991811044</v>
       </c>
       <c r="F2">
-        <v>1.029081588514253</v>
+        <v>1.023457513254006</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047312971827335</v>
+        <v>1.048048225425341</v>
       </c>
       <c r="J2">
-        <v>0.9914660719782857</v>
+        <v>0.9977790665330145</v>
       </c>
       <c r="K2">
-        <v>1.047614863589032</v>
+        <v>1.043187460966322</v>
       </c>
       <c r="L2">
-        <v>0.9895543840029905</v>
+        <v>0.9963864410232265</v>
       </c>
       <c r="M2">
-        <v>1.040150109368096</v>
+        <v>1.034599441530677</v>
       </c>
       <c r="N2">
-        <v>0.9928740675232429</v>
+        <v>1.003202240068453</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9794292553814377</v>
+        <v>0.9790520887968589</v>
       </c>
       <c r="D3">
-        <v>1.041799648655513</v>
+        <v>1.034684910327728</v>
       </c>
       <c r="E3">
-        <v>0.9872343343745735</v>
+        <v>0.9880466365946899</v>
       </c>
       <c r="F3">
-        <v>1.035854545669417</v>
+        <v>1.026868846719108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049695205326221</v>
+        <v>1.048653872254441</v>
       </c>
       <c r="J3">
-        <v>1.000496853031743</v>
+        <v>1.000130574863358</v>
       </c>
       <c r="K3">
-        <v>1.051924234894762</v>
+        <v>1.044892422391031</v>
       </c>
       <c r="L3">
-        <v>0.9980332028145434</v>
+        <v>0.9988347827224133</v>
       </c>
       <c r="M3">
-        <v>1.046048328237063</v>
+        <v>1.037169101501189</v>
       </c>
       <c r="N3">
-        <v>1.001917673321641</v>
+        <v>1.004010495127527</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9863316544481262</v>
+        <v>0.9817404516705057</v>
       </c>
       <c r="D4">
-        <v>1.045015406415115</v>
+        <v>1.036289491524496</v>
       </c>
       <c r="E4">
-        <v>0.9931043240124374</v>
+        <v>0.9901719939442162</v>
       </c>
       <c r="F4">
-        <v>1.040074762157886</v>
+        <v>1.029038458540598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05116353097368</v>
+        <v>1.049027074557938</v>
       </c>
       <c r="J4">
-        <v>1.006091580279573</v>
+        <v>1.001623059341846</v>
       </c>
       <c r="K4">
-        <v>1.054599274682678</v>
+        <v>1.045968807532984</v>
       </c>
       <c r="L4">
-        <v>1.003286692470356</v>
+        <v>1.000390499688626</v>
       </c>
       <c r="M4">
-        <v>1.049712431745855</v>
+        <v>1.038798605608583</v>
       </c>
       <c r="N4">
-        <v>1.007520345723887</v>
+        <v>1.004522966735657</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9891668002985667</v>
+        <v>0.982858794181051</v>
       </c>
       <c r="D5">
-        <v>1.046340377301951</v>
+        <v>1.036957003204265</v>
       </c>
       <c r="E5">
-        <v>0.9955169853147666</v>
+        <v>0.9910576826672914</v>
       </c>
       <c r="F5">
-        <v>1.041812846603874</v>
+        <v>1.02994175312685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051764410389924</v>
+        <v>1.049179540196959</v>
       </c>
       <c r="J5">
-        <v>1.008388704600705</v>
+        <v>1.002243742632203</v>
       </c>
       <c r="K5">
-        <v>1.055698519335779</v>
+        <v>1.046415001851316</v>
       </c>
       <c r="L5">
-        <v>1.005443852230928</v>
+        <v>1.0010379018441</v>
       </c>
       <c r="M5">
-        <v>1.051218895127498</v>
+        <v>1.039475866138704</v>
       </c>
       <c r="N5">
-        <v>1.009820732225039</v>
+        <v>1.004735959270358</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9896390845820296</v>
+        <v>0.9830458862763032</v>
       </c>
       <c r="D6">
-        <v>1.046561318579437</v>
+        <v>1.037068671705645</v>
       </c>
       <c r="E6">
-        <v>0.9959189782069031</v>
+        <v>0.9912059431129261</v>
       </c>
       <c r="F6">
-        <v>1.042102636312835</v>
+        <v>1.030092910053479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051864368313351</v>
+        <v>1.049204881453608</v>
       </c>
       <c r="J6">
-        <v>1.008771307103828</v>
+        <v>1.002347567745546</v>
       </c>
       <c r="K6">
-        <v>1.055881649784152</v>
+        <v>1.046489552382529</v>
       </c>
       <c r="L6">
-        <v>1.005803150328278</v>
+        <v>1.001146221098561</v>
       </c>
       <c r="M6">
-        <v>1.051469916355787</v>
+        <v>1.039589129689459</v>
       </c>
       <c r="N6">
-        <v>1.010203878067602</v>
+        <v>1.004771579895608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9863697923488396</v>
+        <v>0.9817554410087368</v>
       </c>
       <c r="D7">
-        <v>1.045033214173308</v>
+        <v>1.036298438381738</v>
       </c>
       <c r="E7">
-        <v>0.993136772737698</v>
+        <v>0.9901838589113893</v>
       </c>
       <c r="F7">
-        <v>1.040098124943579</v>
+        <v>1.029050562730243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051171623053348</v>
+        <v>1.049029129152423</v>
       </c>
       <c r="J7">
-        <v>1.006122484563872</v>
+        <v>1.001631379223011</v>
       </c>
       <c r="K7">
-        <v>1.054614060193126</v>
+        <v>1.045974794289021</v>
       </c>
       <c r="L7">
-        <v>1.003315713211602</v>
+        <v>1.000399176056514</v>
       </c>
       <c r="M7">
-        <v>1.049732691328125</v>
+        <v>1.038807685552446</v>
       </c>
       <c r="N7">
-        <v>1.007551293895814</v>
+        <v>1.0045258222922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9721236460875315</v>
+        <v>0.9762599209523946</v>
       </c>
       <c r="D8">
-        <v>1.038412255348823</v>
+        <v>1.033018742494266</v>
       </c>
       <c r="E8">
-        <v>0.9810276103330289</v>
+        <v>0.9858447133453587</v>
       </c>
       <c r="F8">
-        <v>1.031405935442832</v>
+        <v>1.024618345234873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04813391349789</v>
+        <v>1.048256805424631</v>
       </c>
       <c r="J8">
-        <v>0.9945725878913845</v>
+        <v>0.9985799238361289</v>
       </c>
       <c r="K8">
-        <v>1.049095881530216</v>
+        <v>1.043769283963392</v>
       </c>
       <c r="L8">
-        <v>0.9924708590376029</v>
+        <v>0.9972199035065441</v>
       </c>
       <c r="M8">
-        <v>1.042176655863172</v>
+        <v>1.035474859523516</v>
       </c>
       <c r="N8">
-        <v>0.9959849950452606</v>
+        <v>1.003477615060615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9443841791764548</v>
+        <v>0.9661631792608828</v>
       </c>
       <c r="D9">
-        <v>1.025718770321642</v>
+        <v>1.027002614078682</v>
       </c>
       <c r="E9">
-        <v>0.9575239496853036</v>
+        <v>0.9779277207278502</v>
       </c>
       <c r="F9">
-        <v>1.014699455864156</v>
+        <v>1.016508421933831</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042162426334788</v>
+        <v>1.046750517675802</v>
       </c>
       <c r="J9">
-        <v>0.9720662157117476</v>
+        <v>0.9929701118474765</v>
       </c>
       <c r="K9">
-        <v>1.038407918050327</v>
+        <v>1.039672273853071</v>
       </c>
       <c r="L9">
-        <v>0.971345936215991</v>
+        <v>0.9913893528202724</v>
       </c>
       <c r="M9">
-        <v>1.027558462968771</v>
+        <v>1.029339221487497</v>
       </c>
       <c r="N9">
-        <v>0.9734466612356116</v>
+        <v>1.001546683873914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9235724028767538</v>
+        <v>0.9591243016267745</v>
       </c>
       <c r="D10">
-        <v>1.016391388024696</v>
+        <v>1.022822801463603</v>
       </c>
       <c r="E10">
-        <v>0.9399637392132337</v>
+        <v>0.9724491721421424</v>
       </c>
       <c r="F10">
-        <v>1.002377234152111</v>
+        <v>1.010884556922933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03766532802125</v>
+        <v>1.045645331409696</v>
       </c>
       <c r="J10">
-        <v>0.9551846116158054</v>
+        <v>0.9890590952745216</v>
       </c>
       <c r="K10">
-        <v>1.030470866064685</v>
+        <v>1.036791857615743</v>
       </c>
       <c r="L10">
-        <v>0.955508720589625</v>
+        <v>0.987334343760254</v>
       </c>
       <c r="M10">
-        <v>1.016703699146788</v>
+        <v>1.025060029500965</v>
       </c>
       <c r="N10">
-        <v>0.956541083325506</v>
+        <v>1.000198189406493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9138458284458711</v>
+        <v>0.9559961543940496</v>
       </c>
       <c r="D11">
-        <v>1.0120956793019</v>
+        <v>1.020970472956765</v>
       </c>
       <c r="E11">
-        <v>0.9317809089958448</v>
+        <v>0.9700249158528579</v>
       </c>
       <c r="F11">
-        <v>0.9966864405124352</v>
+        <v>1.008394101257106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035565862498505</v>
+        <v>1.045142032703379</v>
       </c>
       <c r="J11">
-        <v>0.9473004611249886</v>
+        <v>0.9873214682129555</v>
       </c>
       <c r="K11">
-        <v>1.026793037812506</v>
+        <v>1.035507464048536</v>
       </c>
       <c r="L11">
-        <v>0.9481151840405286</v>
+        <v>0.9855351575141666</v>
       </c>
       <c r="M11">
-        <v>1.011671117425266</v>
+        <v>1.023159434485179</v>
       </c>
       <c r="N11">
-        <v>0.9486457364366677</v>
+        <v>0.9995985978838339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9101069763375067</v>
+        <v>0.9548214973947152</v>
       </c>
       <c r="D12">
-        <v>1.010455748281527</v>
+        <v>1.020275848717831</v>
       </c>
       <c r="E12">
-        <v>0.9286398032494269</v>
+        <v>0.9691162226245568</v>
       </c>
       <c r="F12">
-        <v>0.9945110311555503</v>
+        <v>1.007460390757759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034759853951716</v>
+        <v>1.044951295353703</v>
       </c>
       <c r="J12">
-        <v>0.9442711855242312</v>
+        <v>0.986669083776614</v>
       </c>
       <c r="K12">
-        <v>1.025385337222684</v>
+        <v>1.035024638903014</v>
       </c>
       <c r="L12">
-        <v>0.9452749448025893</v>
+        <v>0.9848600300377127</v>
       </c>
       <c r="M12">
-        <v>1.009744152139882</v>
+        <v>1.022446043717106</v>
       </c>
       <c r="N12">
-        <v>0.9456121589170943</v>
+        <v>0.9993734201782456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9109150245683759</v>
+        <v>0.9550740522535719</v>
       </c>
       <c r="D13">
-        <v>1.010809631631024</v>
+        <v>1.020425149556054</v>
       </c>
       <c r="E13">
-        <v>0.9293184567592372</v>
+        <v>0.9693115189672015</v>
       </c>
       <c r="F13">
-        <v>0.994980605840377</v>
+        <v>1.007661071653031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034933992149416</v>
+        <v>1.04499238186384</v>
       </c>
       <c r="J13">
-        <v>0.9449258080838427</v>
+        <v>0.9868093424668717</v>
       </c>
       <c r="K13">
-        <v>1.025689276953625</v>
+        <v>1.035128469179531</v>
       </c>
       <c r="L13">
-        <v>0.9458886910347889</v>
+        <v>0.9850051615606924</v>
       </c>
       <c r="M13">
-        <v>1.010160245966157</v>
+        <v>1.022599408843336</v>
       </c>
       <c r="N13">
-        <v>0.9462677111158266</v>
+        <v>0.9994218347868113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9135394682097585</v>
+        <v>0.9558993204434481</v>
       </c>
       <c r="D14">
-        <v>1.011961064183635</v>
+        <v>1.020913190729928</v>
       </c>
       <c r="E14">
-        <v>0.9315234356921863</v>
+        <v>0.9699499730194548</v>
       </c>
       <c r="F14">
-        <v>0.9965079319511728</v>
+        <v>1.008317098823291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035499793607679</v>
+        <v>1.045126344037111</v>
       </c>
       <c r="J14">
-        <v>0.947052212618409</v>
+        <v>0.9872676856752136</v>
       </c>
       <c r="K14">
-        <v>1.026677561189879</v>
+        <v>1.035467671721567</v>
       </c>
       <c r="L14">
-        <v>0.9478824156393763</v>
+        <v>0.9854794924997494</v>
       </c>
       <c r="M14">
-        <v>1.011513061166749</v>
+        <v>1.023100618423148</v>
       </c>
       <c r="N14">
-        <v>0.9483971353887343</v>
+        <v>0.9995800355022009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9151391452389077</v>
+        <v>0.9564060887469895</v>
       </c>
       <c r="D15">
-        <v>1.012664432966409</v>
+        <v>1.021213009679459</v>
       </c>
       <c r="E15">
-        <v>0.932868026691518</v>
+        <v>0.9703422443928386</v>
       </c>
       <c r="F15">
-        <v>0.997440525193741</v>
+        <v>1.008720142903848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035844821365314</v>
+        <v>1.045208378140402</v>
       </c>
       <c r="J15">
-        <v>0.9483485141320455</v>
+        <v>0.9875491548057134</v>
       </c>
       <c r="K15">
-        <v>1.027280780957023</v>
+        <v>1.035675899434744</v>
       </c>
       <c r="L15">
-        <v>0.9490979054060468</v>
+        <v>0.9857708285979999</v>
       </c>
       <c r="M15">
-        <v>1.012338674369173</v>
+        <v>1.023408438179342</v>
       </c>
       <c r="N15">
-        <v>0.949695277799208</v>
+        <v>0.999677178554167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9242013814586429</v>
+        <v>0.9593301595985417</v>
       </c>
       <c r="D16">
-        <v>1.01667060998671</v>
+        <v>1.02294482249031</v>
       </c>
       <c r="E16">
-        <v>0.9404934375605613</v>
+        <v>0.972608932473235</v>
       </c>
       <c r="F16">
-        <v>1.002746771529612</v>
+        <v>1.011048647018608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03780119160589</v>
+        <v>1.04567820627245</v>
       </c>
       <c r="J16">
-        <v>0.9556946026248122</v>
+        <v>0.9891734590396439</v>
       </c>
       <c r="K16">
-        <v>1.03070944291696</v>
+        <v>1.03687630215601</v>
       </c>
       <c r="L16">
-        <v>0.9559870421387475</v>
+        <v>0.9874528099914855</v>
       </c>
       <c r="M16">
-        <v>1.017030076144162</v>
+        <v>1.025185139198719</v>
       </c>
       <c r="N16">
-        <v>0.9570517985802427</v>
+        <v>1.000237642949151</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9296827677680898</v>
+        <v>0.9611424068064494</v>
       </c>
       <c r="D17">
-        <v>1.019111170463874</v>
+        <v>1.024019634896309</v>
       </c>
       <c r="E17">
-        <v>0.9451123595939626</v>
+        <v>0.9740165652574574</v>
       </c>
       <c r="F17">
-        <v>1.005974923171846</v>
+        <v>1.012494221793139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038985527392365</v>
+        <v>1.045966242399886</v>
       </c>
       <c r="J17">
-        <v>0.9601397139758688</v>
+        <v>0.9901803060294028</v>
       </c>
       <c r="K17">
-        <v>1.032792208594695</v>
+        <v>1.037619224199452</v>
       </c>
       <c r="L17">
-        <v>0.960156446705143</v>
+        <v>0.9884960506505817</v>
       </c>
       <c r="M17">
-        <v>1.019878995151819</v>
+        <v>1.026286671988457</v>
       </c>
       <c r="N17">
-        <v>0.9615032224992789</v>
+        <v>1.000584935357413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9328124525905755</v>
+        <v>0.9621917625351081</v>
       </c>
       <c r="D18">
-        <v>1.020510370203705</v>
+        <v>1.024642474553166</v>
       </c>
       <c r="E18">
-        <v>0.9477517731521324</v>
+        <v>0.9748326240639354</v>
       </c>
       <c r="F18">
-        <v>1.007824224872927</v>
+        <v>1.013332090744957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039661905962617</v>
+        <v>1.046131866485404</v>
       </c>
       <c r="J18">
-        <v>0.9626782014995391</v>
+        <v>0.9907633476667149</v>
       </c>
       <c r="K18">
-        <v>1.033984216694619</v>
+        <v>1.03804898463937</v>
       </c>
       <c r="L18">
-        <v>0.9625377409880308</v>
+        <v>0.9891003960728696</v>
       </c>
       <c r="M18">
-        <v>1.021509255029393</v>
+        <v>1.026924595824523</v>
       </c>
       <c r="N18">
-        <v>0.9640453149664017</v>
+        <v>1.000785999348689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9338686330116457</v>
+        <v>0.9625482795708494</v>
       </c>
       <c r="D19">
-        <v>1.020983485456004</v>
+        <v>1.024854160907438</v>
       </c>
       <c r="E19">
-        <v>0.9486428500729299</v>
+        <v>0.9751100445320977</v>
       </c>
       <c r="F19">
-        <v>1.008449304779787</v>
+        <v>1.013616891640462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039890174933311</v>
+        <v>1.046187938018809</v>
       </c>
       <c r="J19">
-        <v>0.9635349379293096</v>
+        <v>0.9909614408836666</v>
       </c>
       <c r="K19">
-        <v>1.034386930809384</v>
+        <v>1.038194920501917</v>
       </c>
       <c r="L19">
-        <v>0.9633414657118206</v>
+        <v>0.9893057661030862</v>
       </c>
       <c r="M19">
-        <v>1.022059999050939</v>
+        <v>1.027141341963198</v>
       </c>
       <c r="N19">
-        <v>0.9649032680601712</v>
+        <v>1.000854304680765</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9291017696572734</v>
+        <v>0.960948770673421</v>
       </c>
       <c r="D20">
-        <v>1.018851875849653</v>
+        <v>1.023904741220644</v>
       </c>
       <c r="E20">
-        <v>0.9446225477565943</v>
+        <v>0.9738660585087127</v>
       </c>
       <c r="F20">
-        <v>1.005632104259688</v>
+        <v>1.012339676961229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03885997275319</v>
+        <v>1.045935585791141</v>
       </c>
       <c r="J20">
-        <v>0.9596685022607437</v>
+        <v>0.9900727212027867</v>
       </c>
       <c r="K20">
-        <v>1.032571144168881</v>
+        <v>1.037539886453561</v>
       </c>
       <c r="L20">
-        <v>0.9597144344684551</v>
+        <v>0.9883845532421036</v>
       </c>
       <c r="M20">
-        <v>1.019576637605756</v>
+        <v>1.026168963689217</v>
       </c>
       <c r="N20">
-        <v>0.9610313416094697</v>
+        <v>1.00054783066657</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9127702857498449</v>
+        <v>0.9556566563336308</v>
       </c>
       <c r="D21">
-        <v>1.011623272256047</v>
+        <v>1.02076965834907</v>
       </c>
       <c r="E21">
-        <v>0.930877066458775</v>
+        <v>0.9697621943918617</v>
       </c>
       <c r="F21">
-        <v>0.9960599491899607</v>
+        <v>1.008124156614862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035333932421043</v>
+        <v>1.045087000733442</v>
       </c>
       <c r="J21">
-        <v>0.9464289556790796</v>
+        <v>0.9871329096368412</v>
       </c>
       <c r="K21">
-        <v>1.026387734153132</v>
+        <v>1.035367944944447</v>
       </c>
       <c r="L21">
-        <v>0.9472980322118104</v>
+        <v>0.9853400050487902</v>
       </c>
       <c r="M21">
-        <v>1.011116353501528</v>
+        <v>1.022953231848438</v>
       </c>
       <c r="N21">
-        <v>0.9477729933530623</v>
+        <v>0.999533518206152</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9017600873236226</v>
+        <v>0.952255315414876</v>
       </c>
       <c r="D22">
-        <v>1.00681800856972</v>
+        <v>1.01876028450469</v>
       </c>
       <c r="E22">
-        <v>0.9216363936570168</v>
+        <v>0.9671341757544569</v>
       </c>
       <c r="F22">
-        <v>0.9896794534803806</v>
+        <v>1.005423496109944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032963231335235</v>
+        <v>1.044531496134491</v>
       </c>
       <c r="J22">
-        <v>0.9375116166428331</v>
+        <v>0.9852441339855941</v>
       </c>
       <c r="K22">
-        <v>1.022255598659406</v>
+        <v>1.033969037818591</v>
       </c>
       <c r="L22">
-        <v>0.9389383197188396</v>
+        <v>0.9833860901009436</v>
       </c>
       <c r="M22">
-        <v>1.005458172870267</v>
+        <v>1.02088827272422</v>
       </c>
       <c r="N22">
-        <v>0.9388429906725515</v>
+        <v>0.9988814733944587</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9076746987461681</v>
+        <v>0.9540656767237959</v>
       </c>
       <c r="D23">
-        <v>1.009392354612743</v>
+        <v>1.019829188002366</v>
       </c>
       <c r="E23">
-        <v>0.9265977137239352</v>
+        <v>0.9685320061176136</v>
       </c>
       <c r="F23">
-        <v>0.993099523934087</v>
+        <v>1.006860043405032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03423589564931</v>
+        <v>1.044828086906949</v>
       </c>
       <c r="J23">
-        <v>0.9423009747716949</v>
+        <v>0.9862493522421898</v>
       </c>
       <c r="K23">
-        <v>1.02447145961741</v>
+        <v>1.034713840045001</v>
       </c>
       <c r="L23">
-        <v>0.943427846377051</v>
+        <v>0.9844257708805086</v>
       </c>
       <c r="M23">
-        <v>1.008492917998596</v>
+        <v>1.021987123727561</v>
       </c>
       <c r="N23">
-        <v>0.9436391502393033</v>
+        <v>0.9992285280924555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9293645049841488</v>
+        <v>0.9610362902459526</v>
       </c>
       <c r="D24">
-        <v>1.018969114718777</v>
+        <v>1.023956669321641</v>
       </c>
       <c r="E24">
-        <v>0.9448440406937472</v>
+        <v>0.9739340814204267</v>
       </c>
       <c r="F24">
-        <v>1.005787112678879</v>
+        <v>1.012409525505143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038916749824588</v>
+        <v>1.045949445550575</v>
       </c>
       <c r="J24">
-        <v>0.9598815892095944</v>
+        <v>0.9901213472197162</v>
       </c>
       <c r="K24">
-        <v>1.032671103838305</v>
+        <v>1.037575746797402</v>
       </c>
       <c r="L24">
-        <v>0.9599143163124533</v>
+        <v>0.9884349469519385</v>
       </c>
       <c r="M24">
-        <v>1.019713356644615</v>
+        <v>1.026222165142912</v>
       </c>
       <c r="N24">
-        <v>0.9612447311662291</v>
+        <v>1.000564601324915</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9519175751984167</v>
+        <v>0.9688253472586706</v>
       </c>
       <c r="D25">
-        <v>1.029138034412298</v>
+        <v>1.028586976508105</v>
       </c>
       <c r="E25">
-        <v>0.9638965093292099</v>
+        <v>0.980008385201086</v>
       </c>
       <c r="F25">
-        <v>1.019206093874221</v>
+        <v>1.018642121952885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043788680196607</v>
+        <v>1.047157478558826</v>
       </c>
       <c r="J25">
-        <v>0.9781790028263184</v>
+        <v>0.9944494199557733</v>
       </c>
       <c r="K25">
-        <v>1.041300253032817</v>
+        <v>1.040757152063331</v>
       </c>
       <c r="L25">
-        <v>0.9770823943311118</v>
+        <v>0.9929251811155864</v>
       </c>
       <c r="M25">
-        <v>1.031513400506538</v>
+        <v>1.030957775084202</v>
       </c>
       <c r="N25">
-        <v>0.9795681292090316</v>
+        <v>1.002056292321808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9748181683566187</v>
+        <v>1.011088528027686</v>
       </c>
       <c r="D2">
-        <v>1.032158679937196</v>
+        <v>1.039542189857305</v>
       </c>
       <c r="E2">
-        <v>0.9847098991811044</v>
+        <v>1.013307971452307</v>
       </c>
       <c r="F2">
-        <v>1.023457513254006</v>
+        <v>1.041759721710385</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048048225425341</v>
+        <v>1.033135816629002</v>
       </c>
       <c r="J2">
-        <v>0.9977790665330145</v>
+        <v>1.016339018249044</v>
       </c>
       <c r="K2">
-        <v>1.043187460966322</v>
+        <v>1.042327081931044</v>
       </c>
       <c r="L2">
-        <v>0.9963864410232265</v>
+        <v>1.016169514477233</v>
       </c>
       <c r="M2">
-        <v>1.034599441530677</v>
+        <v>1.044538326767334</v>
       </c>
       <c r="N2">
-        <v>1.003202240068453</v>
+        <v>1.00956726760115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9790520887968589</v>
+        <v>1.011998492306645</v>
       </c>
       <c r="D3">
-        <v>1.034684910327728</v>
+        <v>1.04008428611555</v>
       </c>
       <c r="E3">
-        <v>0.9880466365946899</v>
+        <v>1.014078504524762</v>
       </c>
       <c r="F3">
-        <v>1.026868846719108</v>
+        <v>1.042529858890228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048653872254441</v>
+        <v>1.033199422137062</v>
       </c>
       <c r="J3">
-        <v>1.000130574863358</v>
+        <v>1.016882295147649</v>
       </c>
       <c r="K3">
-        <v>1.044892422391031</v>
+        <v>1.042680125176134</v>
       </c>
       <c r="L3">
-        <v>0.9988347827224133</v>
+        <v>1.016744843737334</v>
       </c>
       <c r="M3">
-        <v>1.037169101501189</v>
+        <v>1.045119263673284</v>
       </c>
       <c r="N3">
-        <v>1.004010495127527</v>
+        <v>1.009750598916128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9817404516705057</v>
+        <v>1.012588144329397</v>
       </c>
       <c r="D4">
-        <v>1.036289491524496</v>
+        <v>1.040434938040297</v>
       </c>
       <c r="E4">
-        <v>0.9901719939442162</v>
+        <v>1.01457820428877</v>
       </c>
       <c r="F4">
-        <v>1.029038458540598</v>
+        <v>1.043028640504153</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049027074557938</v>
+        <v>1.033239147806063</v>
       </c>
       <c r="J4">
-        <v>1.001623059341846</v>
+        <v>1.017234091721952</v>
       </c>
       <c r="K4">
-        <v>1.045968807532984</v>
+        <v>1.042907738730191</v>
       </c>
       <c r="L4">
-        <v>1.000390499688626</v>
+        <v>1.017117577590346</v>
       </c>
       <c r="M4">
-        <v>1.038798605608583</v>
+        <v>1.045494959480256</v>
       </c>
       <c r="N4">
-        <v>1.004522966735657</v>
+        <v>1.009869210989908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.982858794181051</v>
+        <v>1.012836234969218</v>
       </c>
       <c r="D5">
-        <v>1.036957003204265</v>
+        <v>1.040582321047545</v>
       </c>
       <c r="E5">
-        <v>0.9910576826672914</v>
+        <v>1.014788543049754</v>
       </c>
       <c r="F5">
-        <v>1.02994175312685</v>
+        <v>1.043238434032102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049179540196959</v>
+        <v>1.033255505014807</v>
       </c>
       <c r="J5">
-        <v>1.002243742632203</v>
+        <v>1.017382048193519</v>
       </c>
       <c r="K5">
-        <v>1.046415001851316</v>
+        <v>1.043003227337204</v>
       </c>
       <c r="L5">
-        <v>1.0010379018441</v>
+        <v>1.017274383212267</v>
       </c>
       <c r="M5">
-        <v>1.039475866138704</v>
+        <v>1.045652849923052</v>
       </c>
       <c r="N5">
-        <v>1.004735959270358</v>
+        <v>1.009919071338718</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9830458862763032</v>
+        <v>1.012877902227306</v>
       </c>
       <c r="D6">
-        <v>1.037068671705645</v>
+        <v>1.040607065417681</v>
       </c>
       <c r="E6">
-        <v>0.9912059431129261</v>
+        <v>1.014823875346598</v>
       </c>
       <c r="F6">
-        <v>1.030092910053479</v>
+        <v>1.043273665421547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049204881453608</v>
+        <v>1.033258231298179</v>
       </c>
       <c r="J6">
-        <v>1.002347567745546</v>
+        <v>1.017406894293229</v>
       </c>
       <c r="K6">
-        <v>1.046489552382529</v>
+        <v>1.043019248510365</v>
       </c>
       <c r="L6">
-        <v>1.001146221098561</v>
+        <v>1.017300717883226</v>
       </c>
       <c r="M6">
-        <v>1.039589129689459</v>
+        <v>1.045679357311604</v>
       </c>
       <c r="N6">
-        <v>1.004771579895608</v>
+        <v>1.009927442853383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9817554410087368</v>
+        <v>1.012591458540636</v>
       </c>
       <c r="D7">
-        <v>1.036298438381738</v>
+        <v>1.040436907504079</v>
       </c>
       <c r="E7">
-        <v>0.9901838589113893</v>
+        <v>1.01458101380635</v>
       </c>
       <c r="F7">
-        <v>1.029050562730243</v>
+        <v>1.043031443362998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049029129152423</v>
+        <v>1.033239367722461</v>
       </c>
       <c r="J7">
-        <v>1.001631379223011</v>
+        <v>1.01723606848447</v>
       </c>
       <c r="K7">
-        <v>1.045974794289021</v>
+        <v>1.04290901544211</v>
       </c>
       <c r="L7">
-        <v>1.000399176056514</v>
+        <v>1.017119672410636</v>
       </c>
       <c r="M7">
-        <v>1.038807685552446</v>
+        <v>1.045497069427211</v>
       </c>
       <c r="N7">
-        <v>1.0045258222922</v>
+        <v>1.009869877243261</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9762599209523946</v>
+        <v>1.011395879180958</v>
       </c>
       <c r="D8">
-        <v>1.033018742494266</v>
+        <v>1.039725417483242</v>
       </c>
       <c r="E8">
-        <v>0.9858447133453587</v>
+        <v>1.013568145251036</v>
       </c>
       <c r="F8">
-        <v>1.024618345234873</v>
+        <v>1.042019898325313</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048256805424631</v>
+        <v>1.033157608300696</v>
       </c>
       <c r="J8">
-        <v>0.9985799238361289</v>
+        <v>1.016522566719628</v>
       </c>
       <c r="K8">
-        <v>1.043769283963392</v>
+        <v>1.042446565209147</v>
       </c>
       <c r="L8">
-        <v>0.9972199035065441</v>
+        <v>1.016363854286721</v>
       </c>
       <c r="M8">
-        <v>1.035474859523516</v>
+        <v>1.044734699240397</v>
       </c>
       <c r="N8">
-        <v>1.003477615060615</v>
+        <v>1.00962922822854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9661631792608828</v>
+        <v>1.009295634788565</v>
       </c>
       <c r="D9">
-        <v>1.027002614078682</v>
+        <v>1.038470854025741</v>
       </c>
       <c r="E9">
-        <v>0.9779277207278502</v>
+        <v>1.01179193715296</v>
       </c>
       <c r="F9">
-        <v>1.016508421933831</v>
+        <v>1.040240986010304</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046750517675802</v>
+        <v>1.033002610410435</v>
       </c>
       <c r="J9">
-        <v>0.9929701118474765</v>
+        <v>1.015267325020622</v>
       </c>
       <c r="K9">
-        <v>1.039672273853071</v>
+        <v>1.041625392571447</v>
       </c>
       <c r="L9">
-        <v>0.9913893528202724</v>
+        <v>1.015035561170542</v>
       </c>
       <c r="M9">
-        <v>1.029339221487497</v>
+        <v>1.043389790929709</v>
       </c>
       <c r="N9">
-        <v>1.001546683873914</v>
+        <v>1.009205074539439</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9591243016267745</v>
+        <v>1.007899925812085</v>
       </c>
       <c r="D10">
-        <v>1.022822801463603</v>
+        <v>1.037634052663084</v>
       </c>
       <c r="E10">
-        <v>0.9724491721421424</v>
+        <v>1.010613670428612</v>
       </c>
       <c r="F10">
-        <v>1.010884556922933</v>
+        <v>1.039057575734623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045645331409696</v>
+        <v>1.032891978863282</v>
       </c>
       <c r="J10">
-        <v>0.9890590952745216</v>
+        <v>1.014431932455074</v>
       </c>
       <c r="K10">
-        <v>1.036791857615743</v>
+        <v>1.041073823101172</v>
       </c>
       <c r="L10">
-        <v>0.987334343760254</v>
+        <v>1.014152492881109</v>
       </c>
       <c r="M10">
-        <v>1.025060029500965</v>
+        <v>1.04249228540362</v>
       </c>
       <c r="N10">
-        <v>1.000198189406493</v>
+        <v>1.008922265092357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9559961543940496</v>
+        <v>1.00729663956549</v>
       </c>
       <c r="D11">
-        <v>1.020970472956765</v>
+        <v>1.037271635049517</v>
       </c>
       <c r="E11">
-        <v>0.9700249158528579</v>
+        <v>1.010104880235068</v>
       </c>
       <c r="F11">
-        <v>1.008394101257106</v>
+        <v>1.038545775612385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045142032703379</v>
+        <v>1.032842352779805</v>
       </c>
       <c r="J11">
-        <v>0.9873214682129555</v>
+        <v>1.014070552087649</v>
       </c>
       <c r="K11">
-        <v>1.035507464048536</v>
+        <v>1.04083403083487</v>
       </c>
       <c r="L11">
-        <v>0.9855351575141666</v>
+        <v>1.013770712929152</v>
       </c>
       <c r="M11">
-        <v>1.023159434485179</v>
+        <v>1.042103467139973</v>
       </c>
       <c r="N11">
-        <v>0.9995985978838339</v>
+        <v>1.008799801487448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9548214973947152</v>
+        <v>1.007072713350215</v>
       </c>
       <c r="D12">
-        <v>1.020275848717831</v>
+        <v>1.037137007664684</v>
       </c>
       <c r="E12">
-        <v>0.9691162226245568</v>
+        <v>1.009916105880841</v>
       </c>
       <c r="F12">
-        <v>1.007460390757759</v>
+        <v>1.03835576642473</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044951295353703</v>
+        <v>1.032823661535442</v>
       </c>
       <c r="J12">
-        <v>0.986669083776614</v>
+        <v>1.013936373002746</v>
       </c>
       <c r="K12">
-        <v>1.035024638903014</v>
+        <v>1.040744818903479</v>
       </c>
       <c r="L12">
-        <v>0.9848600300377127</v>
+        <v>1.013628993351439</v>
       </c>
       <c r="M12">
-        <v>1.022446043717106</v>
+        <v>1.041959015829301</v>
       </c>
       <c r="N12">
-        <v>0.9993734201782456</v>
+        <v>1.00875431270911</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9550740522535719</v>
+        <v>1.007120738972072</v>
       </c>
       <c r="D13">
-        <v>1.020425149556054</v>
+        <v>1.037165886082851</v>
       </c>
       <c r="E13">
-        <v>0.9693115189672015</v>
+        <v>1.009956588957568</v>
       </c>
       <c r="F13">
-        <v>1.007661071653031</v>
+        <v>1.038396519650847</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04499238186384</v>
+        <v>1.032827682529029</v>
       </c>
       <c r="J13">
-        <v>0.9868093424668717</v>
+        <v>1.013965152425855</v>
       </c>
       <c r="K13">
-        <v>1.035128469179531</v>
+        <v>1.040763961582915</v>
       </c>
       <c r="L13">
-        <v>0.9850051615606924</v>
+        <v>1.013659388567776</v>
       </c>
       <c r="M13">
-        <v>1.022599408843336</v>
+        <v>1.041990002310518</v>
       </c>
       <c r="N13">
-        <v>0.9994218347868113</v>
+        <v>1.008764070214834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9558993204434481</v>
+        <v>1.007278126460365</v>
       </c>
       <c r="D14">
-        <v>1.020913190729928</v>
+        <v>1.037260506885649</v>
       </c>
       <c r="E14">
-        <v>0.9699499730194548</v>
+        <v>1.010089271734238</v>
       </c>
       <c r="F14">
-        <v>1.008317098823291</v>
+        <v>1.038530067418245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045126344037111</v>
+        <v>1.032840813012398</v>
       </c>
       <c r="J14">
-        <v>0.9872676856752136</v>
+        <v>1.014059459701496</v>
       </c>
       <c r="K14">
-        <v>1.035467671721567</v>
+        <v>1.040826659444162</v>
       </c>
       <c r="L14">
-        <v>0.9854794924997494</v>
+        <v>1.013758996491707</v>
       </c>
       <c r="M14">
-        <v>1.023100618423148</v>
+        <v>1.042091527286578</v>
       </c>
       <c r="N14">
-        <v>0.9995800355022009</v>
+        <v>1.008796041375255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9564060887469895</v>
+        <v>1.007375119476205</v>
       </c>
       <c r="D15">
-        <v>1.021213009679459</v>
+        <v>1.037318804713395</v>
       </c>
       <c r="E15">
-        <v>0.9703422443928386</v>
+        <v>1.010171050240908</v>
       </c>
       <c r="F15">
-        <v>1.008720142903848</v>
+        <v>1.038612363418935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045208378140402</v>
+        <v>1.032848868984866</v>
       </c>
       <c r="J15">
-        <v>0.9875491548057134</v>
+        <v>1.014117572670962</v>
       </c>
       <c r="K15">
-        <v>1.035675899434744</v>
+        <v>1.040865270845583</v>
       </c>
       <c r="L15">
-        <v>0.9857708285979999</v>
+        <v>1.013820380248122</v>
       </c>
       <c r="M15">
-        <v>1.023408438179342</v>
+        <v>1.04215407667144</v>
       </c>
       <c r="N15">
-        <v>0.999677178554167</v>
+        <v>1.008815739830283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9593301595985417</v>
+        <v>1.007939986469644</v>
       </c>
       <c r="D16">
-        <v>1.02294482249031</v>
+        <v>1.03765810369322</v>
       </c>
       <c r="E16">
-        <v>0.972608932473235</v>
+        <v>1.010647466938433</v>
       </c>
       <c r="F16">
-        <v>1.011048647018608</v>
+        <v>1.039091555579309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04567820627245</v>
+        <v>1.032895236171959</v>
       </c>
       <c r="J16">
-        <v>0.9891734590396439</v>
+        <v>1.014455923548062</v>
       </c>
       <c r="K16">
-        <v>1.03687630215601</v>
+        <v>1.041089717261592</v>
       </c>
       <c r="L16">
-        <v>0.9874528099914855</v>
+        <v>1.014177842984687</v>
       </c>
       <c r="M16">
-        <v>1.025185139198719</v>
+        <v>1.042518086108919</v>
       </c>
       <c r="N16">
-        <v>1.000237642949151</v>
+        <v>1.008930392525961</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9611424068064494</v>
+        <v>1.008294598546172</v>
       </c>
       <c r="D17">
-        <v>1.024019634896309</v>
+        <v>1.037870917918794</v>
       </c>
       <c r="E17">
-        <v>0.9740165652574574</v>
+        <v>1.010946688375274</v>
       </c>
       <c r="F17">
-        <v>1.012494221793139</v>
+        <v>1.039392308986026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045966242399886</v>
+        <v>1.032923860640211</v>
       </c>
       <c r="J17">
-        <v>0.9901803060294028</v>
+        <v>1.014668256608771</v>
       </c>
       <c r="K17">
-        <v>1.037619224199452</v>
+        <v>1.0412302509917</v>
       </c>
       <c r="L17">
-        <v>0.9884960506505817</v>
+        <v>1.014402229902357</v>
       </c>
       <c r="M17">
-        <v>1.026286671988457</v>
+        <v>1.042746369514125</v>
       </c>
       <c r="N17">
-        <v>1.000584935357413</v>
+        <v>1.009002310042415</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9621917625351081</v>
+        <v>1.008501540444878</v>
       </c>
       <c r="D18">
-        <v>1.024642474553166</v>
+        <v>1.037995041267277</v>
       </c>
       <c r="E18">
-        <v>0.9748326240639354</v>
+        <v>1.011121354833115</v>
       </c>
       <c r="F18">
-        <v>1.013332090744957</v>
+        <v>1.039567793440808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046131866485404</v>
+        <v>1.032940390617763</v>
       </c>
       <c r="J18">
-        <v>0.9907633476667149</v>
+        <v>1.014792140600834</v>
       </c>
       <c r="K18">
-        <v>1.03804898463937</v>
+        <v>1.041312129292504</v>
       </c>
       <c r="L18">
-        <v>0.9891003960728696</v>
+        <v>1.014533168270762</v>
       </c>
       <c r="M18">
-        <v>1.026924595824523</v>
+        <v>1.042879504658586</v>
       </c>
       <c r="N18">
-        <v>1.000785999348689</v>
+        <v>1.009044257776758</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9625482795708494</v>
+        <v>1.008572119664547</v>
       </c>
       <c r="D19">
-        <v>1.024854160907438</v>
+        <v>1.038037362766112</v>
       </c>
       <c r="E19">
-        <v>0.9751100445320977</v>
+        <v>1.011180934543009</v>
       </c>
       <c r="F19">
-        <v>1.013616891640462</v>
+        <v>1.039627639223689</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046187938018809</v>
+        <v>1.032945998700158</v>
       </c>
       <c r="J19">
-        <v>0.9909614408836666</v>
+        <v>1.014834387525931</v>
       </c>
       <c r="K19">
-        <v>1.038194920501917</v>
+        <v>1.041340031911579</v>
       </c>
       <c r="L19">
-        <v>0.9893057661030862</v>
+        <v>1.0145778245495</v>
       </c>
       <c r="M19">
-        <v>1.027141341963198</v>
+        <v>1.042924897068434</v>
       </c>
       <c r="N19">
-        <v>1.000854304680765</v>
+        <v>1.009058560765627</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.960948770673421</v>
+        <v>1.008256541397925</v>
       </c>
       <c r="D20">
-        <v>1.023904741220644</v>
+        <v>1.037848085735229</v>
       </c>
       <c r="E20">
-        <v>0.9738660585087127</v>
+        <v>1.010914570703941</v>
       </c>
       <c r="F20">
-        <v>1.012339676961229</v>
+        <v>1.039360034760243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045935585791141</v>
+        <v>1.032920806689842</v>
       </c>
       <c r="J20">
-        <v>0.9900727212027867</v>
+        <v>1.014645471786319</v>
       </c>
       <c r="K20">
-        <v>1.037539886453561</v>
+        <v>1.041215182623174</v>
       </c>
       <c r="L20">
-        <v>0.9883845532421036</v>
+        <v>1.014378149376809</v>
       </c>
       <c r="M20">
-        <v>1.026168963689217</v>
+        <v>1.042721878785221</v>
       </c>
       <c r="N20">
-        <v>1.00054783066657</v>
+        <v>1.008994594025769</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9556566563336308</v>
+        <v>1.007231775309732</v>
       </c>
       <c r="D21">
-        <v>1.02076965834907</v>
+        <v>1.037232643657673</v>
       </c>
       <c r="E21">
-        <v>0.9697621943918617</v>
+        <v>1.010050194071622</v>
       </c>
       <c r="F21">
-        <v>1.008124156614862</v>
+        <v>1.038490738255719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045087000733442</v>
+        <v>1.032836953525503</v>
       </c>
       <c r="J21">
-        <v>0.9871329096368412</v>
+        <v>1.014031687069087</v>
       </c>
       <c r="K21">
-        <v>1.035367944944447</v>
+        <v>1.040808200404402</v>
       </c>
       <c r="L21">
-        <v>0.9853400050487902</v>
+        <v>1.013729661933126</v>
       </c>
       <c r="M21">
-        <v>1.022953231848438</v>
+        <v>1.042061631437837</v>
       </c>
       <c r="N21">
-        <v>0.999533518206152</v>
+        <v>1.008786626671255</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.952255315414876</v>
+        <v>1.006588397187797</v>
       </c>
       <c r="D22">
-        <v>1.01876028450469</v>
+        <v>1.036845637821808</v>
       </c>
       <c r="E22">
-        <v>0.9671341757544569</v>
+        <v>1.009507959180963</v>
       </c>
       <c r="F22">
-        <v>1.005423496109944</v>
+        <v>1.037944734593239</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044531496134491</v>
+        <v>1.032782739929191</v>
       </c>
       <c r="J22">
-        <v>0.9852441339855941</v>
+        <v>1.013646087329338</v>
       </c>
       <c r="K22">
-        <v>1.033969037818591</v>
+        <v>1.040551491434683</v>
       </c>
       <c r="L22">
-        <v>0.9833860901009436</v>
+        <v>1.013322456304372</v>
       </c>
       <c r="M22">
-        <v>1.02088827272422</v>
+        <v>1.04164635311206</v>
       </c>
       <c r="N22">
-        <v>0.9988814733944587</v>
+        <v>1.008655867578719</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9540656767237959</v>
+        <v>1.00692937527705</v>
       </c>
       <c r="D23">
-        <v>1.019829188002366</v>
+        <v>1.037050801214461</v>
       </c>
       <c r="E23">
-        <v>0.9685320061176136</v>
+        <v>1.009795290753383</v>
       </c>
       <c r="F23">
-        <v>1.006860043405032</v>
+        <v>1.038234127827253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044828086906949</v>
+        <v>1.032811620723649</v>
       </c>
       <c r="J23">
-        <v>0.9862493522421898</v>
+        <v>1.013850471202789</v>
       </c>
       <c r="K23">
-        <v>1.034713840045001</v>
+        <v>1.040687655177495</v>
       </c>
       <c r="L23">
-        <v>0.9844257708805086</v>
+        <v>1.013538273631423</v>
       </c>
       <c r="M23">
-        <v>1.021987123727561</v>
+        <v>1.041866513992974</v>
       </c>
       <c r="N23">
-        <v>0.9992285280924555</v>
+        <v>1.008725185465943</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9610362902459526</v>
+        <v>1.008273737467932</v>
       </c>
       <c r="D24">
-        <v>1.023956669321641</v>
+        <v>1.037858402639911</v>
       </c>
       <c r="E24">
-        <v>0.9739340814204267</v>
+        <v>1.010929082878165</v>
       </c>
       <c r="F24">
-        <v>1.012409525505143</v>
+        <v>1.039374617908294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045949445550575</v>
+        <v>1.032922187152152</v>
       </c>
       <c r="J24">
-        <v>0.9901213472197162</v>
+        <v>1.014655767162784</v>
       </c>
       <c r="K24">
-        <v>1.037575746797402</v>
+        <v>1.041221991656764</v>
       </c>
       <c r="L24">
-        <v>0.9884349469519385</v>
+        <v>1.014389030152935</v>
       </c>
       <c r="M24">
-        <v>1.026222165142912</v>
+        <v>1.042732945149453</v>
       </c>
       <c r="N24">
-        <v>1.000564601324915</v>
+        <v>1.008998080563269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9688253472586706</v>
+        <v>1.009837818476399</v>
       </c>
       <c r="D25">
-        <v>1.028586976508105</v>
+        <v>1.038795273305037</v>
       </c>
       <c r="E25">
-        <v>0.980008385201086</v>
+        <v>1.012250101332534</v>
       </c>
       <c r="F25">
-        <v>1.018642121952885</v>
+        <v>1.040700441431569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047157478558826</v>
+        <v>1.033043971146071</v>
       </c>
       <c r="J25">
-        <v>0.9944494199557733</v>
+        <v>1.015591586805981</v>
       </c>
       <c r="K25">
-        <v>1.040757152063331</v>
+        <v>1.041838418953857</v>
       </c>
       <c r="L25">
-        <v>0.9929251811155864</v>
+        <v>1.01537852825826</v>
       </c>
       <c r="M25">
-        <v>1.030957775084202</v>
+        <v>1.043737649243696</v>
       </c>
       <c r="N25">
-        <v>1.002056292321808</v>
+        <v>1.009314737482208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011088528027686</v>
+        <v>0.9748181683566189</v>
       </c>
       <c r="D2">
-        <v>1.039542189857305</v>
+        <v>1.032158679937196</v>
       </c>
       <c r="E2">
-        <v>1.013307971452307</v>
+        <v>0.9847098991811043</v>
       </c>
       <c r="F2">
-        <v>1.041759721710385</v>
+        <v>1.023457513254006</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033135816629002</v>
+        <v>1.048048225425341</v>
       </c>
       <c r="J2">
-        <v>1.016339018249044</v>
+        <v>0.9977790665330145</v>
       </c>
       <c r="K2">
-        <v>1.042327081931044</v>
+        <v>1.043187460966322</v>
       </c>
       <c r="L2">
-        <v>1.016169514477233</v>
+        <v>0.9963864410232264</v>
       </c>
       <c r="M2">
-        <v>1.044538326767334</v>
+        <v>1.034599441530677</v>
       </c>
       <c r="N2">
-        <v>1.00956726760115</v>
+        <v>1.003202240068453</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011998492306645</v>
+        <v>0.9790520887968591</v>
       </c>
       <c r="D3">
-        <v>1.04008428611555</v>
+        <v>1.034684910327728</v>
       </c>
       <c r="E3">
-        <v>1.014078504524762</v>
+        <v>0.9880466365946901</v>
       </c>
       <c r="F3">
-        <v>1.042529858890228</v>
+        <v>1.026868846719109</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033199422137062</v>
+        <v>1.048653872254441</v>
       </c>
       <c r="J3">
-        <v>1.016882295147649</v>
+        <v>1.000130574863358</v>
       </c>
       <c r="K3">
-        <v>1.042680125176134</v>
+        <v>1.044892422391031</v>
       </c>
       <c r="L3">
-        <v>1.016744843737334</v>
+        <v>0.9988347827224134</v>
       </c>
       <c r="M3">
-        <v>1.045119263673284</v>
+        <v>1.037169101501189</v>
       </c>
       <c r="N3">
-        <v>1.009750598916128</v>
+        <v>1.004010495127527</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012588144329397</v>
+        <v>0.9817404516705053</v>
       </c>
       <c r="D4">
-        <v>1.040434938040297</v>
+        <v>1.036289491524496</v>
       </c>
       <c r="E4">
-        <v>1.01457820428877</v>
+        <v>0.9901719939442156</v>
       </c>
       <c r="F4">
-        <v>1.043028640504153</v>
+        <v>1.029038458540598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033239147806063</v>
+        <v>1.049027074557938</v>
       </c>
       <c r="J4">
-        <v>1.017234091721952</v>
+        <v>1.001623059341845</v>
       </c>
       <c r="K4">
-        <v>1.042907738730191</v>
+        <v>1.045968807532984</v>
       </c>
       <c r="L4">
-        <v>1.017117577590346</v>
+        <v>1.000390499688625</v>
       </c>
       <c r="M4">
-        <v>1.045494959480256</v>
+        <v>1.038798605608582</v>
       </c>
       <c r="N4">
-        <v>1.009869210989908</v>
+        <v>1.004522966735657</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012836234969218</v>
+        <v>0.982858794181051</v>
       </c>
       <c r="D5">
-        <v>1.040582321047545</v>
+        <v>1.036957003204265</v>
       </c>
       <c r="E5">
-        <v>1.014788543049754</v>
+        <v>0.9910576826672914</v>
       </c>
       <c r="F5">
-        <v>1.043238434032102</v>
+        <v>1.02994175312685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033255505014807</v>
+        <v>1.049179540196959</v>
       </c>
       <c r="J5">
-        <v>1.017382048193519</v>
+        <v>1.002243742632203</v>
       </c>
       <c r="K5">
-        <v>1.043003227337204</v>
+        <v>1.046415001851316</v>
       </c>
       <c r="L5">
-        <v>1.017274383212267</v>
+        <v>1.0010379018441</v>
       </c>
       <c r="M5">
-        <v>1.045652849923052</v>
+        <v>1.039475866138704</v>
       </c>
       <c r="N5">
-        <v>1.009919071338718</v>
+        <v>1.004735959270358</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012877902227306</v>
+        <v>0.9830458862763034</v>
       </c>
       <c r="D6">
-        <v>1.040607065417681</v>
+        <v>1.037068671705645</v>
       </c>
       <c r="E6">
-        <v>1.014823875346598</v>
+        <v>0.9912059431129264</v>
       </c>
       <c r="F6">
-        <v>1.043273665421547</v>
+        <v>1.030092910053479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033258231298179</v>
+        <v>1.049204881453608</v>
       </c>
       <c r="J6">
-        <v>1.017406894293229</v>
+        <v>1.002347567745546</v>
       </c>
       <c r="K6">
-        <v>1.043019248510365</v>
+        <v>1.046489552382529</v>
       </c>
       <c r="L6">
-        <v>1.017300717883226</v>
+        <v>1.001146221098561</v>
       </c>
       <c r="M6">
-        <v>1.045679357311604</v>
+        <v>1.039589129689459</v>
       </c>
       <c r="N6">
-        <v>1.009927442853383</v>
+        <v>1.004771579895608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012591458540636</v>
+        <v>0.9817554410087368</v>
       </c>
       <c r="D7">
-        <v>1.040436907504079</v>
+        <v>1.036298438381738</v>
       </c>
       <c r="E7">
-        <v>1.01458101380635</v>
+        <v>0.9901838589113894</v>
       </c>
       <c r="F7">
-        <v>1.043031443362998</v>
+        <v>1.029050562730243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033239367722461</v>
+        <v>1.049029129152423</v>
       </c>
       <c r="J7">
-        <v>1.01723606848447</v>
+        <v>1.001631379223011</v>
       </c>
       <c r="K7">
-        <v>1.04290901544211</v>
+        <v>1.045974794289021</v>
       </c>
       <c r="L7">
-        <v>1.017119672410636</v>
+        <v>1.000399176056514</v>
       </c>
       <c r="M7">
-        <v>1.045497069427211</v>
+        <v>1.038807685552446</v>
       </c>
       <c r="N7">
-        <v>1.009869877243261</v>
+        <v>1.0045258222922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011395879180958</v>
+        <v>0.9762599209523946</v>
       </c>
       <c r="D8">
-        <v>1.039725417483242</v>
+        <v>1.033018742494265</v>
       </c>
       <c r="E8">
-        <v>1.013568145251036</v>
+        <v>0.9858447133453583</v>
       </c>
       <c r="F8">
-        <v>1.042019898325313</v>
+        <v>1.024618345234873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033157608300696</v>
+        <v>1.048256805424631</v>
       </c>
       <c r="J8">
-        <v>1.016522566719628</v>
+        <v>0.9985799238361287</v>
       </c>
       <c r="K8">
-        <v>1.042446565209147</v>
+        <v>1.043769283963392</v>
       </c>
       <c r="L8">
-        <v>1.016363854286721</v>
+        <v>0.9972199035065439</v>
       </c>
       <c r="M8">
-        <v>1.044734699240397</v>
+        <v>1.035474859523515</v>
       </c>
       <c r="N8">
-        <v>1.00962922822854</v>
+        <v>1.003477615060615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009295634788565</v>
+        <v>0.9661631792608829</v>
       </c>
       <c r="D9">
-        <v>1.038470854025741</v>
+        <v>1.027002614078683</v>
       </c>
       <c r="E9">
-        <v>1.01179193715296</v>
+        <v>0.9779277207278498</v>
       </c>
       <c r="F9">
-        <v>1.040240986010304</v>
+        <v>1.016508421933832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033002610410435</v>
+        <v>1.046750517675803</v>
       </c>
       <c r="J9">
-        <v>1.015267325020622</v>
+        <v>0.9929701118474764</v>
       </c>
       <c r="K9">
-        <v>1.041625392571447</v>
+        <v>1.039672273853072</v>
       </c>
       <c r="L9">
-        <v>1.015035561170542</v>
+        <v>0.9913893528202721</v>
       </c>
       <c r="M9">
-        <v>1.043389790929709</v>
+        <v>1.029339221487498</v>
       </c>
       <c r="N9">
-        <v>1.009205074539439</v>
+        <v>1.001546683873914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007899925812085</v>
+        <v>0.9591243016267748</v>
       </c>
       <c r="D10">
-        <v>1.037634052663084</v>
+        <v>1.022822801463603</v>
       </c>
       <c r="E10">
-        <v>1.010613670428612</v>
+        <v>0.9724491721421429</v>
       </c>
       <c r="F10">
-        <v>1.039057575734623</v>
+        <v>1.010884556922933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032891978863282</v>
+        <v>1.045645331409696</v>
       </c>
       <c r="J10">
-        <v>1.014431932455074</v>
+        <v>0.9890590952745218</v>
       </c>
       <c r="K10">
-        <v>1.041073823101172</v>
+        <v>1.036791857615743</v>
       </c>
       <c r="L10">
-        <v>1.014152492881109</v>
+        <v>0.9873343437602542</v>
       </c>
       <c r="M10">
-        <v>1.04249228540362</v>
+        <v>1.025060029500965</v>
       </c>
       <c r="N10">
-        <v>1.008922265092357</v>
+        <v>1.000198189406493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00729663956549</v>
+        <v>0.9559961543940491</v>
       </c>
       <c r="D11">
-        <v>1.037271635049517</v>
+        <v>1.020970472956765</v>
       </c>
       <c r="E11">
-        <v>1.010104880235068</v>
+        <v>0.9700249158528573</v>
       </c>
       <c r="F11">
-        <v>1.038545775612385</v>
+        <v>1.008394101257105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032842352779805</v>
+        <v>1.045142032703379</v>
       </c>
       <c r="J11">
-        <v>1.014070552087649</v>
+        <v>0.9873214682129551</v>
       </c>
       <c r="K11">
-        <v>1.04083403083487</v>
+        <v>1.035507464048535</v>
       </c>
       <c r="L11">
-        <v>1.013770712929152</v>
+        <v>0.9855351575141661</v>
       </c>
       <c r="M11">
-        <v>1.042103467139973</v>
+        <v>1.023159434485179</v>
       </c>
       <c r="N11">
-        <v>1.008799801487448</v>
+        <v>0.9995985978838338</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007072713350215</v>
+        <v>0.9548214973947153</v>
       </c>
       <c r="D12">
-        <v>1.037137007664684</v>
+        <v>1.020275848717832</v>
       </c>
       <c r="E12">
-        <v>1.009916105880841</v>
+        <v>0.9691162226245568</v>
       </c>
       <c r="F12">
-        <v>1.03835576642473</v>
+        <v>1.007460390757759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032823661535442</v>
+        <v>1.044951295353704</v>
       </c>
       <c r="J12">
-        <v>1.013936373002746</v>
+        <v>0.9866690837766141</v>
       </c>
       <c r="K12">
-        <v>1.040744818903479</v>
+        <v>1.035024638903014</v>
       </c>
       <c r="L12">
-        <v>1.013628993351439</v>
+        <v>0.9848600300377127</v>
       </c>
       <c r="M12">
-        <v>1.041959015829301</v>
+        <v>1.022446043717107</v>
       </c>
       <c r="N12">
-        <v>1.00875431270911</v>
+        <v>0.9993734201782456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007120738972072</v>
+        <v>0.9550740522535719</v>
       </c>
       <c r="D13">
-        <v>1.037165886082851</v>
+        <v>1.020425149556053</v>
       </c>
       <c r="E13">
-        <v>1.009956588957568</v>
+        <v>0.9693115189672015</v>
       </c>
       <c r="F13">
-        <v>1.038396519650847</v>
+        <v>1.007661071653031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032827682529029</v>
+        <v>1.04499238186384</v>
       </c>
       <c r="J13">
-        <v>1.013965152425855</v>
+        <v>0.9868093424668716</v>
       </c>
       <c r="K13">
-        <v>1.040763961582915</v>
+        <v>1.03512846917953</v>
       </c>
       <c r="L13">
-        <v>1.013659388567776</v>
+        <v>0.9850051615606923</v>
       </c>
       <c r="M13">
-        <v>1.041990002310518</v>
+        <v>1.022599408843335</v>
       </c>
       <c r="N13">
-        <v>1.008764070214834</v>
+        <v>0.9994218347868112</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007278126460365</v>
+        <v>0.9558993204434481</v>
       </c>
       <c r="D14">
-        <v>1.037260506885649</v>
+        <v>1.020913190729928</v>
       </c>
       <c r="E14">
-        <v>1.010089271734238</v>
+        <v>0.9699499730194547</v>
       </c>
       <c r="F14">
-        <v>1.038530067418245</v>
+        <v>1.008317098823291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032840813012398</v>
+        <v>1.045126344037111</v>
       </c>
       <c r="J14">
-        <v>1.014059459701496</v>
+        <v>0.9872676856752135</v>
       </c>
       <c r="K14">
-        <v>1.040826659444162</v>
+        <v>1.035467671721567</v>
       </c>
       <c r="L14">
-        <v>1.013758996491707</v>
+        <v>0.9854794924997492</v>
       </c>
       <c r="M14">
-        <v>1.042091527286578</v>
+        <v>1.023100618423148</v>
       </c>
       <c r="N14">
-        <v>1.008796041375255</v>
+        <v>0.9995800355022008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007375119476205</v>
+        <v>0.9564060887469894</v>
       </c>
       <c r="D15">
-        <v>1.037318804713395</v>
+        <v>1.021213009679458</v>
       </c>
       <c r="E15">
-        <v>1.010171050240908</v>
+        <v>0.9703422443928386</v>
       </c>
       <c r="F15">
-        <v>1.038612363418935</v>
+        <v>1.008720142903847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032848868984866</v>
+        <v>1.045208378140402</v>
       </c>
       <c r="J15">
-        <v>1.014117572670962</v>
+        <v>0.9875491548057133</v>
       </c>
       <c r="K15">
-        <v>1.040865270845583</v>
+        <v>1.035675899434744</v>
       </c>
       <c r="L15">
-        <v>1.013820380248122</v>
+        <v>0.9857708285979999</v>
       </c>
       <c r="M15">
-        <v>1.04215407667144</v>
+        <v>1.023408438179342</v>
       </c>
       <c r="N15">
-        <v>1.008815739830283</v>
+        <v>0.9996771785541669</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007939986469644</v>
+        <v>0.9593301595985414</v>
       </c>
       <c r="D16">
-        <v>1.03765810369322</v>
+        <v>1.02294482249031</v>
       </c>
       <c r="E16">
-        <v>1.010647466938433</v>
+        <v>0.9726089324732345</v>
       </c>
       <c r="F16">
-        <v>1.039091555579309</v>
+        <v>1.011048647018608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032895236171959</v>
+        <v>1.04567820627245</v>
       </c>
       <c r="J16">
-        <v>1.014455923548062</v>
+        <v>0.9891734590396436</v>
       </c>
       <c r="K16">
-        <v>1.041089717261592</v>
+        <v>1.036876302156009</v>
       </c>
       <c r="L16">
-        <v>1.014177842984687</v>
+        <v>0.9874528099914852</v>
       </c>
       <c r="M16">
-        <v>1.042518086108919</v>
+        <v>1.025185139198719</v>
       </c>
       <c r="N16">
-        <v>1.008930392525961</v>
+        <v>1.00023764294915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008294598546172</v>
+        <v>0.9611424068064497</v>
       </c>
       <c r="D17">
-        <v>1.037870917918794</v>
+        <v>1.024019634896309</v>
       </c>
       <c r="E17">
-        <v>1.010946688375274</v>
+        <v>0.9740165652574578</v>
       </c>
       <c r="F17">
-        <v>1.039392308986026</v>
+        <v>1.012494221793139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032923860640211</v>
+        <v>1.045966242399886</v>
       </c>
       <c r="J17">
-        <v>1.014668256608771</v>
+        <v>0.9901803060294033</v>
       </c>
       <c r="K17">
-        <v>1.0412302509917</v>
+        <v>1.037619224199452</v>
       </c>
       <c r="L17">
-        <v>1.014402229902357</v>
+        <v>0.988496050650582</v>
       </c>
       <c r="M17">
-        <v>1.042746369514125</v>
+        <v>1.026286671988457</v>
       </c>
       <c r="N17">
-        <v>1.009002310042415</v>
+        <v>1.000584935357413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008501540444878</v>
+        <v>0.9621917625351079</v>
       </c>
       <c r="D18">
-        <v>1.037995041267277</v>
+        <v>1.024642474553166</v>
       </c>
       <c r="E18">
-        <v>1.011121354833115</v>
+        <v>0.9748326240639351</v>
       </c>
       <c r="F18">
-        <v>1.039567793440808</v>
+        <v>1.013332090744958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032940390617763</v>
+        <v>1.046131866485404</v>
       </c>
       <c r="J18">
-        <v>1.014792140600834</v>
+        <v>0.9907633476667149</v>
       </c>
       <c r="K18">
-        <v>1.041312129292504</v>
+        <v>1.03804898463937</v>
       </c>
       <c r="L18">
-        <v>1.014533168270762</v>
+        <v>0.9891003960728693</v>
       </c>
       <c r="M18">
-        <v>1.042879504658586</v>
+        <v>1.026924595824523</v>
       </c>
       <c r="N18">
-        <v>1.009044257776758</v>
+        <v>1.00078599934869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008572119664547</v>
+        <v>0.9625482795708502</v>
       </c>
       <c r="D19">
-        <v>1.038037362766112</v>
+        <v>1.024854160907438</v>
       </c>
       <c r="E19">
-        <v>1.011180934543009</v>
+        <v>0.9751100445320983</v>
       </c>
       <c r="F19">
-        <v>1.039627639223689</v>
+        <v>1.013616891640462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032945998700158</v>
+        <v>1.046187938018809</v>
       </c>
       <c r="J19">
-        <v>1.014834387525931</v>
+        <v>0.9909614408836672</v>
       </c>
       <c r="K19">
-        <v>1.041340031911579</v>
+        <v>1.038194920501918</v>
       </c>
       <c r="L19">
-        <v>1.0145778245495</v>
+        <v>0.9893057661030867</v>
       </c>
       <c r="M19">
-        <v>1.042924897068434</v>
+        <v>1.027141341963198</v>
       </c>
       <c r="N19">
-        <v>1.009058560765627</v>
+        <v>1.000854304680766</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008256541397925</v>
+        <v>0.9609487706734205</v>
       </c>
       <c r="D20">
-        <v>1.037848085735229</v>
+        <v>1.023904741220644</v>
       </c>
       <c r="E20">
-        <v>1.010914570703941</v>
+        <v>0.9738660585087119</v>
       </c>
       <c r="F20">
-        <v>1.039360034760243</v>
+        <v>1.012339676961229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032920806689842</v>
+        <v>1.045935585791141</v>
       </c>
       <c r="J20">
-        <v>1.014645471786319</v>
+        <v>0.9900727212027863</v>
       </c>
       <c r="K20">
-        <v>1.041215182623174</v>
+        <v>1.037539886453561</v>
       </c>
       <c r="L20">
-        <v>1.014378149376809</v>
+        <v>0.9883845532421029</v>
       </c>
       <c r="M20">
-        <v>1.042721878785221</v>
+        <v>1.026168963689217</v>
       </c>
       <c r="N20">
-        <v>1.008994594025769</v>
+        <v>1.00054783066657</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007231775309732</v>
+        <v>0.95565665633363</v>
       </c>
       <c r="D21">
-        <v>1.037232643657673</v>
+        <v>1.02076965834907</v>
       </c>
       <c r="E21">
-        <v>1.010050194071622</v>
+        <v>0.9697621943918611</v>
       </c>
       <c r="F21">
-        <v>1.038490738255719</v>
+        <v>1.008124156614862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032836953525503</v>
+        <v>1.045087000733442</v>
       </c>
       <c r="J21">
-        <v>1.014031687069087</v>
+        <v>0.9871329096368406</v>
       </c>
       <c r="K21">
-        <v>1.040808200404402</v>
+        <v>1.035367944944447</v>
       </c>
       <c r="L21">
-        <v>1.013729661933126</v>
+        <v>0.9853400050487896</v>
       </c>
       <c r="M21">
-        <v>1.042061631437837</v>
+        <v>1.022953231848438</v>
       </c>
       <c r="N21">
-        <v>1.008786626671255</v>
+        <v>0.9995335182061518</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006588397187797</v>
+        <v>0.9522553154148758</v>
       </c>
       <c r="D22">
-        <v>1.036845637821808</v>
+        <v>1.01876028450469</v>
       </c>
       <c r="E22">
-        <v>1.009507959180963</v>
+        <v>0.9671341757544564</v>
       </c>
       <c r="F22">
-        <v>1.037944734593239</v>
+        <v>1.005423496109943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032782739929191</v>
+        <v>1.044531496134491</v>
       </c>
       <c r="J22">
-        <v>1.013646087329338</v>
+        <v>0.9852441339855939</v>
       </c>
       <c r="K22">
-        <v>1.040551491434683</v>
+        <v>1.033969037818591</v>
       </c>
       <c r="L22">
-        <v>1.013322456304372</v>
+        <v>0.9833860901009432</v>
       </c>
       <c r="M22">
-        <v>1.04164635311206</v>
+        <v>1.02088827272422</v>
       </c>
       <c r="N22">
-        <v>1.008655867578719</v>
+        <v>0.9988814733944587</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00692937527705</v>
+        <v>0.9540656767237956</v>
       </c>
       <c r="D23">
-        <v>1.037050801214461</v>
+        <v>1.019829188002366</v>
       </c>
       <c r="E23">
-        <v>1.009795290753383</v>
+        <v>0.9685320061176131</v>
       </c>
       <c r="F23">
-        <v>1.038234127827253</v>
+        <v>1.006860043405031</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032811620723649</v>
+        <v>1.044828086906949</v>
       </c>
       <c r="J23">
-        <v>1.013850471202789</v>
+        <v>0.9862493522421896</v>
       </c>
       <c r="K23">
-        <v>1.040687655177495</v>
+        <v>1.034713840045001</v>
       </c>
       <c r="L23">
-        <v>1.013538273631423</v>
+        <v>0.9844257708805082</v>
       </c>
       <c r="M23">
-        <v>1.041866513992974</v>
+        <v>1.021987123727561</v>
       </c>
       <c r="N23">
-        <v>1.008725185465943</v>
+        <v>0.9992285280924554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008273737467932</v>
+        <v>0.9610362902459528</v>
       </c>
       <c r="D24">
-        <v>1.037858402639911</v>
+        <v>1.023956669321641</v>
       </c>
       <c r="E24">
-        <v>1.010929082878165</v>
+        <v>0.9739340814204268</v>
       </c>
       <c r="F24">
-        <v>1.039374617908294</v>
+        <v>1.012409525505143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032922187152152</v>
+        <v>1.045949445550575</v>
       </c>
       <c r="J24">
-        <v>1.014655767162784</v>
+        <v>0.9901213472197165</v>
       </c>
       <c r="K24">
-        <v>1.041221991656764</v>
+        <v>1.037575746797402</v>
       </c>
       <c r="L24">
-        <v>1.014389030152935</v>
+        <v>0.9884349469519385</v>
       </c>
       <c r="M24">
-        <v>1.042732945149453</v>
+        <v>1.026222165142911</v>
       </c>
       <c r="N24">
-        <v>1.008998080563269</v>
+        <v>1.000564601324915</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009837818476399</v>
+        <v>0.9688253472586703</v>
       </c>
       <c r="D25">
-        <v>1.038795273305037</v>
+        <v>1.028586976508105</v>
       </c>
       <c r="E25">
-        <v>1.012250101332534</v>
+        <v>0.9800083852010855</v>
       </c>
       <c r="F25">
-        <v>1.040700441431569</v>
+        <v>1.018642121952885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033043971146071</v>
+        <v>1.047157478558826</v>
       </c>
       <c r="J25">
-        <v>1.015591586805981</v>
+        <v>0.9944494199557729</v>
       </c>
       <c r="K25">
-        <v>1.041838418953857</v>
+        <v>1.04075715206333</v>
       </c>
       <c r="L25">
-        <v>1.01537852825826</v>
+        <v>0.9929251811155858</v>
       </c>
       <c r="M25">
-        <v>1.043737649243696</v>
+        <v>1.030957775084201</v>
       </c>
       <c r="N25">
-        <v>1.009314737482208</v>
+        <v>1.002056292321808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9748181683566189</v>
+        <v>1.004149577314805</v>
       </c>
       <c r="D2">
-        <v>1.032158679937196</v>
+        <v>1.042842462036045</v>
       </c>
       <c r="E2">
-        <v>0.9847098991811043</v>
+        <v>1.00992539586195</v>
       </c>
       <c r="F2">
-        <v>1.023457513254006</v>
+        <v>1.042753901499941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048048225425341</v>
+        <v>1.050764665111402</v>
       </c>
       <c r="J2">
-        <v>0.9977790665330145</v>
+        <v>1.026206879665383</v>
       </c>
       <c r="K2">
-        <v>1.043187460966322</v>
+        <v>1.053735535682063</v>
       </c>
       <c r="L2">
-        <v>0.9963864410232264</v>
+        <v>1.021248164538392</v>
       </c>
       <c r="M2">
-        <v>1.034599441530677</v>
+        <v>1.053648085804207</v>
       </c>
       <c r="N2">
-        <v>1.003202240068453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012337254535549</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051031176275705</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049065876036296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9790520887968591</v>
+        <v>1.008534837937452</v>
       </c>
       <c r="D3">
-        <v>1.034684910327728</v>
+        <v>1.044945694680086</v>
       </c>
       <c r="E3">
-        <v>0.9880466365946901</v>
+        <v>1.01343102284848</v>
       </c>
       <c r="F3">
-        <v>1.026868846719109</v>
+        <v>1.045214738980174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048653872254441</v>
+        <v>1.051698511362514</v>
       </c>
       <c r="J3">
-        <v>1.000130574863358</v>
+        <v>1.028795508182049</v>
       </c>
       <c r="K3">
-        <v>1.044892422391031</v>
+        <v>1.055034056736059</v>
       </c>
       <c r="L3">
-        <v>0.9988347827224134</v>
+        <v>1.023894887798527</v>
       </c>
       <c r="M3">
-        <v>1.037169101501189</v>
+        <v>1.05530001570209</v>
       </c>
       <c r="N3">
-        <v>1.004010495127527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013233685733118</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052338548150682</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049981388458304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9817404516705053</v>
+        <v>1.011317716427182</v>
       </c>
       <c r="D4">
-        <v>1.036289491524496</v>
+        <v>1.046288749311503</v>
       </c>
       <c r="E4">
-        <v>0.9901719939442156</v>
+        <v>1.015661602603581</v>
       </c>
       <c r="F4">
-        <v>1.029038458540598</v>
+        <v>1.046786223545695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049027074557938</v>
+        <v>1.052284587755032</v>
       </c>
       <c r="J4">
-        <v>1.001623059341845</v>
+        <v>1.030436278688512</v>
       </c>
       <c r="K4">
-        <v>1.045968807532984</v>
+        <v>1.055858852444395</v>
       </c>
       <c r="L4">
-        <v>1.000390499688625</v>
+        <v>1.02557461037435</v>
       </c>
       <c r="M4">
-        <v>1.038798605608582</v>
+        <v>1.056350960018503</v>
       </c>
       <c r="N4">
-        <v>1.004522966735657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013801538490129</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053170286282515</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050565455755022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.982858794181051</v>
+        <v>1.012477062889459</v>
       </c>
       <c r="D5">
-        <v>1.036957003204265</v>
+        <v>1.046854484462271</v>
       </c>
       <c r="E5">
-        <v>0.9910576826672914</v>
+        <v>1.01659255205865</v>
       </c>
       <c r="F5">
-        <v>1.02994175312685</v>
+        <v>1.047445333739954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049179540196959</v>
+        <v>1.052529103064306</v>
       </c>
       <c r="J5">
-        <v>1.002243742632203</v>
+        <v>1.031120115702007</v>
       </c>
       <c r="K5">
-        <v>1.046415001851316</v>
+        <v>1.056207218678725</v>
       </c>
       <c r="L5">
-        <v>1.0010379018441</v>
+        <v>1.02627507540344</v>
       </c>
       <c r="M5">
-        <v>1.039475866138704</v>
+        <v>1.056791860913702</v>
       </c>
       <c r="N5">
-        <v>1.004735959270358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014038525668379</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053519223703954</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050818840255711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9830458862763034</v>
+        <v>1.012673509841623</v>
       </c>
       <c r="D6">
-        <v>1.037068671705645</v>
+        <v>1.046955666828959</v>
       </c>
       <c r="E6">
-        <v>0.9912059431129264</v>
+        <v>1.016750758486574</v>
       </c>
       <c r="F6">
-        <v>1.030092910053479</v>
+        <v>1.047559748978193</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049204881453608</v>
+        <v>1.052572830133364</v>
       </c>
       <c r="J6">
-        <v>1.002347567745546</v>
+        <v>1.031236931272207</v>
       </c>
       <c r="K6">
-        <v>1.046489552382529</v>
+        <v>1.056271869162252</v>
       </c>
       <c r="L6">
-        <v>1.001146221098561</v>
+        <v>1.026394619544854</v>
       </c>
       <c r="M6">
-        <v>1.039589129689459</v>
+        <v>1.05686963386651</v>
       </c>
       <c r="N6">
-        <v>1.004771579895608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014079498941574</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053580774693148</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050873171203479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9817554410087368</v>
+        <v>1.011340046419467</v>
       </c>
       <c r="D7">
-        <v>1.036298438381738</v>
+        <v>1.046313592473428</v>
       </c>
       <c r="E7">
-        <v>0.9901838589113894</v>
+        <v>1.015680563078668</v>
       </c>
       <c r="F7">
-        <v>1.029050562730243</v>
+        <v>1.046805865236441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049029129152423</v>
+        <v>1.052295720981409</v>
       </c>
       <c r="J7">
-        <v>1.001631379223011</v>
+        <v>1.030452068338636</v>
       </c>
       <c r="K7">
-        <v>1.045974794289021</v>
+        <v>1.055880602592187</v>
       </c>
       <c r="L7">
-        <v>1.000399176056514</v>
+        <v>1.025590411470166</v>
       </c>
       <c r="M7">
-        <v>1.038807685552446</v>
+        <v>1.056367566847253</v>
       </c>
       <c r="N7">
-        <v>1.0045258222922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013808361913294</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053183429248099</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050600657662524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9762599209523946</v>
+        <v>1.005651771130048</v>
       </c>
       <c r="D8">
-        <v>1.033018742494265</v>
+        <v>1.043578437425198</v>
       </c>
       <c r="E8">
-        <v>0.9858447133453583</v>
+        <v>1.011126370675313</v>
       </c>
       <c r="F8">
-        <v>1.024618345234873</v>
+        <v>1.043603382623656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048256805424631</v>
+        <v>1.051093865602192</v>
       </c>
       <c r="J8">
-        <v>0.9985799238361287</v>
+        <v>1.027097288216421</v>
       </c>
       <c r="K8">
-        <v>1.043769283963392</v>
+        <v>1.054198774865371</v>
       </c>
       <c r="L8">
-        <v>0.9972199035065439</v>
+        <v>1.022157708229587</v>
       </c>
       <c r="M8">
-        <v>1.035474859523515</v>
+        <v>1.054223416359784</v>
       </c>
       <c r="N8">
-        <v>1.003477615060615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012647439619222</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051486505170136</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049415997884616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9661631792608829</v>
+        <v>0.9951772656994501</v>
       </c>
       <c r="D9">
-        <v>1.027002614078683</v>
+        <v>1.038589278681937</v>
       </c>
       <c r="E9">
-        <v>0.9779277207278498</v>
+        <v>1.002787516426298</v>
       </c>
       <c r="F9">
-        <v>1.016508421933832</v>
+        <v>1.03777689469935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046750517675803</v>
+        <v>1.048820264333549</v>
       </c>
       <c r="J9">
-        <v>0.9929701118474764</v>
+        <v>1.020901484177335</v>
       </c>
       <c r="K9">
-        <v>1.039672273853072</v>
+        <v>1.051085828550159</v>
       </c>
       <c r="L9">
-        <v>0.9913893528202721</v>
+        <v>1.015835529437902</v>
       </c>
       <c r="M9">
-        <v>1.029339221487498</v>
+        <v>1.050285421860646</v>
       </c>
       <c r="N9">
-        <v>1.001546683873914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010498638154949</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048369886629112</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047211872159626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9591243016267748</v>
+        <v>0.987917221116872</v>
       </c>
       <c r="D10">
-        <v>1.022822801463603</v>
+        <v>1.035231527341841</v>
       </c>
       <c r="E10">
-        <v>0.9724491721421429</v>
+        <v>0.9970511555980169</v>
       </c>
       <c r="F10">
-        <v>1.010884556922933</v>
+        <v>1.033886144480248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045645331409696</v>
+        <v>1.047242738106026</v>
       </c>
       <c r="J10">
-        <v>0.9890590952745218</v>
+        <v>1.016618568835745</v>
       </c>
       <c r="K10">
-        <v>1.036791857615743</v>
+        <v>1.048992525734125</v>
       </c>
       <c r="L10">
-        <v>0.9873343437602542</v>
+        <v>1.011473857242304</v>
       </c>
       <c r="M10">
-        <v>1.025060029500965</v>
+        <v>1.047669390238811</v>
       </c>
       <c r="N10">
-        <v>1.000198189406493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00901968915072</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046350444079713</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045748398306475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9559961543940491</v>
+        <v>0.9850797820277153</v>
       </c>
       <c r="D11">
-        <v>1.020970472956765</v>
+        <v>1.03429833418779</v>
       </c>
       <c r="E11">
-        <v>0.9700249158528573</v>
+        <v>0.9948765324359793</v>
       </c>
       <c r="F11">
-        <v>1.008394101257105</v>
+        <v>1.033065053475586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045142032703379</v>
+        <v>1.046844613011869</v>
       </c>
       <c r="J11">
-        <v>0.9873214682129551</v>
+        <v>1.015086707416999</v>
       </c>
       <c r="K11">
-        <v>1.035507464048535</v>
+        <v>1.048601178306829</v>
       </c>
       <c r="L11">
-        <v>0.9855351575141661</v>
+        <v>1.009895720999643</v>
       </c>
       <c r="M11">
-        <v>1.023159434485179</v>
+        <v>1.047389235927637</v>
       </c>
       <c r="N11">
-        <v>0.9995985978838338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008554094603714</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046560911993949</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045504096828773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9548214973947153</v>
+        <v>0.9841470500473021</v>
       </c>
       <c r="D12">
-        <v>1.020275848717832</v>
+        <v>1.034130657494112</v>
       </c>
       <c r="E12">
-        <v>0.9691162226245568</v>
+        <v>0.9941884679892042</v>
       </c>
       <c r="F12">
-        <v>1.007460390757759</v>
+        <v>1.033068046110317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044951295353704</v>
+        <v>1.046797537313731</v>
       </c>
       <c r="J12">
-        <v>0.9866690837766141</v>
+        <v>1.014637825888853</v>
       </c>
       <c r="K12">
-        <v>1.035024638903014</v>
+        <v>1.048631933122362</v>
       </c>
       <c r="L12">
-        <v>0.9848600300377127</v>
+        <v>1.009427861205528</v>
       </c>
       <c r="M12">
-        <v>1.022446043717107</v>
+        <v>1.047588000454595</v>
       </c>
       <c r="N12">
-        <v>0.9993734201782456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008450621498536</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047041747623567</v>
+      </c>
+      <c r="Q12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R12">
+        <v>1.045525840911001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9550740522535719</v>
+        <v>0.9846319611790941</v>
       </c>
       <c r="D13">
-        <v>1.020425149556053</v>
+        <v>1.034565356116296</v>
       </c>
       <c r="E13">
-        <v>0.9693115189672015</v>
+        <v>0.9946082506635492</v>
       </c>
       <c r="F13">
-        <v>1.007661071653031</v>
+        <v>1.033732034970958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04499238186384</v>
+        <v>1.047033411613046</v>
       </c>
       <c r="J13">
-        <v>0.9868093424668716</v>
+        <v>1.015006213042464</v>
       </c>
       <c r="K13">
-        <v>1.03512846917953</v>
+        <v>1.049017089820286</v>
       </c>
       <c r="L13">
-        <v>0.9850051615606923</v>
+        <v>1.00979509839613</v>
       </c>
       <c r="M13">
-        <v>1.022599408843335</v>
+        <v>1.048198348057251</v>
       </c>
       <c r="N13">
-        <v>0.9994218347868112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008625299775064</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047798905782012</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045795694834291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558993204434481</v>
+        <v>0.9856131248843552</v>
       </c>
       <c r="D14">
-        <v>1.020913190729928</v>
+        <v>1.035143553094273</v>
       </c>
       <c r="E14">
-        <v>0.9699499730194547</v>
+        <v>0.9954035727203642</v>
       </c>
       <c r="F14">
-        <v>1.008317098823291</v>
+        <v>1.034495779640043</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045126344037111</v>
+        <v>1.047326245374359</v>
       </c>
       <c r="J14">
-        <v>0.9872676856752135</v>
+        <v>1.015633438094277</v>
       </c>
       <c r="K14">
-        <v>1.035467671721567</v>
+        <v>1.049447952360602</v>
       </c>
       <c r="L14">
-        <v>0.9854794924997492</v>
+        <v>1.010429778063677</v>
       </c>
       <c r="M14">
-        <v>1.023100618423148</v>
+        <v>1.048811369400909</v>
       </c>
       <c r="N14">
-        <v>0.9995800355022008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008873432780794</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048455652280452</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046101724968995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564060887469894</v>
+        <v>0.9861634614356353</v>
       </c>
       <c r="D15">
-        <v>1.021213009679458</v>
+        <v>1.035426838879082</v>
       </c>
       <c r="E15">
-        <v>0.9703422443928386</v>
+        <v>0.9958416785777681</v>
       </c>
       <c r="F15">
-        <v>1.008720142903847</v>
+        <v>1.034842036612236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045208378140402</v>
+        <v>1.047464864673546</v>
       </c>
       <c r="J15">
-        <v>0.9875491548057133</v>
+        <v>1.01596875465857</v>
       </c>
       <c r="K15">
-        <v>1.035675899434744</v>
+        <v>1.049641820512793</v>
       </c>
       <c r="L15">
-        <v>0.9857708285979999</v>
+        <v>1.010770076753956</v>
       </c>
       <c r="M15">
-        <v>1.023408438179342</v>
+        <v>1.049067044352433</v>
       </c>
       <c r="N15">
-        <v>0.9996771785541669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008996427848244</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048695045137319</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046244579109876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9593301595985414</v>
+        <v>0.9891494666214786</v>
       </c>
       <c r="D16">
-        <v>1.02294482249031</v>
+        <v>1.036777529332653</v>
       </c>
       <c r="E16">
-        <v>0.9726089324732345</v>
+        <v>0.998186493965547</v>
       </c>
       <c r="F16">
-        <v>1.011048647018608</v>
+        <v>1.036397430355527</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04567820627245</v>
+        <v>1.048106228411767</v>
       </c>
       <c r="J16">
-        <v>0.9891734590396436</v>
+        <v>1.017722111314401</v>
       </c>
       <c r="K16">
-        <v>1.036876302156009</v>
+        <v>1.050478230458063</v>
       </c>
       <c r="L16">
-        <v>0.9874528099914852</v>
+        <v>1.012551794925649</v>
       </c>
       <c r="M16">
-        <v>1.025185139198719</v>
+        <v>1.05010436702757</v>
       </c>
       <c r="N16">
-        <v>1.00023764294915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009592708777376</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049476473425573</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046839058182629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9611424068064497</v>
+        <v>0.9909269599331546</v>
       </c>
       <c r="D17">
-        <v>1.024019634896309</v>
+        <v>1.037511985519012</v>
       </c>
       <c r="E17">
-        <v>0.9740165652574578</v>
+        <v>0.9995711450892101</v>
       </c>
       <c r="F17">
-        <v>1.012494221793139</v>
+        <v>1.037186561826511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045966242399886</v>
+        <v>1.048442786650757</v>
       </c>
       <c r="J17">
-        <v>0.9901803060294033</v>
+        <v>1.018738322719743</v>
       </c>
       <c r="K17">
-        <v>1.037619224199452</v>
+        <v>1.050892778592626</v>
       </c>
       <c r="L17">
-        <v>0.988496050650582</v>
+        <v>1.01358669786607</v>
       </c>
       <c r="M17">
-        <v>1.026286671988457</v>
+        <v>1.050572546199668</v>
       </c>
       <c r="N17">
-        <v>1.000584935357413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009919903586606</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049718363134669</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047134704550386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9621917625351079</v>
+        <v>0.9918292870846575</v>
       </c>
       <c r="D18">
-        <v>1.024642474553166</v>
+        <v>1.037751475263155</v>
       </c>
       <c r="E18">
-        <v>0.9748326240639351</v>
+        <v>1.000252346333158</v>
       </c>
       <c r="F18">
-        <v>1.013332090744958</v>
+        <v>1.0373394573528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046131866485404</v>
+        <v>1.048533328948462</v>
       </c>
       <c r="J18">
-        <v>0.9907633476667149</v>
+        <v>1.019204568001809</v>
       </c>
       <c r="K18">
-        <v>1.03804898463937</v>
+        <v>1.050948903173351</v>
       </c>
       <c r="L18">
-        <v>0.9891003960728693</v>
+        <v>1.014066725371922</v>
       </c>
       <c r="M18">
-        <v>1.026924595824523</v>
+        <v>1.050543353831037</v>
       </c>
       <c r="N18">
-        <v>1.00078599934869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010040762590898</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049459393762991</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047162916687721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9625482795708502</v>
+        <v>0.9919389414113976</v>
       </c>
       <c r="D19">
-        <v>1.024854160907438</v>
+        <v>1.037559935304439</v>
       </c>
       <c r="E19">
-        <v>0.9751100445320983</v>
+        <v>1.000297865447043</v>
       </c>
       <c r="F19">
-        <v>1.013616891640462</v>
+        <v>1.036917672879003</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046187938018809</v>
+        <v>1.048407840337641</v>
       </c>
       <c r="J19">
-        <v>0.9909614408836672</v>
+        <v>1.019173552635122</v>
       </c>
       <c r="K19">
-        <v>1.038194920501918</v>
+        <v>1.050699128153243</v>
       </c>
       <c r="L19">
-        <v>0.9893057661030867</v>
+        <v>1.014046943491225</v>
       </c>
       <c r="M19">
-        <v>1.027141341963198</v>
+        <v>1.0500669031009</v>
       </c>
       <c r="N19">
-        <v>1.000854304680766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.0099813732603</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048759939000912</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046992627054106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9609487706734205</v>
+        <v>0.9898198825975667</v>
       </c>
       <c r="D20">
-        <v>1.023904741220644</v>
+        <v>1.036144492438088</v>
       </c>
       <c r="E20">
-        <v>0.9738660585087119</v>
+        <v>0.9985551939684104</v>
       </c>
       <c r="F20">
-        <v>1.012339676961229</v>
+        <v>1.03492295962972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045935585791141</v>
+        <v>1.047675684292473</v>
       </c>
       <c r="J20">
-        <v>0.9900727212027863</v>
+        <v>1.017748950607075</v>
       </c>
       <c r="K20">
-        <v>1.037539886453561</v>
+        <v>1.04958022537059</v>
       </c>
       <c r="L20">
-        <v>0.9883845532421029</v>
+        <v>1.012623496212915</v>
       </c>
       <c r="M20">
-        <v>1.026168963689217</v>
+        <v>1.048378322147657</v>
       </c>
       <c r="N20">
-        <v>1.00054783066657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009414473095879</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046901033740444</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04620540770297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.95565665633363</v>
+        <v>0.9842806239593642</v>
       </c>
       <c r="D21">
-        <v>1.02076965834907</v>
+        <v>1.033525636731058</v>
       </c>
       <c r="E21">
-        <v>0.9697621943918611</v>
+        <v>0.9941808162753952</v>
       </c>
       <c r="F21">
-        <v>1.008124156614862</v>
+        <v>1.031840176775197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045087000733442</v>
+        <v>1.046415789240031</v>
       </c>
       <c r="J21">
-        <v>0.9871329096368406</v>
+        <v>1.014450591746408</v>
       </c>
       <c r="K21">
-        <v>1.035367944944447</v>
+        <v>1.047898525091586</v>
       </c>
       <c r="L21">
-        <v>0.9853400050487896</v>
+        <v>1.009273279953229</v>
       </c>
       <c r="M21">
-        <v>1.022953231848438</v>
+        <v>1.046242433403431</v>
       </c>
       <c r="N21">
-        <v>0.9995335182061518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008263411826903</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045170159851771</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045019592041507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9522553154148758</v>
+        <v>0.9807354800754093</v>
       </c>
       <c r="D22">
-        <v>1.01876028450469</v>
+        <v>1.031870560920833</v>
       </c>
       <c r="E22">
-        <v>0.9671341757544564</v>
+        <v>0.9913919752079152</v>
       </c>
       <c r="F22">
-        <v>1.005423496109943</v>
+        <v>1.029917979469571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044531496134491</v>
+        <v>1.045611152351755</v>
       </c>
       <c r="J22">
-        <v>0.9852441339855939</v>
+        <v>1.012345133075746</v>
       </c>
       <c r="K22">
-        <v>1.033969037818591</v>
+        <v>1.046836035011088</v>
       </c>
       <c r="L22">
-        <v>0.9833860901009432</v>
+        <v>1.007135909462571</v>
       </c>
       <c r="M22">
-        <v>1.02088827272422</v>
+        <v>1.044919175168306</v>
       </c>
       <c r="N22">
-        <v>0.9988814733944587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007530333461619</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044122895659686</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044255059012059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9540656767237956</v>
+        <v>0.982615849727241</v>
       </c>
       <c r="D23">
-        <v>1.019829188002366</v>
+        <v>1.032734719950312</v>
       </c>
       <c r="E23">
-        <v>0.9685320061176131</v>
+        <v>0.9928691354713211</v>
       </c>
       <c r="F23">
-        <v>1.006860043405031</v>
+        <v>1.030929922931674</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044828086906949</v>
+        <v>1.046032708416999</v>
       </c>
       <c r="J23">
-        <v>0.9862493522421896</v>
+        <v>1.013459507501675</v>
       </c>
       <c r="K23">
-        <v>1.034713840045001</v>
+        <v>1.047385977134847</v>
       </c>
       <c r="L23">
-        <v>0.9844257708805082</v>
+        <v>1.008267070868043</v>
       </c>
       <c r="M23">
-        <v>1.021987123727561</v>
+        <v>1.04561336325497</v>
       </c>
       <c r="N23">
-        <v>0.9992285280924554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007916823030033</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044672296036533</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044634377026556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9610362902459528</v>
+        <v>0.989862774528648</v>
       </c>
       <c r="D24">
-        <v>1.023956669321641</v>
+        <v>1.036110231928759</v>
       </c>
       <c r="E24">
-        <v>0.9739340814204268</v>
+        <v>0.9985818761112485</v>
       </c>
       <c r="F24">
-        <v>1.012409525505143</v>
+        <v>1.034869108365178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045949445550575</v>
+        <v>1.047654634433448</v>
       </c>
       <c r="J24">
-        <v>0.9901213472197165</v>
+        <v>1.017756711356188</v>
       </c>
       <c r="K24">
-        <v>1.037575746797402</v>
+        <v>1.049531558924939</v>
       </c>
       <c r="L24">
-        <v>0.9884349469519385</v>
+        <v>1.012633941446886</v>
       </c>
       <c r="M24">
-        <v>1.026222165142911</v>
+        <v>1.048310356484261</v>
       </c>
       <c r="N24">
-        <v>1.000564601324915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009409333416404</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046806769982617</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046143968659991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9688253472586703</v>
+        <v>0.9979515834520193</v>
       </c>
       <c r="D25">
-        <v>1.028586976508105</v>
+        <v>1.039923794571832</v>
       </c>
       <c r="E25">
-        <v>0.9800083852010855</v>
+        <v>1.004991993611964</v>
       </c>
       <c r="F25">
-        <v>1.018642121952885</v>
+        <v>1.03932085069569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047157478558826</v>
+        <v>1.049438079957394</v>
       </c>
       <c r="J25">
-        <v>0.9944494199557729</v>
+        <v>1.022548082184513</v>
       </c>
       <c r="K25">
-        <v>1.04075715206333</v>
+        <v>1.051932418571566</v>
       </c>
       <c r="L25">
-        <v>0.9929251811155858</v>
+        <v>1.017513306446493</v>
       </c>
       <c r="M25">
-        <v>1.030957775084201</v>
+        <v>1.05133795462528</v>
       </c>
       <c r="N25">
-        <v>1.002056292321808</v>
+        <v>1.011072340442285</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049202886308568</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047838633737966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004149577314805</v>
+        <v>1.003962276348312</v>
       </c>
       <c r="D2">
-        <v>1.042842462036045</v>
+        <v>1.039947979684543</v>
       </c>
       <c r="E2">
-        <v>1.00992539586195</v>
+        <v>1.009776035405944</v>
       </c>
       <c r="F2">
-        <v>1.042753901499941</v>
+        <v>1.041055963793384</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050764665111402</v>
+        <v>1.049778681071507</v>
       </c>
       <c r="J2">
-        <v>1.026206879665383</v>
+        <v>1.026025118843505</v>
       </c>
       <c r="K2">
-        <v>1.053735535682063</v>
+        <v>1.050877475919967</v>
       </c>
       <c r="L2">
-        <v>1.021248164538392</v>
+        <v>1.021100834132619</v>
       </c>
       <c r="M2">
-        <v>1.053648085804207</v>
+        <v>1.051971487913319</v>
       </c>
       <c r="N2">
-        <v>1.012337254535549</v>
+        <v>1.013872546371813</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051031176275705</v>
+        <v>1.049704279300982</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049065876036296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047053690714754</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025479585602468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008534837937452</v>
+        <v>1.00821410830516</v>
       </c>
       <c r="D3">
-        <v>1.044945694680086</v>
+        <v>1.041870575124998</v>
       </c>
       <c r="E3">
-        <v>1.01343102284848</v>
+        <v>1.013163933784767</v>
       </c>
       <c r="F3">
-        <v>1.045214738980174</v>
+        <v>1.043391675409825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051698511362514</v>
+        <v>1.050621311355999</v>
       </c>
       <c r="J3">
-        <v>1.028795508182049</v>
+        <v>1.028483325856285</v>
       </c>
       <c r="K3">
-        <v>1.055034056736059</v>
+        <v>1.051994341725387</v>
       </c>
       <c r="L3">
-        <v>1.023894887798527</v>
+        <v>1.023631105398222</v>
       </c>
       <c r="M3">
-        <v>1.05530001570209</v>
+        <v>1.053497897028866</v>
       </c>
       <c r="N3">
-        <v>1.013233685733118</v>
+        <v>1.014548525370727</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052338548150682</v>
+        <v>1.050912313624215</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049981388458304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047840487411866</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025683648790728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011317716427182</v>
+        <v>1.01091333590501</v>
       </c>
       <c r="D4">
-        <v>1.046288749311503</v>
+        <v>1.04309920014165</v>
       </c>
       <c r="E4">
-        <v>1.015661602603581</v>
+        <v>1.015320626159554</v>
       </c>
       <c r="F4">
-        <v>1.046786223545695</v>
+        <v>1.044884058565187</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052284587755032</v>
+        <v>1.051149639204368</v>
       </c>
       <c r="J4">
-        <v>1.030436278688512</v>
+        <v>1.030041938084534</v>
       </c>
       <c r="K4">
-        <v>1.055858852444395</v>
+        <v>1.052703860764123</v>
       </c>
       <c r="L4">
-        <v>1.02557461037435</v>
+        <v>1.02523759542174</v>
       </c>
       <c r="M4">
-        <v>1.056350960018503</v>
+        <v>1.054469349074864</v>
       </c>
       <c r="N4">
-        <v>1.013801538490129</v>
+        <v>1.014976934558598</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053170286282515</v>
+        <v>1.051681141491239</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050565455755022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048343132416802</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025811045936527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012477062889459</v>
+        <v>1.012037874207895</v>
       </c>
       <c r="D5">
-        <v>1.046854484462271</v>
+        <v>1.043617117093874</v>
       </c>
       <c r="E5">
-        <v>1.01659255205865</v>
+        <v>1.016220803730692</v>
       </c>
       <c r="F5">
-        <v>1.047445333739954</v>
+        <v>1.045510128645099</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052529103064306</v>
+        <v>1.05136998485961</v>
       </c>
       <c r="J5">
-        <v>1.031120115702007</v>
+        <v>1.030691502195917</v>
       </c>
       <c r="K5">
-        <v>1.056207218678725</v>
+        <v>1.053004013408054</v>
       </c>
       <c r="L5">
-        <v>1.02627507540344</v>
+        <v>1.025907528762235</v>
       </c>
       <c r="M5">
-        <v>1.056791860913702</v>
+        <v>1.054877017673858</v>
       </c>
       <c r="N5">
-        <v>1.014038525668379</v>
+        <v>1.01515572733271</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053519223703954</v>
+        <v>1.052003778879978</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050818840255711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048563144412464</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025865117256714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012673509841623</v>
+        <v>1.012228204850783</v>
       </c>
       <c r="D6">
-        <v>1.046955666828959</v>
+        <v>1.043709961500343</v>
       </c>
       <c r="E6">
-        <v>1.016750758486574</v>
+        <v>1.016373588774983</v>
       </c>
       <c r="F6">
-        <v>1.047559748978193</v>
+        <v>1.045618758996554</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052572830133364</v>
+        <v>1.051409443062107</v>
       </c>
       <c r="J6">
-        <v>1.031236931272207</v>
+        <v>1.030802293095536</v>
       </c>
       <c r="K6">
-        <v>1.056271869162252</v>
+        <v>1.05306026025975</v>
       </c>
       <c r="L6">
-        <v>1.026394619544854</v>
+        <v>1.0260216928945</v>
       </c>
       <c r="M6">
-        <v>1.05686963386651</v>
+        <v>1.054948974330061</v>
       </c>
       <c r="N6">
-        <v>1.014079498941574</v>
+        <v>1.015186585376197</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053580774693148</v>
+        <v>1.052060726856476</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050873171203479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048612409008351</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025876090260762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011340046419467</v>
+        <v>1.010947140602793</v>
       </c>
       <c r="D7">
-        <v>1.046313592473428</v>
+        <v>1.043126072615808</v>
       </c>
       <c r="E7">
-        <v>1.015680563078668</v>
+        <v>1.015350041614109</v>
       </c>
       <c r="F7">
-        <v>1.046805865236441</v>
+        <v>1.044907160181757</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052295720981409</v>
+        <v>1.051164249485028</v>
       </c>
       <c r="J7">
-        <v>1.030452068338636</v>
+        <v>1.030068913257461</v>
       </c>
       <c r="K7">
-        <v>1.055880602592187</v>
+        <v>1.052727604670551</v>
       </c>
       <c r="L7">
-        <v>1.025590411470166</v>
+        <v>1.025263728518757</v>
       </c>
       <c r="M7">
-        <v>1.056367566847253</v>
+        <v>1.054489370602662</v>
       </c>
       <c r="N7">
-        <v>1.013808361913294</v>
+        <v>1.015011753261836</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053183429248099</v>
+        <v>1.051696986947039</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050600657662524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048381757680431</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025818211073067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005651771130048</v>
+        <v>1.005457231739142</v>
       </c>
       <c r="D8">
-        <v>1.043578437425198</v>
+        <v>1.040632466689286</v>
       </c>
       <c r="E8">
-        <v>1.011126370675313</v>
+        <v>1.010971827326858</v>
       </c>
       <c r="F8">
-        <v>1.043603382623656</v>
+        <v>1.041876248352795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051093865602192</v>
+        <v>1.050089764759691</v>
       </c>
       <c r="J8">
-        <v>1.027097288216421</v>
+        <v>1.026908307010579</v>
       </c>
       <c r="K8">
-        <v>1.054198774865371</v>
+        <v>1.051288798224092</v>
       </c>
       <c r="L8">
-        <v>1.022157708229587</v>
+        <v>1.022005201278763</v>
       </c>
       <c r="M8">
-        <v>1.054223416359784</v>
+        <v>1.052517352400267</v>
       </c>
       <c r="N8">
-        <v>1.012647439619222</v>
+        <v>1.01419720418958</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051486505170136</v>
+        <v>1.050136288892574</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049415997884616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047369388339308</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025559777176433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9951772656994501</v>
+        <v>0.9953150546694465</v>
       </c>
       <c r="D9">
-        <v>1.038589278681937</v>
+        <v>1.036078822285778</v>
       </c>
       <c r="E9">
-        <v>1.002787516426298</v>
+        <v>1.002925928531379</v>
       </c>
       <c r="F9">
-        <v>1.03777689469935</v>
+        <v>1.036353706229864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048820264333549</v>
+        <v>1.048037845299605</v>
       </c>
       <c r="J9">
-        <v>1.020901484177335</v>
+        <v>1.021034342087646</v>
       </c>
       <c r="K9">
-        <v>1.051085828550159</v>
+        <v>1.048612461882763</v>
       </c>
       <c r="L9">
-        <v>1.015835529437902</v>
+        <v>1.015971712289446</v>
       </c>
       <c r="M9">
-        <v>1.050285421860646</v>
+        <v>1.048883273531618</v>
       </c>
       <c r="N9">
-        <v>1.010498638154949</v>
+        <v>1.012589980619333</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048369886629112</v>
+        <v>1.047260191351147</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047211872159626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045473673722171</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025055855999713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.987917221116872</v>
+        <v>0.9883459396136652</v>
       </c>
       <c r="D10">
-        <v>1.035231527341841</v>
+        <v>1.033033919263082</v>
       </c>
       <c r="E10">
-        <v>0.9970511555980169</v>
+        <v>0.9974469487248889</v>
       </c>
       <c r="F10">
-        <v>1.033886144480248</v>
+        <v>1.032692446072803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047242738106026</v>
+        <v>1.046631295382805</v>
       </c>
       <c r="J10">
-        <v>1.016618568835745</v>
+        <v>1.017029691799276</v>
       </c>
       <c r="K10">
-        <v>1.048992525734125</v>
+        <v>1.046831296091442</v>
       </c>
       <c r="L10">
-        <v>1.011473857242304</v>
+        <v>1.011862452810525</v>
       </c>
       <c r="M10">
-        <v>1.047669390238811</v>
+        <v>1.046495493425581</v>
       </c>
       <c r="N10">
-        <v>1.00901968915072</v>
+        <v>1.011612962439129</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046350444079713</v>
+        <v>1.045421447224038</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045748398306475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04423257504089</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024719708154173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9850797820277153</v>
+        <v>0.9856792445398331</v>
       </c>
       <c r="D11">
-        <v>1.03429833418779</v>
+        <v>1.032190824426516</v>
       </c>
       <c r="E11">
-        <v>0.9948765324359793</v>
+        <v>0.9954229423960098</v>
       </c>
       <c r="F11">
-        <v>1.033065053475586</v>
+        <v>1.031956649610901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046844613011869</v>
+        <v>1.046298928335508</v>
       </c>
       <c r="J11">
-        <v>1.015086707416999</v>
+        <v>1.015660162300082</v>
       </c>
       <c r="K11">
-        <v>1.048601178306829</v>
+        <v>1.046530172840296</v>
       </c>
       <c r="L11">
-        <v>1.009895720999643</v>
+        <v>1.010431694613682</v>
       </c>
       <c r="M11">
-        <v>1.047389235927637</v>
+        <v>1.046300066093325</v>
       </c>
       <c r="N11">
-        <v>1.008554094603714</v>
+        <v>1.011517091705016</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046560911993949</v>
+        <v>1.045699392216191</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045504096828773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04405529285836</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024726084105815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9841470500473021</v>
+        <v>0.9848008710837733</v>
       </c>
       <c r="D12">
-        <v>1.034130657494112</v>
+        <v>1.03203135826406</v>
       </c>
       <c r="E12">
-        <v>0.9941884679892042</v>
+        <v>0.9947812039842779</v>
       </c>
       <c r="F12">
-        <v>1.033068046110317</v>
+        <v>1.031976515588658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046797537313731</v>
+        <v>1.046263906366305</v>
       </c>
       <c r="J12">
-        <v>1.014637825888853</v>
+        <v>1.015262711595467</v>
       </c>
       <c r="K12">
-        <v>1.048631933122362</v>
+        <v>1.046569583702468</v>
       </c>
       <c r="L12">
-        <v>1.009427861205528</v>
+        <v>1.010009075569041</v>
       </c>
       <c r="M12">
-        <v>1.047588000454595</v>
+        <v>1.046515708926905</v>
       </c>
       <c r="N12">
-        <v>1.008450621498536</v>
+        <v>1.01154824172033</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047041747623567</v>
+        <v>1.046193860822158</v>
       </c>
       <c r="Q12">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045525840911001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044083156414928</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024777083735169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9846319611790941</v>
+        <v>0.9852321681436208</v>
       </c>
       <c r="D13">
-        <v>1.034565356116296</v>
+        <v>1.032404410446023</v>
       </c>
       <c r="E13">
-        <v>0.9946082506635492</v>
+        <v>0.9951503040044113</v>
       </c>
       <c r="F13">
-        <v>1.033732034970958</v>
+        <v>1.032596905943308</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047033411613046</v>
+        <v>1.04646326631558</v>
       </c>
       <c r="J13">
-        <v>1.015006213042464</v>
+        <v>1.015579990180979</v>
       </c>
       <c r="K13">
-        <v>1.049017089820286</v>
+        <v>1.046894014017041</v>
       </c>
       <c r="L13">
-        <v>1.00979509839613</v>
+        <v>1.010326661660281</v>
       </c>
       <c r="M13">
-        <v>1.048198348057251</v>
+        <v>1.047083127759551</v>
       </c>
       <c r="N13">
-        <v>1.008625299775064</v>
+        <v>1.011643764736147</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047798905782012</v>
+        <v>1.046917292688141</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045795694834291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044309828243052</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024873605895417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9856131248843552</v>
+        <v>0.9861277423459007</v>
       </c>
       <c r="D14">
-        <v>1.035143553094273</v>
+        <v>1.032908739455322</v>
       </c>
       <c r="E14">
-        <v>0.9954035727203642</v>
+        <v>0.995867233198233</v>
       </c>
       <c r="F14">
-        <v>1.034495779640043</v>
+        <v>1.033303480032091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047326245374359</v>
+        <v>1.046709322689403</v>
       </c>
       <c r="J14">
-        <v>1.015633438094277</v>
+        <v>1.016125728671912</v>
       </c>
       <c r="K14">
-        <v>1.049447952360602</v>
+        <v>1.047251822616337</v>
       </c>
       <c r="L14">
-        <v>1.010429778063677</v>
+        <v>1.010884582371347</v>
       </c>
       <c r="M14">
-        <v>1.048811369400909</v>
+        <v>1.047639714616793</v>
       </c>
       <c r="N14">
-        <v>1.008873432780794</v>
+        <v>1.011741227466591</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048455652280452</v>
+        <v>1.047529549831889</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046101724968995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044564343383047</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024962280363059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9861634614356353</v>
+        <v>0.9866344276616904</v>
       </c>
       <c r="D15">
-        <v>1.035426838879082</v>
+        <v>1.033158383226738</v>
       </c>
       <c r="E15">
-        <v>0.9958416785777681</v>
+        <v>0.9962659189328382</v>
       </c>
       <c r="F15">
-        <v>1.034842036612236</v>
+        <v>1.033622539882174</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047464864673546</v>
+        <v>1.046826015994118</v>
       </c>
       <c r="J15">
-        <v>1.01596875465857</v>
+        <v>1.016419472080394</v>
       </c>
       <c r="K15">
-        <v>1.049641820512793</v>
+        <v>1.047412338213594</v>
       </c>
       <c r="L15">
-        <v>1.010770076753956</v>
+        <v>1.01118627842363</v>
       </c>
       <c r="M15">
-        <v>1.049067044352433</v>
+        <v>1.047868502396633</v>
       </c>
       <c r="N15">
-        <v>1.008996427848244</v>
+        <v>1.011783660127573</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048695045137319</v>
+        <v>1.047747715197572</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046244579109876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044684189452814</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024997467162253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891494666214786</v>
+        <v>0.9894171053209425</v>
       </c>
       <c r="D16">
-        <v>1.036777529332653</v>
+        <v>1.034362240863744</v>
       </c>
       <c r="E16">
-        <v>0.998186493965547</v>
+        <v>0.9984297712549525</v>
       </c>
       <c r="F16">
-        <v>1.036397430355527</v>
+        <v>1.035055604803109</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048106228411767</v>
+        <v>1.047371011464018</v>
       </c>
       <c r="J16">
-        <v>1.017722111314401</v>
+        <v>1.01797883699114</v>
       </c>
       <c r="K16">
-        <v>1.050478230458063</v>
+        <v>1.04810266525049</v>
       </c>
       <c r="L16">
-        <v>1.012551794925649</v>
+        <v>1.012790673360989</v>
       </c>
       <c r="M16">
-        <v>1.05010436702757</v>
+        <v>1.048784601312623</v>
       </c>
       <c r="N16">
-        <v>1.009592708777376</v>
+        <v>1.01199221890123</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049476473425573</v>
+        <v>1.048433298601849</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046839058182629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045175689425481</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025123632964212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9909269599331546</v>
+        <v>0.9910991506473129</v>
       </c>
       <c r="D17">
-        <v>1.037511985519012</v>
+        <v>1.035026778994729</v>
       </c>
       <c r="E17">
-        <v>0.9995711450892101</v>
+        <v>0.9997306303025361</v>
       </c>
       <c r="F17">
-        <v>1.037186561826511</v>
+        <v>1.03578639274173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048442786650757</v>
+        <v>1.047663139546041</v>
       </c>
       <c r="J17">
-        <v>1.018738322719743</v>
+        <v>1.018903725388224</v>
       </c>
       <c r="K17">
-        <v>1.050892778592626</v>
+        <v>1.048447323258782</v>
       </c>
       <c r="L17">
-        <v>1.01358669786607</v>
+        <v>1.013743384194338</v>
       </c>
       <c r="M17">
-        <v>1.050572546199668</v>
+        <v>1.049194760932889</v>
       </c>
       <c r="N17">
-        <v>1.009919903586606</v>
+        <v>1.012132710642227</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049718363134669</v>
+        <v>1.048629220984899</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047134704550386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045422173201881</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025174007553599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9918292870846575</v>
+        <v>0.9919720895435634</v>
       </c>
       <c r="D18">
-        <v>1.037751475263155</v>
+        <v>1.035253712274985</v>
       </c>
       <c r="E18">
-        <v>1.000252346333158</v>
+        <v>1.000387535631968</v>
       </c>
       <c r="F18">
-        <v>1.0373394573528</v>
+        <v>1.035925453156829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048533328948462</v>
+        <v>1.047744848835984</v>
       </c>
       <c r="J18">
-        <v>1.019204568001809</v>
+        <v>1.019341850346451</v>
       </c>
       <c r="K18">
-        <v>1.050948903173351</v>
+        <v>1.048490455518772</v>
       </c>
       <c r="L18">
-        <v>1.014066725371922</v>
+        <v>1.014199583057418</v>
       </c>
       <c r="M18">
-        <v>1.050543353831037</v>
+        <v>1.049151599197655</v>
       </c>
       <c r="N18">
-        <v>1.010040762590898</v>
+        <v>1.012182868230546</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049459393762991</v>
+        <v>1.04835898259119</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047162916687721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045440058670133</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025152446631125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9919389414113976</v>
+        <v>0.992101154183186</v>
       </c>
       <c r="D19">
-        <v>1.037559935304439</v>
+        <v>1.035097882057637</v>
       </c>
       <c r="E19">
-        <v>1.000297865447043</v>
+        <v>1.000452467898784</v>
       </c>
       <c r="F19">
-        <v>1.036917672879003</v>
+        <v>1.035526041256785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048407840337641</v>
+        <v>1.047638932903819</v>
       </c>
       <c r="J19">
-        <v>1.019173552635122</v>
+        <v>1.019329533846726</v>
       </c>
       <c r="K19">
-        <v>1.050699128153243</v>
+        <v>1.048275638792124</v>
       </c>
       <c r="L19">
-        <v>1.014046943491225</v>
+        <v>1.014198894204716</v>
       </c>
       <c r="M19">
-        <v>1.0500669031009</v>
+        <v>1.048697074752887</v>
       </c>
       <c r="N19">
-        <v>1.0099813732603</v>
+        <v>1.012133863124709</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048759939000912</v>
+        <v>1.047676515879834</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046992627054106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045295114551978</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025070953243898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9898198825975667</v>
+        <v>0.9901332508482125</v>
       </c>
       <c r="D20">
-        <v>1.036144492438088</v>
+        <v>1.03385157121089</v>
       </c>
       <c r="E20">
-        <v>0.9985551939684104</v>
+        <v>0.9988476272864913</v>
       </c>
       <c r="F20">
-        <v>1.03492295962972</v>
+        <v>1.033653392984349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047675684292473</v>
+        <v>1.047004578382971</v>
       </c>
       <c r="J20">
-        <v>1.017748950607075</v>
+        <v>1.018049889980537</v>
       </c>
       <c r="K20">
-        <v>1.04958022537059</v>
+        <v>1.04732419955419</v>
       </c>
       <c r="L20">
-        <v>1.012623496212915</v>
+        <v>1.012910770089913</v>
       </c>
       <c r="M20">
-        <v>1.048378322147657</v>
+        <v>1.047129220078535</v>
       </c>
       <c r="N20">
-        <v>1.009414473095879</v>
+        <v>1.011794350800441</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046901033740444</v>
+        <v>1.045912509320726</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04620540770297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044626686803262</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024818109173086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9842806239593642</v>
+        <v>0.9850047597089632</v>
       </c>
       <c r="D21">
-        <v>1.033525636731058</v>
+        <v>1.03153733046957</v>
       </c>
       <c r="E21">
-        <v>0.9941808162753952</v>
+        <v>0.9948435242714976</v>
       </c>
       <c r="F21">
-        <v>1.031840176775197</v>
+        <v>1.030822130638193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046415789240031</v>
+        <v>1.045946786142581</v>
       </c>
       <c r="J21">
-        <v>1.014450591746408</v>
+        <v>1.015143085329277</v>
       </c>
       <c r="K21">
-        <v>1.047898525091586</v>
+        <v>1.045944877212039</v>
       </c>
       <c r="L21">
-        <v>1.009273279953229</v>
+        <v>1.009923250645504</v>
       </c>
       <c r="M21">
-        <v>1.046242433403431</v>
+        <v>1.045242186463325</v>
       </c>
       <c r="N21">
-        <v>1.008263411826903</v>
+        <v>1.011420996249229</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045170159851771</v>
+        <v>1.044378536121216</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045019592041507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043654983249827</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024548936704619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9807354800754093</v>
+        <v>0.9817215527183087</v>
       </c>
       <c r="D22">
-        <v>1.031870560920833</v>
+        <v>1.030075854358769</v>
       </c>
       <c r="E22">
-        <v>0.9913919752079152</v>
+        <v>0.9922912957461745</v>
       </c>
       <c r="F22">
-        <v>1.029917979469571</v>
+        <v>1.029060566906639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045611152351755</v>
+        <v>1.045271138616915</v>
       </c>
       <c r="J22">
-        <v>1.012345133075746</v>
+        <v>1.01328550995051</v>
       </c>
       <c r="K22">
-        <v>1.046836035011088</v>
+        <v>1.045074155252977</v>
       </c>
       <c r="L22">
-        <v>1.007135909462571</v>
+        <v>1.008017026117283</v>
       </c>
       <c r="M22">
-        <v>1.044919175168306</v>
+        <v>1.044077504386367</v>
       </c>
       <c r="N22">
-        <v>1.007530333461619</v>
+        <v>1.011176117320984</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044122895659686</v>
+        <v>1.043456772690265</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044255059012059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043024724942377</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024378463822743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.982615849727241</v>
+        <v>0.9834419339050259</v>
       </c>
       <c r="D23">
-        <v>1.032734719950312</v>
+        <v>1.030831340285619</v>
       </c>
       <c r="E23">
-        <v>0.9928691354713211</v>
+        <v>0.9936234221448491</v>
       </c>
       <c r="F23">
-        <v>1.030929922931674</v>
+        <v>1.029979454695553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046032708416999</v>
+        <v>1.045616818662337</v>
       </c>
       <c r="J23">
-        <v>1.013459507501675</v>
+        <v>1.014248475250504</v>
       </c>
       <c r="K23">
-        <v>1.047385977134847</v>
+        <v>1.045516542749713</v>
       </c>
       <c r="L23">
-        <v>1.008267070868043</v>
+        <v>1.009006499614147</v>
       </c>
       <c r="M23">
-        <v>1.04561336325497</v>
+        <v>1.044679902659229</v>
       </c>
       <c r="N23">
-        <v>1.007916823030033</v>
+        <v>1.011257674178489</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044672296036533</v>
+        <v>1.043933528432508</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044634377026556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043327053362006</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024462314119087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.989862774528648</v>
+        <v>0.9901780532561668</v>
       </c>
       <c r="D24">
-        <v>1.036110231928759</v>
+        <v>1.033821973693608</v>
       </c>
       <c r="E24">
-        <v>0.9985818761112485</v>
+        <v>0.9988763078407317</v>
       </c>
       <c r="F24">
-        <v>1.034869108365178</v>
+        <v>1.033602520356074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047654634433448</v>
+        <v>1.046986279651308</v>
       </c>
       <c r="J24">
-        <v>1.017756711356188</v>
+        <v>1.01805950461093</v>
       </c>
       <c r="K24">
-        <v>1.049531558924939</v>
+        <v>1.047280076981105</v>
       </c>
       <c r="L24">
-        <v>1.012633941446886</v>
+        <v>1.012923185550864</v>
       </c>
       <c r="M24">
-        <v>1.048310356484261</v>
+        <v>1.047064161621925</v>
       </c>
       <c r="N24">
-        <v>1.009409333416404</v>
+        <v>1.01178742061184</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046806769982617</v>
+        <v>1.045820498175162</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046143968659991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044565772747124</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024800679165291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9979515834520193</v>
+        <v>0.997983229214688</v>
       </c>
       <c r="D25">
-        <v>1.039923794571832</v>
+        <v>1.037291964125518</v>
       </c>
       <c r="E25">
-        <v>1.004991993611964</v>
+        <v>1.005036338863667</v>
       </c>
       <c r="F25">
-        <v>1.03932085069569</v>
+        <v>1.0378099937892</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049438079957394</v>
+        <v>1.048590291958113</v>
       </c>
       <c r="J25">
-        <v>1.022548082184513</v>
+        <v>1.022578656886835</v>
       </c>
       <c r="K25">
-        <v>1.051932418571566</v>
+        <v>1.049337694262026</v>
       </c>
       <c r="L25">
-        <v>1.017513306446493</v>
+        <v>1.017556972031585</v>
       </c>
       <c r="M25">
-        <v>1.05133795462528</v>
+        <v>1.049848401431039</v>
       </c>
       <c r="N25">
-        <v>1.011072340442285</v>
+        <v>1.012983175411755</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049202886308568</v>
+        <v>1.048024017902596</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047838633737966</v>
+        <v>1.046017454263607</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.02519734879714</v>
       </c>
     </row>
   </sheetData>
